--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -6538,7 +6538,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="3">
@@ -6549,7 +6549,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="4">
@@ -6560,7 +6560,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="5">
@@ -6571,7 +6571,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="6">
@@ -6582,7 +6582,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="7">
@@ -6593,7 +6593,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="8">
@@ -6604,7 +6604,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="9">
@@ -6615,7 +6615,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="10">
@@ -6626,7 +6626,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="11">
@@ -6637,7 +6637,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="12">
@@ -6648,7 +6648,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="13">
@@ -6659,7 +6659,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="14">
@@ -6670,7 +6670,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="15">
@@ -6681,7 +6681,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="16">
@@ -6692,7 +6692,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="17">
@@ -6703,7 +6703,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="18">
@@ -6714,7 +6714,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="19">
@@ -6725,7 +6725,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="20">
@@ -6736,7 +6736,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="21">
@@ -6747,7 +6747,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="22">
@@ -6758,7 +6758,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="23">
@@ -6769,7 +6769,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="24">
@@ -6780,7 +6780,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="25">
@@ -6791,7 +6791,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="26">
@@ -6802,7 +6802,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="27">
@@ -6813,7 +6813,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="28">
@@ -6824,7 +6824,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="29">
@@ -6835,7 +6835,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="30">
@@ -6846,7 +6846,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="31">
@@ -6857,7 +6857,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="32">
@@ -6868,7 +6868,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="33">
@@ -6879,7 +6879,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="34">
@@ -6890,7 +6890,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="35">
@@ -6901,7 +6901,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="36">
@@ -6912,7 +6912,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="37">
@@ -6923,7 +6923,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="38">
@@ -6934,7 +6934,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="39">
@@ -6945,7 +6945,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="40">
@@ -6956,7 +6956,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="41">
@@ -6967,7 +6967,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="42">
@@ -6978,7 +6978,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="43">
@@ -6989,7 +6989,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="44">
@@ -7000,7 +7000,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="45">
@@ -7011,7 +7011,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="46">
@@ -7022,7 +7022,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="47">
@@ -7033,7 +7033,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="48">
@@ -7044,7 +7044,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="49">
@@ -7055,7 +7055,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="50">
@@ -7066,7 +7066,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="51">
@@ -7077,7 +7077,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="52">
@@ -7088,7 +7088,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="53">
@@ -7099,7 +7099,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="54">
@@ -7110,7 +7110,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="55">
@@ -7121,7 +7121,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="56">
@@ -7132,7 +7132,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="57">
@@ -7143,7 +7143,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="58">
@@ -7154,7 +7154,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="59">
@@ -7165,7 +7165,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="60">
@@ -7176,7 +7176,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="61">
@@ -7187,7 +7187,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="62">
@@ -7198,7 +7198,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="63">
@@ -7209,7 +7209,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="64">
@@ -7220,7 +7220,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="65">
@@ -7231,7 +7231,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="66">
@@ -7242,7 +7242,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="67">
@@ -7253,7 +7253,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="68">
@@ -7264,7 +7264,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="69">
@@ -7275,7 +7275,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="70">
@@ -7286,7 +7286,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="71">
@@ -7297,7 +7297,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="72">
@@ -7308,7 +7308,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="73">
@@ -7319,7 +7319,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="74">
@@ -7330,7 +7330,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="75">
@@ -7341,7 +7341,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="76">
@@ -7352,7 +7352,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="77">
@@ -7363,7 +7363,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="78">
@@ -7374,7 +7374,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="79">
@@ -7385,7 +7385,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="80">
@@ -7396,7 +7396,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="81">
@@ -7407,7 +7407,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="82">
@@ -7418,7 +7418,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="83">
@@ -7429,7 +7429,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="84">
@@ -7440,7 +7440,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="85">
@@ -7451,7 +7451,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="86">
@@ -7462,7 +7462,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="87">
@@ -7473,7 +7473,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="88">
@@ -7484,7 +7484,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="89">
@@ -7495,7 +7495,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="90">
@@ -7506,7 +7506,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="91">
@@ -7517,7 +7517,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="92">
@@ -7528,7 +7528,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="93">
@@ -7539,7 +7539,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="94">
@@ -7550,7 +7550,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Total Annual Cost" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Total Economic Loss" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Applied Demands" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GWBankDemands" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="StorageDemands" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="GWBankVolume" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="GWBankTake" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="GWBankPut" sheetId="7" state="visible" r:id="rId7"/>
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>15467307.87667598</v>
+        <v>71306400.04671843</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>14275993.20384712</v>
+        <v>68587726.33105096</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4925426.908090084</v>
+        <v>275764616.5824751</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>10169187.32794047</v>
+        <v>153975840.0426206</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>10401375.35706848</v>
+        <v>156426279.8716294</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>12776169.35510776</v>
+        <v>154837841.1567045</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>12122988.92202741</v>
+        <v>162678416.4133644</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5154253.844520164</v>
+        <v>207505091.4632434</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>8874149.137438647</v>
+        <v>162774524.212621</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4479558.038707823</v>
+        <v>226074713.3663148</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>6916712.443976915</v>
+        <v>202606069.1851418</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>7319740.964718893</v>
+        <v>234484955.8242993</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5919481.344304165</v>
+        <v>192202375.2897353</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>9015118.476126088</v>
+        <v>173066864.015955</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>12704688.58943342</v>
+        <v>154998464.9308866</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>10692897.47521078</v>
+        <v>161716380.5158835</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>15511385.36414507</v>
+        <v>68411547.69700919</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>11074952.05137929</v>
+        <v>169171899.7272645</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>11281455.07344669</v>
+        <v>159291435.9376023</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>15411074.05044029</v>
+        <v>68467034.06192279</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>15859707.12275611</v>
+        <v>68218876.4270215</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>15851649.29996104</v>
+        <v>68223333.54436456</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>10388613.20262934</v>
+        <v>174940788.7406322</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>13024345.25761952</v>
+        <v>154313595.5113933</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>14338506.23734127</v>
+        <v>69127090.14792109</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>10591129.73026532</v>
+        <v>173113073.0613106</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>8419895.7036983</v>
+        <v>165391049.3419265</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>12082873.11313453</v>
+        <v>152610395.9289285</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>9444041.32861218</v>
+        <v>159949941.5318053</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>14460618.20025957</v>
+        <v>69039972.50266798</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>15803532.42320045</v>
+        <v>68249948.99265084</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>14880764.6525601</v>
+        <v>153987734.4805636</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>11852180.90385124</v>
+        <v>152996642.6919705</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>10894922.25415206</v>
+        <v>155042496.3080782</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>15432379.99024772</v>
+        <v>68455248.85936366</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>10517224.82642171</v>
+        <v>173731614.996713</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>15361214.22994007</v>
+        <v>68494613.60497355</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>13413218.20091805</v>
+        <v>157557506.1788989</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>8324440.267083074</v>
+        <v>166062473.193146</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>10078116.91979573</v>
+        <v>157527603.9264222</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>9517930.171392344</v>
+        <v>159631087.841297</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>14924616.02763454</v>
+        <v>68708945.1638436</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>10237173.41950819</v>
+        <v>176493323.9217184</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>14952554.26341131</v>
+        <v>68720660.45044824</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>12326925.9464633</v>
+        <v>161689351.2049618</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>15553170.65611573</v>
+        <v>68388434.51193888</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>14337093.79494978</v>
+        <v>155116472.6800007</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>15757059.20288194</v>
+        <v>68275655.26611161</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>15592253.09714176</v>
+        <v>68232636.63526751</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>11759233.15795435</v>
+        <v>164637900.6008855</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>11418255.28478753</v>
+        <v>153832954.0035108</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>14426104.8532215</v>
+        <v>69064595.16413295</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>15787532.34086164</v>
+        <v>68258799.30449015</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>14530503.88266835</v>
+        <v>68954114.09164709</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>9042602.139237579</v>
+        <v>192563301.9722689</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3714623.03651678</v>
+        <v>252962214.7984976</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>14713881.7908291</v>
+        <v>68852680.13416508</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>14173075.61250979</v>
+        <v>69245112.38049883</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>15734927.34397805</v>
+        <v>68287897.31891704</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>12330278.57805294</v>
+        <v>161723515.0288115</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>15556360.77489346</v>
+        <v>68386669.92439556</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>15196622.95883098</v>
+        <v>68514888.80137065</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>12036152.86442794</v>
+        <v>163172420.2849106</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>15343962.69787148</v>
+        <v>68504156.14577302</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10681476.41161022</v>
+        <v>172785323.8675387</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>8202072.489149316</v>
+        <v>166890229.5324392</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>8265318.290755522</v>
+        <v>166457691.4296048</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>7262318.24174059</v>
+        <v>174694467.1112428</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4358466.775472678</v>
+        <v>230074211.3262015</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6598960.621098698</v>
+        <v>182175639.3835852</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>13497860.72156341</v>
+        <v>153318143.2776757</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>11207527.10470622</v>
+        <v>168675674.4053533</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>15440612.55072757</v>
+        <v>68450695.08733051</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>15620210.06021401</v>
+        <v>68351352.22578388</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>15893586.88551395</v>
+        <v>68200136.11937186</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>15911556.98701414</v>
+        <v>68190196.10789612</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>15319467.61027232</v>
+        <v>68427248.43829936</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>14243718.05116007</v>
+        <v>69194714.34607965</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>11275000.89769531</v>
+        <v>167740800.5420159</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>11124494.19232186</v>
+        <v>154481804.7374096</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>12152981.52540478</v>
+        <v>152500103.9272394</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>12581292.31448059</v>
+        <v>68599802.95749058</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>15122915.3402404</v>
+        <v>68626426.64444079</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>15876296.16381384</v>
+        <v>68209700.33758852</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>14176555.26816908</v>
+        <v>155945587.8913524</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>9261435.489619618</v>
+        <v>160827496.1900521</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>7442771.263907343</v>
+        <v>172920535.6392345</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>10565127.57689347</v>
+        <v>162474881.7126663</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>15455227.81602237</v>
+        <v>68442610.77546673</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>13984897.69078986</v>
+        <v>155947773.8611678</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>11186207.21294427</v>
+        <v>154385716.815189</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4617907.41124785</v>
+        <v>221779480.1235125</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1538,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1120.0130309</v>
       </c>
     </row>
     <row r="4">
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1560,7 +1560,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1571,7 +1571,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1582,7 +1582,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1593,7 +1593,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1604,7 +1604,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1615,7 +1615,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1626,7 +1626,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1637,7 +1637,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -1648,7 +1648,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1659,7 +1659,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1670,7 +1670,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -1681,7 +1681,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -1692,7 +1692,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -1703,7 +1703,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-950.2274209000011</v>
       </c>
     </row>
     <row r="19">
@@ -1714,7 +1714,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -1725,7 +1725,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -1736,7 +1736,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-824.1907908999988</v>
       </c>
     </row>
     <row r="22">
@@ -1747,7 +1747,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1387.8779609</v>
       </c>
     </row>
     <row r="23">
@@ -1758,7 +1758,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1377.7536709</v>
       </c>
     </row>
     <row r="24">
@@ -1769,7 +1769,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -1780,7 +1780,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -1791,7 +1791,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>523.4421691000002</v>
       </c>
     </row>
     <row r="27">
@@ -1802,7 +1802,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -1813,7 +1813,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -1824,7 +1824,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1835,7 +1835,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1846,7 +1846,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>370.0140091000007</v>
       </c>
     </row>
     <row r="32">
@@ -1857,7 +1857,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1317.296990900001</v>
       </c>
     </row>
     <row r="33">
@@ -1868,7 +1868,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -1879,7 +1879,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1890,7 +1890,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1901,7 +1901,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-850.9607409000005</v>
       </c>
     </row>
     <row r="37">
@@ -1912,7 +1912,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -1923,7 +1923,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-761.544180899999</v>
       </c>
     </row>
     <row r="39">
@@ -1934,7 +1934,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
@@ -1945,7 +1945,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -1956,7 +1956,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -1967,7 +1967,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -1978,7 +1978,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-212.9782809000012</v>
       </c>
     </row>
     <row r="44">
@@ -1989,7 +1989,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -2000,7 +2000,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>-248.0814109000007</v>
       </c>
     </row>
     <row r="46">
@@ -2011,7 +2011,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -2022,7 +2022,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>-1002.7287509</v>
       </c>
     </row>
     <row r="48">
@@ -2033,7 +2033,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -2044,7 +2044,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1258.905490899999</v>
       </c>
     </row>
     <row r="50">
@@ -2055,7 +2055,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-1051.834070899999</v>
       </c>
     </row>
     <row r="51">
@@ -2066,7 +2066,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -2077,7 +2077,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53">
@@ -2088,7 +2088,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>413.3784691000014</v>
       </c>
     </row>
     <row r="54">
@@ -2099,7 +2099,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-1297.1936109</v>
       </c>
     </row>
     <row r="55">
@@ -2110,7 +2110,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>282.2058091000013</v>
       </c>
     </row>
     <row r="56">
@@ -2121,7 +2121,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
@@ -2132,7 +2132,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -2143,7 +2143,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>51.79975909999985</v>
       </c>
     </row>
     <row r="59">
@@ -2154,7 +2154,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>731.2982691000011</v>
       </c>
     </row>
     <row r="60">
@@ -2165,7 +2165,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-1231.097810900001</v>
       </c>
     </row>
     <row r="61">
@@ -2176,7 +2176,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62">
@@ -2187,7 +2187,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-1006.736990899999</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1453.0249709</v>
       </c>
     </row>
     <row r="64">
@@ -2209,7 +2209,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>-554.742690900001</v>
       </c>
     </row>
     <row r="65">
@@ -2220,7 +2220,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="66">
@@ -2231,7 +2231,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-739.868410900001</v>
       </c>
     </row>
     <row r="67">
@@ -2242,7 +2242,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="68">
@@ -2253,7 +2253,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
@@ -2264,7 +2264,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
@@ -2275,7 +2275,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71">
@@ -2286,7 +2286,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
@@ -2297,7 +2297,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73">
@@ -2308,7 +2308,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="74">
@@ -2319,7 +2319,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="75">
@@ -2330,7 +2330,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-861.3045808999982</v>
       </c>
     </row>
     <row r="76">
@@ -2341,7 +2341,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-1086.960730900001</v>
       </c>
     </row>
     <row r="77">
@@ -2352,7 +2352,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-1430.4463509</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2363,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-1453.0249709</v>
       </c>
     </row>
     <row r="79">
@@ -2374,7 +2374,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>-709.0914408999984</v>
       </c>
     </row>
     <row r="80">
@@ -2385,7 +2385,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>642.5392391</v>
       </c>
     </row>
     <row r="81">
@@ -2396,7 +2396,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -2407,7 +2407,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -2418,7 +2418,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84">
@@ -2429,7 +2429,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>-71.69799089999879</v>
       </c>
     </row>
     <row r="85">
@@ -2440,7 +2440,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-462.1324009000004</v>
       </c>
     </row>
     <row r="86">
@@ -2451,7 +2451,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-1408.721340899998</v>
       </c>
     </row>
     <row r="87">
@@ -2462,7 +2462,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="88">
@@ -2473,7 +2473,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -2484,7 +2484,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
@@ -2495,7 +2495,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="91">
@@ -2506,7 +2506,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>-879.6680008999997</v>
       </c>
     </row>
     <row r="92">
@@ -2517,7 +2517,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="93">
@@ -2528,7 +2528,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2586,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-2616.846050899998</v>
       </c>
     </row>
     <row r="3">
@@ -2608,7 +2608,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11571.7397251</v>
       </c>
     </row>
     <row r="5">
@@ -2619,7 +2619,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1138.0028591</v>
       </c>
     </row>
     <row r="6">
@@ -2630,7 +2630,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2567.269099099999</v>
       </c>
     </row>
     <row r="7">
@@ -2641,7 +2641,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1486.447819100001</v>
       </c>
     </row>
     <row r="8">
@@ -2652,7 +2652,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4250.3284991</v>
       </c>
     </row>
     <row r="9">
@@ -2663,7 +2663,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>9160.040026100001</v>
       </c>
     </row>
     <row r="10">
@@ -2674,7 +2674,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4486.1597891</v>
       </c>
     </row>
     <row r="11">
@@ -2685,7 +2685,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>10007.7647991</v>
       </c>
     </row>
     <row r="12">
@@ -2696,7 +2696,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8848.5904871</v>
       </c>
     </row>
     <row r="13">
@@ -2707,7 +2707,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10285.3923741</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2718,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8198.566273100001</v>
       </c>
     </row>
     <row r="15">
@@ -2729,7 +2729,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6212.038189100002</v>
       </c>
     </row>
     <row r="16">
@@ -2740,7 +2740,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1576.2601691</v>
       </c>
     </row>
     <row r="17">
@@ -2751,7 +2751,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4103.9847391</v>
       </c>
     </row>
     <row r="18">
@@ -2773,7 +2773,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5567.139439099999</v>
       </c>
     </row>
     <row r="20">
@@ -2784,7 +2784,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3364.488729100001</v>
       </c>
     </row>
     <row r="21">
@@ -2828,7 +2828,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6429.4931691</v>
       </c>
     </row>
     <row r="25">
@@ -2839,7 +2839,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1174.6260191</v>
       </c>
     </row>
     <row r="26">
@@ -2861,7 +2861,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6175.040309099999</v>
       </c>
     </row>
     <row r="28">
@@ -2872,7 +2872,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>5056.908689100001</v>
       </c>
     </row>
     <row r="29">
@@ -2883,7 +2883,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>454.5431991</v>
       </c>
     </row>
     <row r="30">
@@ -2894,7 +2894,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3770.116019100001</v>
       </c>
     </row>
     <row r="31">
@@ -2927,7 +2927,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>785.3079890999998</v>
       </c>
     </row>
     <row r="34">
@@ -2938,7 +2938,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>744.3975291000002</v>
       </c>
     </row>
     <row r="35">
@@ -2949,7 +2949,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1947.149739100001</v>
       </c>
     </row>
     <row r="36">
@@ -2971,7 +2971,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>6267.898479099998</v>
       </c>
     </row>
     <row r="38">
@@ -2993,7 +2993,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2629.213749099998</v>
       </c>
     </row>
     <row r="40">
@@ -3004,7 +3004,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5176.844129100002</v>
       </c>
     </row>
     <row r="41">
@@ -3015,7 +3015,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2973.4287091</v>
       </c>
     </row>
     <row r="42">
@@ -3026,7 +3026,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3677.278029100001</v>
       </c>
     </row>
     <row r="43">
@@ -3048,7 +3048,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6619.7704091</v>
       </c>
     </row>
     <row r="45">
@@ -3070,7 +3070,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3994.090849099999</v>
       </c>
     </row>
     <row r="47">
@@ -3092,7 +3092,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1468.405839099998</v>
       </c>
     </row>
     <row r="49">
@@ -3125,7 +3125,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>4707.371169099999</v>
       </c>
     </row>
     <row r="52">
@@ -3136,7 +3136,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1289.605449100001</v>
       </c>
     </row>
     <row r="53">
@@ -3180,7 +3180,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>8120.695209099998</v>
       </c>
     </row>
     <row r="57">
@@ -3191,7 +3191,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>10968.8710421</v>
       </c>
     </row>
     <row r="58">
@@ -3235,7 +3235,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3989.8784191</v>
       </c>
     </row>
     <row r="62">
@@ -3279,7 +3279,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>4359.4340791</v>
       </c>
     </row>
     <row r="66">
@@ -3301,7 +3301,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6061.5237891</v>
       </c>
     </row>
     <row r="68">
@@ -3312,7 +3312,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>5330.593709100001</v>
       </c>
     </row>
     <row r="69">
@@ -3323,7 +3323,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5251.128219100001</v>
       </c>
     </row>
     <row r="70">
@@ -3334,7 +3334,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>6511.352429100001</v>
       </c>
     </row>
     <row r="71">
@@ -3345,7 +3345,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>10159.9104961</v>
       </c>
     </row>
     <row r="72">
@@ -3356,7 +3356,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>7344.831285100001</v>
       </c>
     </row>
     <row r="73">
@@ -3367,7 +3367,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>579.675249100002</v>
       </c>
     </row>
     <row r="74">
@@ -3378,7 +3378,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>5400.564879099999</v>
       </c>
     </row>
     <row r="75">
@@ -3455,7 +3455,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>5315.7871091</v>
       </c>
     </row>
     <row r="82">
@@ -3466,7 +3466,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1658.7029791</v>
       </c>
     </row>
     <row r="83">
@@ -3477,7 +3477,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>366.4551490999997</v>
       </c>
     </row>
     <row r="84">
@@ -3521,7 +3521,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1670.115239099998</v>
       </c>
     </row>
     <row r="88">
@@ -3532,7 +3532,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>3999.5519991</v>
       </c>
     </row>
     <row r="89">
@@ -3543,7 +3543,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>6284.6213661</v>
       </c>
     </row>
     <row r="90">
@@ -3554,7 +3554,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>4264.521839100002</v>
       </c>
     </row>
     <row r="91">
@@ -3576,7 +3576,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1910.924319100001</v>
       </c>
     </row>
     <row r="93">
@@ -3587,7 +3587,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1581.1633591</v>
       </c>
     </row>
     <row r="94">
@@ -3598,7 +3598,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>9833.935068100001</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3667,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>131058494.3254194</v>
       </c>
     </row>
     <row r="5">
@@ -3678,7 +3678,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2413345.550477924</v>
       </c>
     </row>
     <row r="6">
@@ -3689,7 +3689,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6389916.638403693</v>
       </c>
     </row>
     <row r="7">
@@ -3700,7 +3700,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3273207.137508361</v>
       </c>
     </row>
     <row r="8">
@@ -3711,7 +3711,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13052971.64697553</v>
       </c>
     </row>
     <row r="9">
@@ -3722,7 +3722,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>62669439.50292609</v>
       </c>
     </row>
     <row r="10">
@@ -3733,7 +3733,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14218976.95938518</v>
       </c>
     </row>
     <row r="11">
@@ -3744,7 +3744,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>81913757.21180981</v>
       </c>
     </row>
     <row r="12">
@@ -3755,7 +3755,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>56900892.07707654</v>
       </c>
     </row>
     <row r="13">
@@ -3766,7 +3766,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>89612946.97781889</v>
       </c>
     </row>
     <row r="14">
@@ -3777,7 +3777,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>46601495.82963394</v>
       </c>
     </row>
     <row r="15">
@@ -3788,7 +3788,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>25263280.87574057</v>
       </c>
     </row>
     <row r="16">
@@ -3799,7 +3799,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3505311.677364837</v>
       </c>
     </row>
     <row r="17">
@@ -3810,7 +3810,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12362585.78928441</v>
       </c>
     </row>
     <row r="18">
@@ -3832,7 +3832,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>20544679.79412371</v>
       </c>
     </row>
     <row r="20">
@@ -3843,7 +3843,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9221516.200067287</v>
       </c>
     </row>
     <row r="21">
@@ -3887,7 +3887,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>27049719.69364135</v>
       </c>
     </row>
     <row r="25">
@@ -3898,7 +3898,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2500785.589685444</v>
       </c>
     </row>
     <row r="26">
@@ -3920,7 +3920,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24969675.44928377</v>
       </c>
     </row>
     <row r="28">
@@ -3931,7 +3931,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>17341146.965811</v>
       </c>
     </row>
     <row r="29">
@@ -3942,7 +3942,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>897516.1433767601</v>
       </c>
     </row>
     <row r="30">
@@ -3953,7 +3953,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>10875893.53077593</v>
       </c>
     </row>
     <row r="31">
@@ -3986,7 +3986,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1604513.983641973</v>
       </c>
     </row>
     <row r="34">
@@ -3997,7 +3997,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1514455.115702026</v>
       </c>
     </row>
     <row r="35">
@@ -4008,7 +4008,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4512586.177768977</v>
       </c>
     </row>
     <row r="36">
@@ -4030,7 +4030,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>25711934.32592976</v>
       </c>
     </row>
     <row r="38">
@@ -4052,7 +4052,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6592020.096219346</v>
       </c>
     </row>
     <row r="40">
@@ -4063,7 +4063,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>18056634.81026576</v>
       </c>
     </row>
     <row r="41">
@@ -4074,7 +4074,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7768088.890829278</v>
       </c>
     </row>
     <row r="42">
@@ -4085,7 +4085,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10483150.99748746</v>
       </c>
     </row>
     <row r="43">
@@ -4107,7 +4107,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>28703882.62044868</v>
       </c>
     </row>
     <row r="45">
@@ -4129,7 +4129,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11859969.41413697</v>
       </c>
     </row>
     <row r="47">
@@ -4151,7 +4151,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3227111.003289381</v>
       </c>
     </row>
     <row r="49">
@@ -4184,7 +4184,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>15376211.59856968</v>
       </c>
     </row>
     <row r="52">
@@ -4195,7 +4195,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2779710.842566059</v>
       </c>
     </row>
     <row r="53">
@@ -4239,7 +4239,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>45504329.5548698</v>
       </c>
     </row>
     <row r="57">
@@ -4250,7 +4250,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>109566193.6461836</v>
       </c>
     </row>
     <row r="58">
@@ -4294,7 +4294,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>11840968.5689971</v>
       </c>
     </row>
     <row r="62">
@@ -4338,7 +4338,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>13583999.53872117</v>
       </c>
     </row>
     <row r="66">
@@ -4360,7 +4360,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>24087477.17776694</v>
       </c>
     </row>
     <row r="68">
@@ -4371,7 +4371,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>19006758.92749269</v>
       </c>
     </row>
     <row r="69">
@@ -4382,7 +4382,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>18510975.02305213</v>
       </c>
     </row>
     <row r="70">
@@ -4393,7 +4393,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>27750750.75370498</v>
       </c>
     </row>
     <row r="71">
@@ -4404,7 +4404,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>86034346.43493161</v>
       </c>
     </row>
     <row r="72">
@@ -4415,7 +4415,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>35895280.64668925</v>
       </c>
     </row>
     <row r="73">
@@ -4426,7 +4426,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1159385.304723936</v>
       </c>
     </row>
     <row r="74">
@@ -4437,7 +4437,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>19451777.02248556</v>
       </c>
     </row>
     <row r="75">
@@ -4514,7 +4514,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>18913531.76255902</v>
       </c>
     </row>
     <row r="82">
@@ -4525,7 +4525,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>3722322.668930554</v>
       </c>
     </row>
     <row r="83">
@@ -4536,7 +4536,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>717115.7294173833</v>
       </c>
     </row>
     <row r="84">
@@ -4580,7 +4580,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>3752662.345021758</v>
       </c>
     </row>
     <row r="88">
@@ -4591,7 +4591,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>11884662.58463526</v>
       </c>
     </row>
     <row r="89">
@@ -4602,7 +4602,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>25847757.70290992</v>
       </c>
     </row>
     <row r="90">
@@ -4613,7 +4613,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>13121289.47168456</v>
       </c>
     </row>
     <row r="91">
@@ -4635,7 +4635,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>4410608.288616428</v>
       </c>
     </row>
     <row r="93">
@@ -4646,7 +4646,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3518111.486447579</v>
       </c>
     </row>
     <row r="94">
@@ -4657,7 +4657,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>77480174.59646749</v>
       </c>
     </row>
   </sheetData>
@@ -5730,7 +5730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B94"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5741,7 +5741,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Demands to be met by GW bank</t>
+          <t>Demands to be met by storage</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5749,6 +5749,11 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>City of Tracy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -5756,6 +5761,9 @@
       </c>
       <c r="B2" t="n">
         <v>1922</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3042.932949000002</v>
       </c>
     </row>
     <row r="3">
@@ -5765,6 +5773,9 @@
       <c r="B3" t="n">
         <v>1923</v>
       </c>
+      <c r="C3" t="n">
+        <v>4539.765969</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5773,6 +5784,9 @@
       <c r="B4" t="n">
         <v>1924</v>
       </c>
+      <c r="C4" t="n">
+        <v>18231.539725</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -5781,6 +5795,9 @@
       <c r="B5" t="n">
         <v>1925</v>
       </c>
+      <c r="C5" t="n">
+        <v>6896.781859000001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -5789,6 +5806,9 @@
       <c r="B6" t="n">
         <v>1926</v>
       </c>
+      <c r="C6" t="n">
+        <v>6605.048099</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -5797,6 +5817,9 @@
       <c r="B7" t="n">
         <v>1927</v>
       </c>
+      <c r="C7" t="n">
+        <v>6424.226819000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -5805,6 +5828,9 @@
       <c r="B8" t="n">
         <v>1928</v>
       </c>
+      <c r="C8" t="n">
+        <v>9188.128499</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -5813,6 +5839,9 @@
       <c r="B9" t="n">
         <v>1929</v>
       </c>
+      <c r="C9" t="n">
+        <v>13197.819026</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -5821,6 +5850,9 @@
       <c r="B10" t="n">
         <v>1930</v>
       </c>
+      <c r="C10" t="n">
+        <v>8523.938789</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -5829,6 +5861,9 @@
       <c r="B11" t="n">
         <v>1931</v>
       </c>
+      <c r="C11" t="n">
+        <v>14045.543799</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -5837,6 +5872,9 @@
       <c r="B12" t="n">
         <v>1932</v>
       </c>
+      <c r="C12" t="n">
+        <v>13786.369487</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -5845,6 +5883,9 @@
       <c r="B13" t="n">
         <v>1933</v>
       </c>
+      <c r="C13" t="n">
+        <v>15223.192374</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -5853,6 +5894,9 @@
       <c r="B14" t="n">
         <v>1934</v>
       </c>
+      <c r="C14" t="n">
+        <v>12236.345273</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5861,6 +5905,9 @@
       <c r="B15" t="n">
         <v>1935</v>
       </c>
+      <c r="C15" t="n">
+        <v>11149.817189</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5869,6 +5916,9 @@
       <c r="B16" t="n">
         <v>1936</v>
       </c>
+      <c r="C16" t="n">
+        <v>6514.039169</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5877,6 +5927,9 @@
       <c r="B17" t="n">
         <v>1937</v>
       </c>
+      <c r="C17" t="n">
+        <v>9041.763739</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5885,6 +5938,9 @@
       <c r="B18" t="n">
         <v>1938</v>
       </c>
+      <c r="C18" t="n">
+        <v>2987.551578999999</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5893,6 +5949,9 @@
       <c r="B19" t="n">
         <v>1939</v>
       </c>
+      <c r="C19" t="n">
+        <v>10504.939439</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5901,6 +5960,9 @@
       <c r="B20" t="n">
         <v>1940</v>
       </c>
+      <c r="C20" t="n">
+        <v>8302.267729000001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -5909,6 +5971,9 @@
       <c r="B21" t="n">
         <v>1941</v>
       </c>
+      <c r="C21" t="n">
+        <v>3113.588209000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -5917,6 +5982,9 @@
       <c r="B22" t="n">
         <v>1942</v>
       </c>
+      <c r="C22" t="n">
+        <v>2549.901039</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5925,6 +5993,9 @@
       <c r="B23" t="n">
         <v>1943</v>
       </c>
+      <c r="C23" t="n">
+        <v>2560.025329</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5933,6 +6004,9 @@
       <c r="B24" t="n">
         <v>1944</v>
       </c>
+      <c r="C24" t="n">
+        <v>11367.293169</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5941,6 +6015,9 @@
       <c r="B25" t="n">
         <v>1945</v>
       </c>
+      <c r="C25" t="n">
+        <v>6112.405019</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5949,6 +6026,9 @@
       <c r="B26" t="n">
         <v>1946</v>
       </c>
+      <c r="C26" t="n">
+        <v>4461.221169</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5957,6 +6037,9 @@
       <c r="B27" t="n">
         <v>1947</v>
       </c>
+      <c r="C27" t="n">
+        <v>11112.840309</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5965,6 +6048,9 @@
       <c r="B28" t="n">
         <v>1948</v>
       </c>
+      <c r="C28" t="n">
+        <v>9094.687689</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5973,6 +6059,9 @@
       <c r="B29" t="n">
         <v>1949</v>
       </c>
+      <c r="C29" t="n">
+        <v>4492.322199</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5981,6 +6070,9 @@
       <c r="B30" t="n">
         <v>1950</v>
       </c>
+      <c r="C30" t="n">
+        <v>7807.895019000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5989,6 +6081,9 @@
       <c r="B31" t="n">
         <v>1951</v>
       </c>
+      <c r="C31" t="n">
+        <v>4307.793009000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5997,6 +6092,9 @@
       <c r="B32" t="n">
         <v>1952</v>
       </c>
+      <c r="C32" t="n">
+        <v>2620.482008999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6005,6 +6103,9 @@
       <c r="B33" t="n">
         <v>1953</v>
       </c>
+      <c r="C33" t="n">
+        <v>5723.107989</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6013,6 +6114,9 @@
       <c r="B34" t="n">
         <v>1954</v>
       </c>
+      <c r="C34" t="n">
+        <v>4782.176529</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6021,6 +6125,9 @@
       <c r="B35" t="n">
         <v>1955</v>
       </c>
+      <c r="C35" t="n">
+        <v>5984.928739000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6029,6 +6136,9 @@
       <c r="B36" t="n">
         <v>1956</v>
       </c>
+      <c r="C36" t="n">
+        <v>3086.818259</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6037,6 +6147,9 @@
       <c r="B37" t="n">
         <v>1957</v>
       </c>
+      <c r="C37" t="n">
+        <v>11205.698479</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6045,6 +6158,9 @@
       <c r="B38" t="n">
         <v>1958</v>
       </c>
+      <c r="C38" t="n">
+        <v>3176.234819000001</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -6053,6 +6169,9 @@
       <c r="B39" t="n">
         <v>1959</v>
       </c>
+      <c r="C39" t="n">
+        <v>7567.013748999998</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -6061,6 +6180,9 @@
       <c r="B40" t="n">
         <v>1960</v>
       </c>
+      <c r="C40" t="n">
+        <v>9214.623129000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -6069,6 +6191,9 @@
       <c r="B41" t="n">
         <v>1961</v>
       </c>
+      <c r="C41" t="n">
+        <v>7011.207709</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -6077,6 +6202,9 @@
       <c r="B42" t="n">
         <v>1962</v>
       </c>
+      <c r="C42" t="n">
+        <v>7715.057029000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -6085,6 +6213,9 @@
       <c r="B43" t="n">
         <v>1963</v>
       </c>
+      <c r="C43" t="n">
+        <v>3724.800718999999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -6093,6 +6224,9 @@
       <c r="B44" t="n">
         <v>1964</v>
       </c>
+      <c r="C44" t="n">
+        <v>11557.570409</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -6101,6 +6235,9 @@
       <c r="B45" t="n">
         <v>1965</v>
       </c>
+      <c r="C45" t="n">
+        <v>3689.697588999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -6109,6 +6246,9 @@
       <c r="B46" t="n">
         <v>1966</v>
       </c>
+      <c r="C46" t="n">
+        <v>8931.890848999999</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -6117,6 +6257,9 @@
       <c r="B47" t="n">
         <v>1967</v>
       </c>
+      <c r="C47" t="n">
+        <v>2935.050249</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -6125,6 +6268,9 @@
       <c r="B48" t="n">
         <v>1968</v>
       </c>
+      <c r="C48" t="n">
+        <v>6406.205838999998</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -6133,6 +6279,9 @@
       <c r="B49" t="n">
         <v>1969</v>
       </c>
+      <c r="C49" t="n">
+        <v>2678.873509000001</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -6141,6 +6290,9 @@
       <c r="B50" t="n">
         <v>1970</v>
       </c>
+      <c r="C50" t="n">
+        <v>2885.944929000001</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -6149,6 +6301,9 @@
       <c r="B51" t="n">
         <v>1971</v>
       </c>
+      <c r="C51" t="n">
+        <v>9645.171168999999</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -6157,6 +6312,9 @@
       <c r="B52" t="n">
         <v>1972</v>
       </c>
+      <c r="C52" t="n">
+        <v>5327.384449000001</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6165,6 +6323,9 @@
       <c r="B53" t="n">
         <v>1973</v>
       </c>
+      <c r="C53" t="n">
+        <v>4351.157469000002</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6173,6 +6334,9 @@
       <c r="B54" t="n">
         <v>1974</v>
       </c>
+      <c r="C54" t="n">
+        <v>2640.585389</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6181,6 +6345,9 @@
       <c r="B55" t="n">
         <v>1975</v>
       </c>
+      <c r="C55" t="n">
+        <v>4219.984809000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6189,6 +6356,9 @@
       <c r="B56" t="n">
         <v>1976</v>
       </c>
+      <c r="C56" t="n">
+        <v>13058.495209</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6197,6 +6367,9 @@
       <c r="B57" t="n">
         <v>1977</v>
       </c>
+      <c r="C57" t="n">
+        <v>15006.650042</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6205,6 +6378,9 @@
       <c r="B58" t="n">
         <v>1978</v>
       </c>
+      <c r="C58" t="n">
+        <v>3989.578759</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6213,6 +6389,9 @@
       <c r="B59" t="n">
         <v>1979</v>
       </c>
+      <c r="C59" t="n">
+        <v>4669.077269000001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6221,6 +6400,9 @@
       <c r="B60" t="n">
         <v>1980</v>
       </c>
+      <c r="C60" t="n">
+        <v>2706.681188999999</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6229,6 +6411,9 @@
       <c r="B61" t="n">
         <v>1981</v>
       </c>
+      <c r="C61" t="n">
+        <v>8927.678419</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6237,6 +6422,9 @@
       <c r="B62" t="n">
         <v>1982</v>
       </c>
+      <c r="C62" t="n">
+        <v>2931.042009000001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6245,6 +6433,9 @@
       <c r="B63" t="n">
         <v>1983</v>
       </c>
+      <c r="C63" t="n">
+        <v>2484.754029</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6253,6 +6444,9 @@
       <c r="B64" t="n">
         <v>1984</v>
       </c>
+      <c r="C64" t="n">
+        <v>3383.036308999999</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6261,6 +6455,9 @@
       <c r="B65" t="n">
         <v>1985</v>
       </c>
+      <c r="C65" t="n">
+        <v>9297.234079</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6269,6 +6466,9 @@
       <c r="B66" t="n">
         <v>1986</v>
       </c>
+      <c r="C66" t="n">
+        <v>3197.910588999999</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6277,6 +6477,9 @@
       <c r="B67" t="n">
         <v>1987</v>
       </c>
+      <c r="C67" t="n">
+        <v>10999.323789</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6285,6 +6488,9 @@
       <c r="B68" t="n">
         <v>1988</v>
       </c>
+      <c r="C68" t="n">
+        <v>9368.372709000001</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6293,6 +6499,9 @@
       <c r="B69" t="n">
         <v>1989</v>
       </c>
+      <c r="C69" t="n">
+        <v>9288.907219000001</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6301,6 +6510,9 @@
       <c r="B70" t="n">
         <v>1990</v>
       </c>
+      <c r="C70" t="n">
+        <v>10549.131429</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6309,6 +6521,9 @@
       <c r="B71" t="n">
         <v>1991</v>
       </c>
+      <c r="C71" t="n">
+        <v>14197.689496</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6317,6 +6532,9 @@
       <c r="B72" t="n">
         <v>1992</v>
       </c>
+      <c r="C72" t="n">
+        <v>11382.610285</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6325,6 +6543,9 @@
       <c r="B73" t="n">
         <v>1993</v>
       </c>
+      <c r="C73" t="n">
+        <v>5517.454249000002</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6333,6 +6554,9 @@
       <c r="B74" t="n">
         <v>1994</v>
       </c>
+      <c r="C74" t="n">
+        <v>10338.364879</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6341,6 +6565,9 @@
       <c r="B75" t="n">
         <v>1995</v>
       </c>
+      <c r="C75" t="n">
+        <v>3076.474419000002</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6349,6 +6576,9 @@
       <c r="B76" t="n">
         <v>1996</v>
       </c>
+      <c r="C76" t="n">
+        <v>2850.818268999999</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6357,6 +6587,9 @@
       <c r="B77" t="n">
         <v>1997</v>
       </c>
+      <c r="C77" t="n">
+        <v>2507.332649</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6365,6 +6598,9 @@
       <c r="B78" t="n">
         <v>1998</v>
       </c>
+      <c r="C78" t="n">
+        <v>2484.754029</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6373,6 +6609,9 @@
       <c r="B79" t="n">
         <v>1999</v>
       </c>
+      <c r="C79" t="n">
+        <v>3228.687559000002</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6381,6 +6620,9 @@
       <c r="B80" t="n">
         <v>2000</v>
       </c>
+      <c r="C80" t="n">
+        <v>4580.318239</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6389,6 +6631,9 @@
       <c r="B81" t="n">
         <v>2001</v>
       </c>
+      <c r="C81" t="n">
+        <v>10253.587109</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6397,6 +6642,9 @@
       <c r="B82" t="n">
         <v>2002</v>
       </c>
+      <c r="C82" t="n">
+        <v>5696.481979</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6405,6 +6653,9 @@
       <c r="B83" t="n">
         <v>2003</v>
       </c>
+      <c r="C83" t="n">
+        <v>4404.234149</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6413,6 +6664,9 @@
       <c r="B84" t="n">
         <v>2004</v>
       </c>
+      <c r="C84" t="n">
+        <v>3866.081009000001</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6421,6 +6675,9 @@
       <c r="B85" t="n">
         <v>2005</v>
       </c>
+      <c r="C85" t="n">
+        <v>3475.646599</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6429,6 +6686,9 @@
       <c r="B86" t="n">
         <v>2006</v>
       </c>
+      <c r="C86" t="n">
+        <v>2529.057659000002</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6437,6 +6697,9 @@
       <c r="B87" t="n">
         <v>2007</v>
       </c>
+      <c r="C87" t="n">
+        <v>6607.915238999998</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -6445,6 +6708,9 @@
       <c r="B88" t="n">
         <v>2008</v>
       </c>
+      <c r="C88" t="n">
+        <v>8037.330999</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -6453,6 +6719,9 @@
       <c r="B89" t="n">
         <v>2009</v>
       </c>
+      <c r="C89" t="n">
+        <v>10322.400366</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -6461,6 +6730,9 @@
       <c r="B90" t="n">
         <v>2010</v>
       </c>
+      <c r="C90" t="n">
+        <v>9202.300839000001</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -6469,6 +6741,9 @@
       <c r="B91" t="n">
         <v>2011</v>
       </c>
+      <c r="C91" t="n">
+        <v>3058.110999</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6477,6 +6752,9 @@
       <c r="B92" t="n">
         <v>2012</v>
       </c>
+      <c r="C92" t="n">
+        <v>6848.724319000001</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6485,6 +6763,9 @@
       <c r="B93" t="n">
         <v>2013</v>
       </c>
+      <c r="C93" t="n">
+        <v>5618.942359000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6492,6 +6773,9 @@
       </c>
       <c r="B94" t="n">
         <v>2014</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13871.714068</v>
       </c>
     </row>
   </sheetData>
@@ -6538,7 +6822,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>6887</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="3">
@@ -6549,7 +6833,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>6887</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="4">
@@ -6560,7 +6844,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>6887</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="5">
@@ -6571,7 +6855,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -6582,7 +6866,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -6593,7 +6877,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -6604,7 +6888,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -6615,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -6626,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -6637,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6648,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -6659,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6670,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6681,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6692,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6703,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6714,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -6725,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -6736,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -6747,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6758,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -6769,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6780,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6791,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6802,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6813,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6824,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6835,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6846,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6857,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6868,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6879,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6890,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6901,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6912,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6923,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6934,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6945,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6956,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6967,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6978,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6989,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7000,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7011,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7022,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7033,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7044,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7055,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7066,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7077,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7088,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7099,7 +7383,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7110,7 +7394,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -7121,7 +7405,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -7132,7 +7416,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -7143,7 +7427,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7154,7 +7438,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7165,7 +7449,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7176,7 +7460,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7187,7 +7471,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7198,7 +7482,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7209,7 +7493,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7220,7 +7504,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7231,7 +7515,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7242,7 +7526,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7253,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7264,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -7275,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7286,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7297,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7308,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7319,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7330,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7341,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7352,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7363,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -7374,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7385,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7396,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7407,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7418,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7429,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7440,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7451,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -7462,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7473,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7484,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7495,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7506,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7517,7 +7801,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7528,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7539,7 +7823,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -7550,7 +7834,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>6887</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7597,7 +7881,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="3">
@@ -7608,7 +7892,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="4">
@@ -7619,7 +7903,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="5">
@@ -7630,7 +7914,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="6">
@@ -9715,7 +9999,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1320.932949000002</v>
       </c>
     </row>
     <row r="3">
@@ -9726,7 +10010,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2817.765969</v>
       </c>
     </row>
     <row r="4">
@@ -9737,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>16509.539725</v>
       </c>
     </row>
     <row r="5">
@@ -9748,7 +10032,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5175.781859000001</v>
       </c>
     </row>
     <row r="6">
@@ -9759,7 +10043,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6605.048099</v>
       </c>
     </row>
     <row r="7">
@@ -9770,7 +10054,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6424.226819000001</v>
       </c>
     </row>
     <row r="8">
@@ -9781,7 +10065,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9188.128499</v>
       </c>
     </row>
     <row r="9">
@@ -9792,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13197.819026</v>
       </c>
     </row>
     <row r="10">
@@ -9803,7 +10087,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8523.938789</v>
       </c>
     </row>
     <row r="11">
@@ -9814,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>14045.543799</v>
       </c>
     </row>
     <row r="12">
@@ -9825,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13786.369487</v>
       </c>
     </row>
     <row r="13">
@@ -9836,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15223.192374</v>
       </c>
     </row>
     <row r="14">
@@ -9847,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12236.345273</v>
       </c>
     </row>
     <row r="15">
@@ -9858,7 +10142,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>11149.817189</v>
       </c>
     </row>
     <row r="16">
@@ -9869,7 +10153,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6514.039169</v>
       </c>
     </row>
     <row r="17">
@@ -9880,7 +10164,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9041.763739</v>
       </c>
     </row>
     <row r="18">
@@ -9891,7 +10175,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2987.551578999999</v>
       </c>
     </row>
     <row r="19">
@@ -9902,7 +10186,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10504.939439</v>
       </c>
     </row>
     <row r="20">
@@ -9913,7 +10197,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8302.267729000001</v>
       </c>
     </row>
     <row r="21">
@@ -9924,7 +10208,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3113.588209000001</v>
       </c>
     </row>
     <row r="22">
@@ -9935,7 +10219,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2549.901039</v>
       </c>
     </row>
     <row r="23">
@@ -9946,7 +10230,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2560.025329</v>
       </c>
     </row>
     <row r="24">
@@ -9957,7 +10241,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>11367.293169</v>
       </c>
     </row>
     <row r="25">
@@ -9968,7 +10252,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6112.405019</v>
       </c>
     </row>
     <row r="26">
@@ -9979,7 +10263,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4461.221169</v>
       </c>
     </row>
     <row r="27">
@@ -9990,7 +10274,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>11112.840309</v>
       </c>
     </row>
     <row r="28">
@@ -10001,7 +10285,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>9094.687689</v>
       </c>
     </row>
     <row r="29">
@@ -10012,7 +10296,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4492.322199</v>
       </c>
     </row>
     <row r="30">
@@ -10023,7 +10307,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>7807.895019000001</v>
       </c>
     </row>
     <row r="31">
@@ -10034,7 +10318,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>4307.793009000001</v>
       </c>
     </row>
     <row r="32">
@@ -10045,7 +10329,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2620.482008999999</v>
       </c>
     </row>
     <row r="33">
@@ -10056,7 +10340,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>5723.107989</v>
       </c>
     </row>
     <row r="34">
@@ -10067,7 +10351,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4782.176529</v>
       </c>
     </row>
     <row r="35">
@@ -10078,7 +10362,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>5984.928739000001</v>
       </c>
     </row>
     <row r="36">
@@ -10089,7 +10373,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3086.818259</v>
       </c>
     </row>
     <row r="37">
@@ -10100,7 +10384,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>11205.698479</v>
       </c>
     </row>
     <row r="38">
@@ -10111,7 +10395,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3176.234819000001</v>
       </c>
     </row>
     <row r="39">
@@ -10122,7 +10406,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>7567.013748999998</v>
       </c>
     </row>
     <row r="40">
@@ -10133,7 +10417,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>9214.623129000001</v>
       </c>
     </row>
     <row r="41">
@@ -10144,7 +10428,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7011.207709</v>
       </c>
     </row>
     <row r="42">
@@ -10155,7 +10439,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>7715.057029000001</v>
       </c>
     </row>
     <row r="43">
@@ -10166,7 +10450,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3724.800718999999</v>
       </c>
     </row>
     <row r="44">
@@ -10177,7 +10461,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>11557.570409</v>
       </c>
     </row>
     <row r="45">
@@ -10188,7 +10472,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3689.697588999999</v>
       </c>
     </row>
     <row r="46">
@@ -10199,7 +10483,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>8931.890848999999</v>
       </c>
     </row>
     <row r="47">
@@ -10210,7 +10494,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2935.050249</v>
       </c>
     </row>
     <row r="48">
@@ -10221,7 +10505,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>6406.205838999998</v>
       </c>
     </row>
     <row r="49">
@@ -10232,7 +10516,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2678.873509000001</v>
       </c>
     </row>
     <row r="50">
@@ -10243,7 +10527,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2885.944929000001</v>
       </c>
     </row>
     <row r="51">
@@ -10254,7 +10538,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>9645.171168999999</v>
       </c>
     </row>
     <row r="52">
@@ -10265,7 +10549,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>5327.384449000001</v>
       </c>
     </row>
     <row r="53">
@@ -10276,7 +10560,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4351.157469000002</v>
       </c>
     </row>
     <row r="54">
@@ -10287,7 +10571,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2640.585389</v>
       </c>
     </row>
     <row r="55">
@@ -10298,7 +10582,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>4219.984809000001</v>
       </c>
     </row>
     <row r="56">
@@ -10309,7 +10593,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>13058.495209</v>
       </c>
     </row>
     <row r="57">
@@ -10320,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>15006.650042</v>
       </c>
     </row>
     <row r="58">
@@ -10331,7 +10615,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3989.578759</v>
       </c>
     </row>
     <row r="59">
@@ -10342,7 +10626,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>4669.077269000001</v>
       </c>
     </row>
     <row r="60">
@@ -10353,7 +10637,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2706.681188999999</v>
       </c>
     </row>
     <row r="61">
@@ -10364,7 +10648,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>8927.678419</v>
       </c>
     </row>
     <row r="62">
@@ -10375,7 +10659,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>2931.042009000001</v>
       </c>
     </row>
     <row r="63">
@@ -10386,7 +10670,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2484.754029</v>
       </c>
     </row>
     <row r="64">
@@ -10397,7 +10681,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3383.036308999999</v>
       </c>
     </row>
     <row r="65">
@@ -10408,7 +10692,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>9297.234079</v>
       </c>
     </row>
     <row r="66">
@@ -10419,7 +10703,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3197.910588999999</v>
       </c>
     </row>
     <row r="67">
@@ -10430,7 +10714,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>10999.323789</v>
       </c>
     </row>
     <row r="68">
@@ -10441,7 +10725,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>9368.372709000001</v>
       </c>
     </row>
     <row r="69">
@@ -10452,7 +10736,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>9288.907219000001</v>
       </c>
     </row>
     <row r="70">
@@ -10463,7 +10747,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>10549.131429</v>
       </c>
     </row>
     <row r="71">
@@ -10474,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>14197.689496</v>
       </c>
     </row>
     <row r="72">
@@ -10485,7 +10769,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>11382.610285</v>
       </c>
     </row>
     <row r="73">
@@ -10496,7 +10780,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>5517.454249000002</v>
       </c>
     </row>
     <row r="74">
@@ -10507,7 +10791,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>10338.364879</v>
       </c>
     </row>
     <row r="75">
@@ -10518,7 +10802,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3076.474419000002</v>
       </c>
     </row>
     <row r="76">
@@ -10529,7 +10813,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>2850.818268999999</v>
       </c>
     </row>
     <row r="77">
@@ -10540,7 +10824,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>2507.332649</v>
       </c>
     </row>
     <row r="78">
@@ -10551,7 +10835,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>2484.754029</v>
       </c>
     </row>
     <row r="79">
@@ -10562,7 +10846,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>3228.687559000002</v>
       </c>
     </row>
     <row r="80">
@@ -10573,7 +10857,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>4580.318239</v>
       </c>
     </row>
     <row r="81">
@@ -10584,7 +10868,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>10253.587109</v>
       </c>
     </row>
     <row r="82">
@@ -10595,7 +10879,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5696.481979</v>
       </c>
     </row>
     <row r="83">
@@ -10606,7 +10890,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>4404.234149</v>
       </c>
     </row>
     <row r="84">
@@ -10617,7 +10901,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3866.081009000001</v>
       </c>
     </row>
     <row r="85">
@@ -10628,7 +10912,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>3475.646599</v>
       </c>
     </row>
     <row r="86">
@@ -10639,7 +10923,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>2529.057659000002</v>
       </c>
     </row>
     <row r="87">
@@ -10650,7 +10934,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>6607.915238999998</v>
       </c>
     </row>
     <row r="88">
@@ -10661,7 +10945,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>8037.330999</v>
       </c>
     </row>
     <row r="89">
@@ -10672,7 +10956,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>10322.400366</v>
       </c>
     </row>
     <row r="90">
@@ -10683,7 +10967,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>9202.300839000001</v>
       </c>
     </row>
     <row r="91">
@@ -10694,7 +10978,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>3058.110999</v>
       </c>
     </row>
     <row r="92">
@@ -10705,7 +10989,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>6848.724319000001</v>
       </c>
     </row>
     <row r="93">
@@ -10716,7 +11000,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5618.942359000001</v>
       </c>
     </row>
     <row r="94">
@@ -10727,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>13871.714068</v>
       </c>
     </row>
   </sheetData>
@@ -10774,7 +11058,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="3">
@@ -10785,7 +11069,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="4">
@@ -10796,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="5">
@@ -10807,7 +11091,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="6">
@@ -10818,7 +11102,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="7">
@@ -10829,7 +11113,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="8">
@@ -10840,7 +11124,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="9">
@@ -10851,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="10">
@@ -10862,7 +11146,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="11">
@@ -10873,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="12">
@@ -10884,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="13">
@@ -10895,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="14">
@@ -10906,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="15">
@@ -10917,7 +11201,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="16">
@@ -10928,7 +11212,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="17">
@@ -10939,7 +11223,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="18">
@@ -10950,7 +11234,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="19">
@@ -10961,7 +11245,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="20">
@@ -10972,7 +11256,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="21">
@@ -10983,7 +11267,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="22">
@@ -10994,7 +11278,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="23">
@@ -11005,7 +11289,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="24">
@@ -11016,7 +11300,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="25">
@@ -11027,7 +11311,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="26">
@@ -11038,7 +11322,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="27">
@@ -11049,7 +11333,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="28">
@@ -11060,7 +11344,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="29">
@@ -11071,7 +11355,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="30">
@@ -11082,7 +11366,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="31">
@@ -11093,7 +11377,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="32">
@@ -11104,7 +11388,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="33">
@@ -11115,7 +11399,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="34">
@@ -11126,7 +11410,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="35">
@@ -11137,7 +11421,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="36">
@@ -11148,7 +11432,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="37">
@@ -11159,7 +11443,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="38">
@@ -11170,7 +11454,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="39">
@@ -11181,7 +11465,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="40">
@@ -11192,7 +11476,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="41">
@@ -11203,7 +11487,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="42">
@@ -11214,7 +11498,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="43">
@@ -11225,7 +11509,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="44">
@@ -11236,7 +11520,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="45">
@@ -11247,7 +11531,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="46">
@@ -11258,7 +11542,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="47">
@@ -11269,7 +11553,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="48">
@@ -11280,7 +11564,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="49">
@@ -11291,7 +11575,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="50">
@@ -11302,7 +11586,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="51">
@@ -11313,7 +11597,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="52">
@@ -11324,7 +11608,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="53">
@@ -11335,7 +11619,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="54">
@@ -11346,7 +11630,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="55">
@@ -11357,7 +11641,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="56">
@@ -11368,7 +11652,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="57">
@@ -11379,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="58">
@@ -11390,7 +11674,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="59">
@@ -11401,7 +11685,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="60">
@@ -11412,7 +11696,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="61">
@@ -11423,7 +11707,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="62">
@@ -11434,7 +11718,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="63">
@@ -11445,7 +11729,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="64">
@@ -11456,7 +11740,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="65">
@@ -11467,7 +11751,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="66">
@@ -11478,7 +11762,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="67">
@@ -11489,7 +11773,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="68">
@@ -11500,7 +11784,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="69">
@@ -11511,7 +11795,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="70">
@@ -11522,7 +11806,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="71">
@@ -11533,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="72">
@@ -11544,7 +11828,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="73">
@@ -11555,7 +11839,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="74">
@@ -11566,7 +11850,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="75">
@@ -11577,7 +11861,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="76">
@@ -11588,7 +11872,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="77">
@@ -11599,7 +11883,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="78">
@@ -11610,7 +11894,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="79">
@@ -11621,7 +11905,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="80">
@@ -11632,7 +11916,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="81">
@@ -11643,7 +11927,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="82">
@@ -11654,7 +11938,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="83">
@@ -11665,7 +11949,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="84">
@@ -11676,7 +11960,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="85">
@@ -11687,7 +11971,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="86">
@@ -11698,7 +11982,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="87">
@@ -11709,7 +11993,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="88">
@@ -11720,7 +12004,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="89">
@@ -11731,7 +12015,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="90">
@@ -11742,7 +12026,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="91">
@@ -11753,7 +12037,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="92">
@@ -11764,7 +12048,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>3937.7999999</v>
       </c>
     </row>
     <row r="93">
@@ -11775,7 +12059,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
     <row r="94">
@@ -11786,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>3937.7789999</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>71306400.04671843</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>68587726.33105096</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>275764616.5824751</v>
+        <v>4742768.410980233</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>153975840.0426206</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>156426279.8716294</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>154837841.1567045</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>162678416.4133644</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>207505091.4632434</v>
+        <v>4859427.462889392</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>162774524.212621</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>226074713.3663148</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>202606069.1851418</v>
+        <v>5637227.325860668</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>234484955.8242993</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>192202375.2897353</v>
+        <v>5290941.306954685</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>173066864.015955</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>154998464.9308866</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>161716380.5158835</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>68411547.69700919</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>169171899.7272645</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>159291435.9376023</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>68467034.06192279</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>68218876.4270215</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>68223333.54436456</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>174940788.7406322</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>154313595.5113933</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>69127090.14792109</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>173113073.0613106</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>165391049.3419265</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>152610395.9289285</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>159949941.5318053</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>69039972.50266798</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>68249948.99265084</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>153987734.4805636</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>152996642.6919705</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>155042496.3080782</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>68455248.85936366</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>173731614.996713</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>68494613.60497355</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>157557506.1788989</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>166062473.193146</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>157527603.9264222</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>159631087.841297</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>68708945.1638436</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>176493323.9217184</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>68720660.45044824</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>161689351.2049618</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>68388434.51193888</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>155116472.6800007</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>68275655.26611161</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>68232636.63526751</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>164637900.6008855</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>153832954.0035108</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>69064595.16413295</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>68258799.30449015</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>68954114.09164709</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>192563301.9722689</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>252962214.7984976</v>
+        <v>3778080.380690524</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>68852680.13416508</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>69245112.38049883</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>68287897.31891704</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>161723515.0288115</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>68386669.92439556</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>68514888.80137065</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>163172420.2849106</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>68504156.14577302</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>172785323.8675387</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>166890229.5324392</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>166457691.4296048</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>174694467.1112428</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>230074211.3262015</v>
+        <v>4505660.803390387</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>182175639.3835852</v>
+        <v>5592642.040205687</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>153318143.2776757</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>168675674.4053533</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>68450695.08733051</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>68351352.22578388</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>68200136.11937186</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>68190196.10789612</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>68427248.43829936</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>69194714.34607965</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>167740800.5420159</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>154481804.7374096</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>152500103.9272394</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>68599802.95749058</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>68626426.64444079</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>68209700.33758852</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>155945587.8913524</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>160827496.1900521</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>172920535.6392345</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>162474881.7126663</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>68442610.77546673</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>155947773.8611678</v>
+        <v>5739944.084542823</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>154385716.815189</v>
+        <v>5739914.06165315</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>221779480.1235125</v>
+        <v>4562134.043308323</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>-1120.0130309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1560,7 +1560,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1571,7 +1571,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1582,7 +1582,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1593,7 +1593,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1604,7 +1604,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1615,7 +1615,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1626,7 +1626,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1637,7 +1637,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1648,7 +1648,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1659,7 +1659,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1670,7 +1670,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1681,7 +1681,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1692,7 +1692,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1703,7 +1703,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>-950.2274209000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1714,7 +1714,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1725,7 +1725,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1736,7 +1736,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>-824.1907908999988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1747,7 +1747,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>-1387.8779609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1758,7 +1758,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>-1377.7536709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1769,7 +1769,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1780,7 +1780,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1791,7 +1791,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>523.4421691000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1802,7 +1802,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1813,7 +1813,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1824,7 +1824,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1835,7 +1835,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1846,7 +1846,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>370.0140091000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1857,7 +1857,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>-1317.296990900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1868,7 +1868,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1879,7 +1879,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1890,7 +1890,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1901,7 +1901,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>-850.9607409000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1912,7 +1912,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1923,7 +1923,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>-761.544180899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1934,7 +1934,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1945,7 +1945,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1956,7 +1956,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1967,7 +1967,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1978,7 +1978,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>-212.9782809000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1989,7 +1989,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2000,7 +2000,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>-248.0814109000007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2011,7 +2011,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2022,7 +2022,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>-1002.7287509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2033,7 +2033,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2044,7 +2044,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>-1258.905490899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2055,7 +2055,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>-1051.834070899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2066,7 +2066,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2077,7 +2077,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2088,7 +2088,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>413.3784691000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2099,7 +2099,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>-1297.1936109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2110,7 +2110,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>282.2058091000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2121,7 +2121,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2132,7 +2132,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2143,7 +2143,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>51.79975909999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2154,7 +2154,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>731.2982691000011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2165,7 +2165,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>-1231.097810900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2176,7 +2176,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2187,7 +2187,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>-1006.736990899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>-1453.0249709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2209,7 +2209,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>-554.742690900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2220,7 +2220,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2231,7 +2231,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>-739.868410900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2242,7 +2242,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2253,7 +2253,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2264,7 +2264,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2275,7 +2275,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2286,7 +2286,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2297,7 +2297,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2308,7 +2308,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2319,7 +2319,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2330,7 +2330,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>-861.3045808999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2341,7 +2341,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>-1086.960730900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2352,7 +2352,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>-1430.4463509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2363,7 +2363,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>-1453.0249709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2374,7 +2374,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>-709.0914408999984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2385,7 +2385,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>642.5392391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2396,7 +2396,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2407,7 +2407,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2418,7 +2418,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2429,7 +2429,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>-71.69799089999879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2440,7 +2440,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>-462.1324009000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2451,7 +2451,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>-1408.721340899998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2462,7 +2462,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2473,7 +2473,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2484,7 +2484,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2495,7 +2495,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2506,7 +2506,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>-879.6680008999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2517,7 +2517,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2528,7 +2528,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>-2616.846050899998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2608,7 +2608,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>11571.7397251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2619,7 +2619,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.0028591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2630,7 +2630,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>2567.269099099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2641,7 +2641,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>1486.447819100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2652,7 +2652,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>4250.3284991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2663,7 +2663,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>9160.040026100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2674,7 +2674,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>4486.1597891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2685,7 +2685,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>10007.7647991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2696,7 +2696,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>8848.5904871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2707,7 +2707,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>10285.3923741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2718,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>8198.566273100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2729,7 +2729,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>6212.038189100002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2740,7 +2740,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>1576.2601691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2751,7 +2751,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>4103.9847391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2773,7 +2773,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>5567.139439099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2784,7 +2784,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3364.488729100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2828,7 +2828,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>6429.4931691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2839,7 +2839,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>1174.6260191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2861,7 +2861,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>6175.040309099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2872,7 +2872,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>5056.908689100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2883,7 +2883,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>454.5431991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2894,7 +2894,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3770.116019100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2927,7 +2927,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>785.3079890999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2938,7 +2938,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>744.3975291000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2949,7 +2949,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>1947.149739100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2971,7 +2971,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>6267.898479099998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2993,7 +2993,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2629.213749099998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3004,7 +3004,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>5176.844129100002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3015,7 +3015,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2973.4287091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3026,7 +3026,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3677.278029100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3048,7 +3048,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>6619.7704091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3070,7 +3070,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3994.090849099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3092,7 +3092,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1468.405839099998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3125,7 +3125,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>4707.371169099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3136,7 +3136,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>1289.605449100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3180,7 +3180,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>8120.695209099998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3191,7 +3191,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>10968.8710421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3235,7 +3235,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3989.8784191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3279,7 +3279,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>4359.4340791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3301,7 +3301,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>6061.5237891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3312,7 +3312,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>5330.593709100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3323,7 +3323,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>5251.128219100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3334,7 +3334,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>6511.352429100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3345,7 +3345,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>10159.9104961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3356,7 +3356,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>7344.831285100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3367,7 +3367,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>579.675249100002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3378,7 +3378,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>5400.564879099999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3455,7 +3455,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>5315.7871091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3466,7 +3466,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>1658.7029791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3477,7 +3477,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>366.4551490999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3521,7 +3521,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>1670.115239099998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3532,7 +3532,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3999.5519991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3543,7 +3543,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>6284.6213661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3554,7 +3554,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>4264.521839100002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3576,7 +3576,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>1910.924319100001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3587,7 +3587,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>1581.1633591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3598,7 +3598,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>9833.935068100001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>131058494.3254194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3678,7 +3678,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>2413345.550477924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3689,7 +3689,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6389916.638403693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3700,7 +3700,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3273207.137508361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3711,7 +3711,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>13052971.64697553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3722,7 +3722,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>62669439.50292609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3733,7 +3733,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>14218976.95938518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3744,7 +3744,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>81913757.21180981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3755,7 +3755,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>56900892.07707654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3766,7 +3766,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>89612946.97781889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3777,7 +3777,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>46601495.82963394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3788,7 +3788,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>25263280.87574057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3799,7 +3799,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3505311.677364837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3810,7 +3810,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>12362585.78928441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3832,7 +3832,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>20544679.79412371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3843,7 +3843,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>9221516.200067287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3887,7 +3887,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>27049719.69364135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3898,7 +3898,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2500785.589685444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3920,7 +3920,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>24969675.44928377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3931,7 +3931,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>17341146.965811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3942,7 +3942,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>897516.1433767601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3953,7 +3953,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>10875893.53077593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3986,7 +3986,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1604513.983641973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3997,7 +3997,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>1514455.115702026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -4008,7 +4008,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>4512586.177768977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4030,7 +4030,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>25711934.32592976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4052,7 +4052,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>6592020.096219346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4063,7 +4063,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>18056634.81026576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4074,7 +4074,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>7768088.890829278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4085,7 +4085,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>10483150.99748746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -4107,7 +4107,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>28703882.62044868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4129,7 +4129,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>11859969.41413697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4151,7 +4151,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3227111.003289381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4184,7 +4184,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>15376211.59856968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4195,7 +4195,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2779710.842566059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4239,7 +4239,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>45504329.5548698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -4250,7 +4250,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>109566193.6461836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4294,7 +4294,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>11840968.5689971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4338,7 +4338,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>13583999.53872117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4360,7 +4360,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>24087477.17776694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4371,7 +4371,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>19006758.92749269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4382,7 +4382,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>18510975.02305213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4393,7 +4393,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>27750750.75370498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4404,7 +4404,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>86034346.43493161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4415,7 +4415,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>35895280.64668925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4426,7 +4426,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>1159385.304723936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4437,7 +4437,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>19451777.02248556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4514,7 +4514,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>18913531.76255902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4525,7 +4525,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3722322.668930554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4536,7 +4536,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>717115.7294173833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4580,7 +4580,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3752662.345021758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4591,7 +4591,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>11884662.58463526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4602,7 +4602,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>25847757.70290992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4613,7 +4613,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>13121289.47168456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -4635,7 +4635,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>4410608.288616428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4646,7 +4646,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3518111.486447579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4657,7 +4657,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>77480174.59646749</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="3">
@@ -4715,7 +4715,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="4">
@@ -4726,7 +4726,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="5">
@@ -4737,7 +4737,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="6">
@@ -4748,7 +4748,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="7">
@@ -4759,7 +4759,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="8">
@@ -4770,7 +4770,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="9">
@@ -4781,7 +4781,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="10">
@@ -4792,7 +4792,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="11">
@@ -4803,7 +4803,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="12">
@@ -4814,7 +4814,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="13">
@@ -4825,7 +4825,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="14">
@@ -4836,7 +4836,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="15">
@@ -4847,7 +4847,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="16">
@@ -4858,7 +4858,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="17">
@@ -4869,7 +4869,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="18">
@@ -4880,7 +4880,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="19">
@@ -4891,7 +4891,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="20">
@@ -4902,7 +4902,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="21">
@@ -4913,7 +4913,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="22">
@@ -4924,7 +4924,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="23">
@@ -4935,7 +4935,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="24">
@@ -4946,7 +4946,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="25">
@@ -4957,7 +4957,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="26">
@@ -4968,7 +4968,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="27">
@@ -4979,7 +4979,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="28">
@@ -4990,7 +4990,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="29">
@@ -5001,7 +5001,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="30">
@@ -5012,7 +5012,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="31">
@@ -5023,7 +5023,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="32">
@@ -5034,7 +5034,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="33">
@@ -5045,7 +5045,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="34">
@@ -5056,7 +5056,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="35">
@@ -5067,7 +5067,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="36">
@@ -5078,7 +5078,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="37">
@@ -5089,7 +5089,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="38">
@@ -5100,7 +5100,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="39">
@@ -5111,7 +5111,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="40">
@@ -5122,7 +5122,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="41">
@@ -5133,7 +5133,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="42">
@@ -5144,7 +5144,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="43">
@@ -5155,7 +5155,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="44">
@@ -5166,7 +5166,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="45">
@@ -5177,7 +5177,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="46">
@@ -5188,7 +5188,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="47">
@@ -5199,7 +5199,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="48">
@@ -5210,7 +5210,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="49">
@@ -5221,7 +5221,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="50">
@@ -5232,7 +5232,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="51">
@@ -5243,7 +5243,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="52">
@@ -5254,7 +5254,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="53">
@@ -5265,7 +5265,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="54">
@@ -5276,7 +5276,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="55">
@@ -5287,7 +5287,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="56">
@@ -5298,7 +5298,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="57">
@@ -5309,7 +5309,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="58">
@@ -5320,7 +5320,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="59">
@@ -5331,7 +5331,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="60">
@@ -5342,7 +5342,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="61">
@@ -5353,7 +5353,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="62">
@@ -5364,7 +5364,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="63">
@@ -5375,7 +5375,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="64">
@@ -5386,7 +5386,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="65">
@@ -5397,7 +5397,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="66">
@@ -5408,7 +5408,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="67">
@@ -5419,7 +5419,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="68">
@@ -5430,7 +5430,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="69">
@@ -5441,7 +5441,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="70">
@@ -5452,7 +5452,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="71">
@@ -5463,7 +5463,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="72">
@@ -5474,7 +5474,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="73">
@@ -5485,7 +5485,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="74">
@@ -5496,7 +5496,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="75">
@@ -5507,7 +5507,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="76">
@@ -5518,7 +5518,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="77">
@@ -5529,7 +5529,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="78">
@@ -5540,7 +5540,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="79">
@@ -5551,7 +5551,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="80">
@@ -5562,7 +5562,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="81">
@@ -5573,7 +5573,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="82">
@@ -5584,7 +5584,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="83">
@@ -5595,7 +5595,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="84">
@@ -5606,7 +5606,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="85">
@@ -5617,7 +5617,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="86">
@@ -5628,7 +5628,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="87">
@@ -5639,7 +5639,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="88">
@@ -5650,7 +5650,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="89">
@@ -5661,7 +5661,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="90">
@@ -5672,7 +5672,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="91">
@@ -5683,7 +5683,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>39377.789999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="92">
@@ -5694,7 +5694,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>39377.999999</v>
+        <v>6773.035485</v>
       </c>
     </row>
     <row r="93">
@@ -5705,7 +5705,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
     <row r="94">
@@ -5716,7 +5716,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>39377.789999</v>
+        <v>6773</v>
       </c>
     </row>
   </sheetData>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3042.932949000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5774,7 +5774,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>4539.765969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>18231.539725</v>
+        <v>1178.593372</v>
       </c>
     </row>
     <row r="5">
@@ -5796,7 +5796,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>6896.781859000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5807,7 +5807,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6605.048099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5818,7 +5818,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>6424.226819000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -5829,7 +5829,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>9188.128499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5840,7 +5840,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>13197.819026</v>
+        <v>1040.674875</v>
       </c>
     </row>
     <row r="10">
@@ -5851,7 +5851,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>8523.938789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5862,7 +5862,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>14045.543799</v>
+        <v>1458.802845</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>13786.369487</v>
+        <v>121.404176</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>15223.192374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5895,7 +5895,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>12236.345273</v>
+        <v>530.6550559999996</v>
       </c>
     </row>
     <row r="15">
@@ -5906,7 +5906,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>11149.817189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5917,7 +5917,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>6514.039169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5928,7 +5928,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>9041.763739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5939,7 +5939,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2987.551578999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5950,7 +5950,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>10504.939439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5961,7 +5961,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>8302.267729000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5972,7 +5972,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3113.588209000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5983,7 +5983,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2549.901039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5994,7 +5994,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2560.025329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6005,7 +6005,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>11367.293169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6016,7 +6016,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>6112.405019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6027,7 +6027,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>4461.221169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6038,7 +6038,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>11112.840309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6049,7 +6049,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>9094.687689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6060,7 +6060,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>4492.322199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6071,7 +6071,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>7807.895019000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6082,7 +6082,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>4307.793009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6093,7 +6093,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2620.482008999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6104,7 +6104,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>5723.107989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6115,7 +6115,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>4782.176529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6126,7 +6126,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>5984.928739000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6137,7 +6137,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3086.818259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -6148,7 +6148,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>11205.698479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6159,7 +6159,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3176.234819000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -6170,7 +6170,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>7567.013748999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -6181,7 +6181,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>9214.623129000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6192,7 +6192,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>7011.207709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -6203,7 +6203,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>7715.057029000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6214,7 +6214,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3724.800718999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6225,7 +6225,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>11557.570409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6236,7 +6236,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3689.697588999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6247,7 +6247,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>8931.890848999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -6258,7 +6258,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2935.050249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -6269,7 +6269,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>6406.205838999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6280,7 +6280,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2678.873509000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -6291,7 +6291,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2885.944929000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -6302,7 +6302,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>9645.171168999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -6313,7 +6313,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>5327.384449000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -6324,7 +6324,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>4351.157469000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -6335,7 +6335,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2640.585389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -6346,7 +6346,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>4219.984809000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -6357,7 +6357,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>13058.495209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -6368,7 +6368,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>15006.650042</v>
+        <v>2318.753089</v>
       </c>
     </row>
     <row r="58">
@@ -6379,7 +6379,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3989.578759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -6390,7 +6390,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>4669.077269000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -6401,7 +6401,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2706.681188999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -6412,7 +6412,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>8927.678419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6423,7 +6423,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2931.042009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6434,7 +6434,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2484.754029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -6445,7 +6445,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3383.036308999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -6456,7 +6456,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>9297.234079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6467,7 +6467,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3197.910588999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -6478,7 +6478,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10999.323789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6489,7 +6489,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>9368.372709000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6500,7 +6500,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>9288.907219000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6511,7 +6511,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>10549.131429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6522,7 +6522,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>14197.689496</v>
+        <v>1458.802845</v>
       </c>
     </row>
     <row r="72">
@@ -6533,7 +6533,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>11382.610285</v>
+        <v>174.0654459999996</v>
       </c>
     </row>
     <row r="73">
@@ -6544,7 +6544,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>5517.454249000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6555,7 +6555,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>10338.364879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6566,7 +6566,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3076.474419000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6577,7 +6577,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2850.818268999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6588,7 +6588,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2507.332649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6599,7 +6599,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2484.754029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6610,7 +6610,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3228.687559000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6621,7 +6621,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>4580.318239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -6632,7 +6632,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>10253.587109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -6643,7 +6643,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>5696.481979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -6654,7 +6654,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>4404.234149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -6665,7 +6665,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3866.081009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -6676,7 +6676,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3475.646599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -6687,7 +6687,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2529.057659000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -6698,7 +6698,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>6607.915238999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -6709,7 +6709,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>8037.330999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -6720,7 +6720,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>10322.400366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -6731,7 +6731,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>9202.300839000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -6742,7 +6742,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3058.110999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -6753,7 +6753,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>6848.724319000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -6764,7 +6764,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>5618.942359000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -6775,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>13871.714068</v>
+        <v>1392.055342</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>5165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6833,7 +6833,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -6844,7 +6844,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7892,7 +7892,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7903,7 +7903,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7914,7 +7914,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>1721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.932949000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -10010,7 +10010,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>2817.765969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>16509.539725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10032,7 +10032,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>5175.781859000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10043,7 +10043,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6605.048099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -10054,7 +10054,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>6424.226819000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -10065,7 +10065,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>9188.128499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -10076,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>13197.819026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10087,7 +10087,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>8523.938789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>14045.543799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>13786.369487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>15223.192374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>12236.345273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -10142,7 +10142,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>11149.817189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -10153,7 +10153,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>6514.039169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -10164,7 +10164,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>9041.763739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -10175,7 +10175,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2987.551578999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -10186,7 +10186,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>10504.939439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -10197,7 +10197,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>8302.267729000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -10208,7 +10208,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3113.588209000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -10219,7 +10219,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2549.901039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -10230,7 +10230,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2560.025329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -10241,7 +10241,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>11367.293169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -10252,7 +10252,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>6112.405019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -10263,7 +10263,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>4461.221169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -10274,7 +10274,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>11112.840309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -10285,7 +10285,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>9094.687689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -10296,7 +10296,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>4492.322199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -10307,7 +10307,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>7807.895019000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -10318,7 +10318,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>4307.793009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -10329,7 +10329,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2620.482008999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -10340,7 +10340,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>5723.107989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10351,7 +10351,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>4782.176529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -10362,7 +10362,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>5984.928739000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -10373,7 +10373,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3086.818259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -10384,7 +10384,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>11205.698479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -10395,7 +10395,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3176.234819000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -10406,7 +10406,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>7567.013748999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10417,7 +10417,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>9214.623129000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -10428,7 +10428,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>7011.207709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -10439,7 +10439,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>7715.057029000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -10450,7 +10450,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3724.800718999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -10461,7 +10461,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>11557.570409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -10472,7 +10472,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3689.697588999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -10483,7 +10483,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>8931.890848999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -10494,7 +10494,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2935.050249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -10505,7 +10505,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>6406.205838999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -10516,7 +10516,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2678.873509000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -10527,7 +10527,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2885.944929000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -10538,7 +10538,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>9645.171168999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -10549,7 +10549,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>5327.384449000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -10560,7 +10560,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>4351.157469000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -10571,7 +10571,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2640.585389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -10582,7 +10582,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>4219.984809000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -10593,7 +10593,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>13058.495209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>15006.650042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10615,7 +10615,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3989.578759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -10626,7 +10626,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>4669.077269000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -10637,7 +10637,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>2706.681188999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -10648,7 +10648,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>8927.678419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -10659,7 +10659,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>2931.042009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -10670,7 +10670,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>2484.754029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -10681,7 +10681,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3383.036308999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -10692,7 +10692,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>9297.234079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -10703,7 +10703,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3197.910588999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -10714,7 +10714,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10999.323789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -10725,7 +10725,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>9368.372709000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -10736,7 +10736,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>9288.907219000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -10747,7 +10747,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>10549.131429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>14197.689496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -10769,7 +10769,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>11382.610285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -10780,7 +10780,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>5517.454249000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -10791,7 +10791,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>10338.364879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -10802,7 +10802,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3076.474419000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -10813,7 +10813,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>2850.818268999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -10824,7 +10824,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>2507.332649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -10835,7 +10835,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>2484.754029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -10846,7 +10846,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3228.687559000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -10857,7 +10857,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>4580.318239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -10868,7 +10868,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>10253.587109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -10879,7 +10879,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>5696.481979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -10890,7 +10890,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>4404.234149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -10901,7 +10901,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3866.081009000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -10912,7 +10912,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3475.646599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -10923,7 +10923,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>2529.057659000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -10934,7 +10934,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>6607.915238999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -10945,7 +10945,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>8037.330999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -10956,7 +10956,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>10322.400366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -10967,7 +10967,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>9202.300839000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -10978,7 +10978,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3058.110999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -10989,7 +10989,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>6848.724319000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -11000,7 +11000,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>5618.942359000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>13871.714068</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>City of Coalinga</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -11069,7 +11069,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11091,7 +11091,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -11102,7 +11102,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -11113,7 +11113,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -11124,7 +11124,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -11135,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -11146,7 +11146,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11179,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -11201,7 +11201,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -11212,7 +11212,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -11223,7 +11223,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -11234,7 +11234,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -11245,7 +11245,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -11256,7 +11256,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -11267,7 +11267,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -11278,7 +11278,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -11289,7 +11289,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -11300,7 +11300,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -11311,7 +11311,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -11322,7 +11322,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -11333,7 +11333,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -11344,7 +11344,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -11355,7 +11355,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -11366,7 +11366,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -11377,7 +11377,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -11388,7 +11388,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -11399,7 +11399,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -11410,7 +11410,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -11421,7 +11421,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -11432,7 +11432,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -11443,7 +11443,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -11454,7 +11454,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -11465,7 +11465,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -11476,7 +11476,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -11487,7 +11487,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -11498,7 +11498,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -11509,7 +11509,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -11520,7 +11520,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -11531,7 +11531,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -11542,7 +11542,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -11553,7 +11553,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -11564,7 +11564,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -11575,7 +11575,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -11586,7 +11586,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -11597,7 +11597,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -11608,7 +11608,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -11619,7 +11619,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -11630,7 +11630,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -11641,7 +11641,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -11652,7 +11652,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11674,7 +11674,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -11685,7 +11685,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -11696,7 +11696,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -11707,7 +11707,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -11718,7 +11718,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -11729,7 +11729,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -11740,7 +11740,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -11751,7 +11751,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -11762,7 +11762,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -11773,7 +11773,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11784,7 +11784,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11795,7 +11795,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11806,7 +11806,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11828,7 +11828,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11839,7 +11839,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11850,7 +11850,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11861,7 +11861,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11872,7 +11872,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11883,7 +11883,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -11894,7 +11894,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -11905,7 +11905,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -11916,7 +11916,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -11927,7 +11927,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -11938,7 +11938,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -11949,7 +11949,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -11960,7 +11960,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -11971,7 +11971,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -11982,7 +11982,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -11993,7 +11993,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -12004,7 +12004,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -12015,7 +12015,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -12026,7 +12026,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -12037,7 +12037,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -12048,7 +12048,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>3937.7999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -12059,7 +12059,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>3937.7789999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4742768.410980233</v>
+        <v>14046425.72236278</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>4859427.462889392</v>
+        <v>13885032.54876038</v>
       </c>
     </row>
     <row r="10">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>5637227.325860668</v>
+        <v>13930227.32586067</v>
       </c>
     </row>
     <row r="13">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5290941.306954685</v>
+        <v>13583941.30695468</v>
       </c>
     </row>
     <row r="15">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3778080.380690524</v>
+        <v>15380436.54137731</v>
       </c>
     </row>
     <row r="58">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4505660.803390387</v>
+        <v>14374259.44341646</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>5592642.040205687</v>
+        <v>13885642.04020569</v>
       </c>
     </row>
     <row r="73">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4562134.043308323</v>
+        <v>14296162.12402704</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>501.2898235000002</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1604,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>363.3748749999996</v>
       </c>
     </row>
     <row r="10">
@@ -1626,7 +1626,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>781.5028450000001</v>
       </c>
     </row>
     <row r="12">
@@ -2132,7 +2132,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1641.453089</v>
       </c>
     </row>
     <row r="58">
@@ -2286,7 +2286,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>781.5028450000001</v>
       </c>
     </row>
     <row r="72">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>714.7553419999996</v>
       </c>
     </row>
   </sheetData>
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1178.593372</v>
       </c>
     </row>
     <row r="5">
@@ -10076,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1040.674875</v>
       </c>
     </row>
     <row r="10">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1458.802845</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.404176</v>
       </c>
     </row>
     <row r="13">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>530.6550559999996</v>
       </c>
     </row>
     <row r="15">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>2318.753089</v>
       </c>
     </row>
     <row r="58">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1458.802845</v>
       </c>
     </row>
     <row r="72">
@@ -10769,7 +10769,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>174.0654459999996</v>
       </c>
     </row>
     <row r="73">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1392.055342</v>
       </c>
     </row>
   </sheetData>
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>677.3035485</v>
       </c>
     </row>
     <row r="5">
@@ -11135,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>677.3000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>677.3000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>121.404176</v>
       </c>
     </row>
     <row r="13">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>530.6550559999996</v>
       </c>
     </row>
     <row r="15">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>677.3000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>677.3000000000001</v>
       </c>
     </row>
     <row r="72">
@@ -11828,7 +11828,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>174.0654459999996</v>
       </c>
     </row>
     <row r="73">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>677.3000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>14046425.72236278</v>
+        <v>74609684.54060502</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>13885032.54876038</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>14374259.44341646</v>
+        <v>34761233.58251005</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>13930227.32586067</v>
+        <v>34877823.78496338</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>5739944.084542823</v>
+        <v>35328480.30778956</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>13583941.30695468</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>15380436.54137731</v>
+        <v>34981027.87197478</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>14374259.44341646</v>
+        <v>34796027.60825985</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>13885642.04020569</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>5739944.084542823</v>
+        <v>34812722.64019499</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>5739944.084542823</v>
+        <v>34934793.77734198</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>5739914.06165315</v>
+        <v>34636862.16021674</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>14296162.12402704</v>
+        <v>34721480.65978038</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>501.2898235000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1604,7 +1604,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>363.3748749999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1626,7 +1626,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>781.5028450000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2132,7 +2132,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>1641.453089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2286,7 +2286,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>781.5028450000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>714.7553419999996</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="3">
@@ -4715,7 +4715,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="4">
@@ -4726,7 +4726,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="5">
@@ -4737,7 +4737,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="6">
@@ -4748,7 +4748,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="7">
@@ -4759,7 +4759,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="8">
@@ -4770,7 +4770,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="9">
@@ -4781,7 +4781,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="10">
@@ -4792,7 +4792,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="11">
@@ -4803,7 +4803,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="12">
@@ -4814,7 +4814,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="13">
@@ -4825,7 +4825,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="14">
@@ -4836,7 +4836,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="15">
@@ -4847,7 +4847,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="16">
@@ -4858,7 +4858,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="17">
@@ -4869,7 +4869,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="18">
@@ -4880,7 +4880,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="19">
@@ -4891,7 +4891,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="20">
@@ -4902,7 +4902,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="21">
@@ -4913,7 +4913,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="22">
@@ -4924,7 +4924,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="23">
@@ -4935,7 +4935,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="24">
@@ -4946,7 +4946,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="25">
@@ -4957,7 +4957,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="26">
@@ -4968,7 +4968,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="27">
@@ -4979,7 +4979,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="28">
@@ -4990,7 +4990,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="29">
@@ -5001,7 +5001,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="30">
@@ -5012,7 +5012,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="31">
@@ -5023,7 +5023,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="32">
@@ -5034,7 +5034,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="33">
@@ -5045,7 +5045,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="34">
@@ -5056,7 +5056,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="35">
@@ -5067,7 +5067,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="36">
@@ -5078,7 +5078,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="37">
@@ -5089,7 +5089,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="38">
@@ -5100,7 +5100,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="39">
@@ -5111,7 +5111,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="40">
@@ -5122,7 +5122,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="41">
@@ -5133,7 +5133,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="42">
@@ -5144,7 +5144,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="43">
@@ -5155,7 +5155,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="44">
@@ -5166,7 +5166,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="45">
@@ -5177,7 +5177,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="46">
@@ -5188,7 +5188,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="47">
@@ -5199,7 +5199,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="48">
@@ -5210,7 +5210,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="49">
@@ -5221,7 +5221,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="50">
@@ -5232,7 +5232,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="51">
@@ -5243,7 +5243,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="52">
@@ -5254,7 +5254,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="53">
@@ -5265,7 +5265,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="54">
@@ -5276,7 +5276,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="55">
@@ -5287,7 +5287,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="56">
@@ -5298,7 +5298,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="57">
@@ -5309,7 +5309,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="58">
@@ -5320,7 +5320,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="59">
@@ -5331,7 +5331,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="60">
@@ -5342,7 +5342,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="61">
@@ -5353,7 +5353,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="62">
@@ -5364,7 +5364,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="63">
@@ -5375,7 +5375,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="64">
@@ -5386,7 +5386,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="65">
@@ -5397,7 +5397,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="66">
@@ -5408,7 +5408,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="67">
@@ -5419,7 +5419,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="68">
@@ -5430,7 +5430,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="69">
@@ -5441,7 +5441,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="70">
@@ -5452,7 +5452,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="71">
@@ -5463,7 +5463,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="72">
@@ -5474,7 +5474,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="73">
@@ -5485,7 +5485,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="74">
@@ -5496,7 +5496,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="75">
@@ -5507,7 +5507,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="76">
@@ -5518,7 +5518,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="77">
@@ -5529,7 +5529,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="78">
@@ -5540,7 +5540,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="79">
@@ -5551,7 +5551,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="80">
@@ -5562,7 +5562,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="81">
@@ -5573,7 +5573,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="82">
@@ -5584,7 +5584,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="83">
@@ -5595,7 +5595,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="84">
@@ -5606,7 +5606,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="85">
@@ -5617,7 +5617,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="86">
@@ -5628,7 +5628,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="87">
@@ -5639,7 +5639,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="88">
@@ -5650,7 +5650,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="89">
@@ -5661,7 +5661,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="90">
@@ -5672,7 +5672,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="91">
@@ -5683,7 +5683,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>6773.035485</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="92">
@@ -5694,7 +5694,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>6773.035485</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="93">
@@ -5705,7 +5705,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="94">
@@ -5716,7 +5716,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>6773</v>
+        <v>39378.789999</v>
       </c>
     </row>
   </sheetData>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1178.593372</v>
+        <v>4729.841495</v>
       </c>
     </row>
     <row r="5">
@@ -5840,7 +5840,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1040.674875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5862,7 +5862,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>1458.802845</v>
+        <v>543.845569000001</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>121.404176</v>
+        <v>284.671257</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1721.494144</v>
       </c>
     </row>
     <row r="14">
@@ -5895,7 +5895,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>530.6550559999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6368,7 +6368,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2318.753089</v>
+        <v>1504.951812</v>
       </c>
     </row>
     <row r="58">
@@ -6522,7 +6522,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>1458.802845</v>
+        <v>695.9912660000009</v>
       </c>
     </row>
     <row r="72">
@@ -6533,7 +6533,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>174.0654459999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6775,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>1392.055342</v>
+        <v>370.0158380000003</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="3">
@@ -6833,7 +6833,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6887</v>
       </c>
     </row>
     <row r="4">
@@ -6844,7 +6844,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="5">
@@ -6855,7 +6855,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="6">
@@ -6866,7 +6866,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="7">
@@ -6877,7 +6877,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="8">
@@ -6888,7 +6888,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="9">
@@ -6899,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="10">
@@ -6910,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="11">
@@ -6921,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4621.154430999999</v>
       </c>
     </row>
     <row r="12">
@@ -6932,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4336.483173999999</v>
       </c>
     </row>
     <row r="13">
@@ -6943,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="14">
@@ -6954,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="16">
@@ -6976,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="17">
@@ -6987,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="18">
@@ -6998,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="19">
@@ -7009,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="20">
@@ -7020,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="21">
@@ -7031,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="22">
@@ -7042,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="23">
@@ -7053,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="24">
@@ -7064,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="25">
@@ -7075,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="26">
@@ -7086,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="27">
@@ -7097,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="28">
@@ -7108,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="29">
@@ -7119,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="30">
@@ -7130,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="31">
@@ -7141,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="32">
@@ -7152,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="33">
@@ -7163,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="34">
@@ -7174,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="35">
@@ -7185,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="36">
@@ -7196,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="37">
@@ -7207,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="40">
@@ -7240,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="41">
@@ -7251,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="42">
@@ -7262,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="43">
@@ -7273,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="44">
@@ -7284,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="45">
@@ -7295,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="46">
@@ -7306,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="47">
@@ -7317,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="48">
@@ -7328,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="49">
@@ -7339,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="50">
@@ -7350,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="51">
@@ -7361,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="52">
@@ -7372,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="53">
@@ -7383,7 +7383,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="54">
@@ -7394,7 +7394,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="55">
@@ -7405,7 +7405,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="56">
@@ -7416,7 +7416,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>2614.989029999999</v>
       </c>
     </row>
     <row r="57">
@@ -7427,7 +7427,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="58">
@@ -7438,7 +7438,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="59">
@@ -7449,7 +7449,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="60">
@@ -7460,7 +7460,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="61">
@@ -7471,7 +7471,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="62">
@@ -7482,7 +7482,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="63">
@@ -7493,7 +7493,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="64">
@@ -7504,7 +7504,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="65">
@@ -7515,7 +7515,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="66">
@@ -7526,7 +7526,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="67">
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="68">
@@ -7548,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="69">
@@ -7559,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1110.037217999999</v>
       </c>
     </row>
     <row r="71">
@@ -7581,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="73">
@@ -7603,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="74">
@@ -7614,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="75">
@@ -7625,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="76">
@@ -7636,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="77">
@@ -7647,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="78">
@@ -7658,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="79">
@@ -7669,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="80">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="81">
@@ -7691,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="82">
@@ -7702,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="83">
@@ -7713,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="84">
@@ -7724,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="85">
@@ -7735,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="86">
@@ -7746,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="87">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="88">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="89">
@@ -7779,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="90">
@@ -7790,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="91">
@@ -7801,7 +7801,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="92">
@@ -7812,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="93">
@@ -7823,7 +7823,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>414.0459519999977</v>
       </c>
     </row>
     <row r="94">
@@ -7834,7 +7834,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>44.03011399999741</v>
       </c>
     </row>
   </sheetData>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="5">
@@ -7980,7 +7980,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>543.845569000001</v>
       </c>
     </row>
     <row r="12">
@@ -7991,7 +7991,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>284.671257</v>
       </c>
     </row>
     <row r="13">
@@ -8002,7 +8002,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1721.494144</v>
       </c>
     </row>
     <row r="14">
@@ -8486,7 +8486,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1504.951812</v>
       </c>
     </row>
     <row r="58">
@@ -8640,7 +8640,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>695.9912660000009</v>
       </c>
     </row>
     <row r="72">
@@ -8893,7 +8893,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>370.0158380000003</v>
       </c>
     </row>
   </sheetData>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1178.593372</v>
+        <v>3007.841495</v>
       </c>
     </row>
     <row r="5">
@@ -10076,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1040.674875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>1458.802845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>121.404176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>530.6550559999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>2318.753089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>1458.802845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -10769,7 +10769,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>174.0654459999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>1392.055342</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Coalinga</t>
+          <t>City of Tracy</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>677.3035485</v>
+        <v>3007.841495</v>
       </c>
     </row>
     <row r="5">
@@ -11135,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>677.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>677.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>121.404176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>530.6550559999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>677.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>677.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11828,7 +11828,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>174.0654459999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>677.3000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -446,7 +446,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Annual Cost</t>
+          <t>Total Annual Cost ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>74609684.54060502</v>
+        <v>86980252.17294382</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>34636862.16021674</v>
+        <v>46903868.62131204</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>34761233.58251005</v>
+        <v>88007049.22104913</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>34877823.78496338</v>
+        <v>88389183.98585439</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>35328480.30778956</v>
+        <v>85705228.6802958</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>34636862.16021674</v>
+        <v>87682647.45584138</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>34934793.77734198</v>
+        <v>87326238.0282841</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>34981027.87197478</v>
+        <v>85477789.148054</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>34796027.60825985</v>
+        <v>86121632.8870099</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>34812722.64019499</v>
+        <v>46708889.18421242</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>34934793.77734198</v>
+        <v>46830960.32135942</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>34636862.16021674</v>
+        <v>46533028.70423418</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>34721480.65978038</v>
+        <v>86381073.52278507</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1505,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Water Market Transfer Deliveries</t>
+          <t>Water Market Transfer Deliveries (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>995.4122350999983</v>
       </c>
     </row>
     <row r="5">
@@ -2564,7 +2564,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Shortage</t>
+          <t>Total Shortage (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3623,7 +3623,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Total Economic Loss</t>
+          <t>Total Economic Loss ($)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -4682,7 +4682,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Applied Demands</t>
+          <t>Applied Demands (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5741,7 +5741,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Demands to be met by storage</t>
+          <t>Demands to be met by storage (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4729.841495</v>
+        <v>6655.312234999999</v>
       </c>
     </row>
     <row r="5">
@@ -5840,7 +5840,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1621.591535999999</v>
       </c>
     </row>
     <row r="10">
@@ -5862,7 +5862,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>543.845569000001</v>
+        <v>2469.316309</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>284.671257</v>
+        <v>2210.141996999999</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>1721.494144</v>
+        <v>3646.964883999999</v>
       </c>
     </row>
     <row r="14">
@@ -5895,7 +5895,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>660.1177829999997</v>
       </c>
     </row>
     <row r="15">
@@ -6357,7 +6357,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1482.267718999998</v>
       </c>
     </row>
     <row r="57">
@@ -6368,7 +6368,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>1504.951812</v>
+        <v>3430.422551999999</v>
       </c>
     </row>
     <row r="58">
@@ -6522,7 +6522,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>695.9912660000009</v>
+        <v>2621.462006</v>
       </c>
     </row>
     <row r="72">
@@ -6775,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>370.0158380000003</v>
+        <v>2295.486577999999</v>
       </c>
     </row>
   </sheetData>
@@ -6800,7 +6800,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>GW bank volume</t>
+          <t>GW bank volume (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -6899,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>5165</v>
+        <v>3543.408464000001</v>
       </c>
     </row>
     <row r="10">
@@ -6910,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>5165</v>
+        <v>3543.408464000001</v>
       </c>
     </row>
     <row r="11">
@@ -6921,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4621.154430999999</v>
+        <v>1821.408464000001</v>
       </c>
     </row>
     <row r="12">
@@ -6932,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>4336.483173999999</v>
+        <v>99.408464000001</v>
       </c>
     </row>
     <row r="13">
@@ -6943,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6954,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6976,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -6987,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6998,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -7009,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -7020,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7031,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -7042,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -7053,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7064,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -7075,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -7086,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -7097,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7108,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7119,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7130,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7141,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -7152,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -7163,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -7174,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7185,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7196,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7207,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7240,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7251,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7262,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7273,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7284,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7295,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7306,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -7317,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -7328,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -7339,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -7350,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -7361,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -7372,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -7383,7 +7383,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -7394,7 +7394,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -7405,7 +7405,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -7416,7 +7416,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>2614.989029999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -7427,7 +7427,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -7438,7 +7438,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -7449,7 +7449,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -7460,7 +7460,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -7471,7 +7471,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -7482,7 +7482,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -7493,7 +7493,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -7504,7 +7504,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -7515,7 +7515,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -7526,7 +7526,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -7548,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -7559,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>1110.037217999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -7581,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -7603,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -7614,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7625,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -7636,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -7647,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -7658,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -7669,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7691,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7702,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7713,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7724,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7735,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -7746,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7779,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7790,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7801,7 +7801,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -7812,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7823,7 +7823,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>414.0459519999977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -7834,7 +7834,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>44.03011399999741</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7859,7 +7859,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>GW bank take volume</t>
+          <t>GW bank take volume (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -7958,7 +7958,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1621.591535999999</v>
       </c>
     </row>
     <row r="10">
@@ -7980,7 +7980,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>543.845569000001</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="12">
@@ -7991,7 +7991,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>284.671257</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="13">
@@ -8002,7 +8002,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>1721.494144</v>
+        <v>99.408464000001</v>
       </c>
     </row>
     <row r="14">
@@ -8486,7 +8486,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>1504.951812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -8640,7 +8640,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>695.9912660000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -8893,7 +8893,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>370.0158380000003</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8918,7 +8918,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>GW bank put volume</t>
+          <t>GW bank put volume (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -9977,7 +9977,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Contingent Options Demands</t>
+          <t>Contingent Options Demands (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3007.841495</v>
+        <v>4933.312234999999</v>
       </c>
     </row>
     <row r="5">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>747.3163089999998</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>488.1419969999988</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3547.556419999998</v>
       </c>
     </row>
     <row r="14">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>660.1177829999997</v>
       </c>
     </row>
     <row r="15">
@@ -10593,7 +10593,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1482.267718999998</v>
       </c>
     </row>
     <row r="57">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3430.422551999999</v>
       </c>
     </row>
     <row r="58">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2621.462006</v>
       </c>
     </row>
     <row r="72">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2295.486577999999</v>
       </c>
     </row>
   </sheetData>
@@ -11036,7 +11036,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Contingent Conservation Volume</t>
+          <t>Contingent Conservation Volume (acre-feet/year)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3007.841495</v>
+        <v>3937.8999999</v>
       </c>
     </row>
     <row r="5">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>747.3163089999998</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>488.1419969999988</v>
       </c>
     </row>
     <row r="13">
@@ -11179,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3547.556419999998</v>
       </c>
     </row>
     <row r="14">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>660.1177829999997</v>
       </c>
     </row>
     <row r="15">
@@ -11652,7 +11652,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1482.267718999998</v>
       </c>
     </row>
     <row r="57">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>3430.422551999999</v>
       </c>
     </row>
     <row r="58">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>2621.462006</v>
       </c>
     </row>
     <row r="72">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>2295.486577999999</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>46708889.18421242</v>
+        <v>45807729.61110652</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>46708889.18421242</v>
+        <v>42223064.90923876</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>86980252.17294382</v>
+        <v>167994658.2539075</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>46533028.70423418</v>
+        <v>43175548.81164407</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>46533028.70423418</v>
+        <v>41801572.39731208</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>46708889.18421242</v>
+        <v>41840035.23585714</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>46830960.32135942</v>
+        <v>41948366.60886081</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>46903868.62131204</v>
+        <v>82414291.77402699</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>46533028.70423418</v>
+        <v>42783610.50005091</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>88007049.22104913</v>
+        <v>81739595.96821465</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>88389183.98585439</v>
+        <v>82121730.7330199</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>85705228.6802958</v>
+        <v>81100248.67173503</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>87682647.45584138</v>
+        <v>83179519.273811</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>46708889.18421242</v>
+        <v>42124736.56246825</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>46708889.18421242</v>
+        <v>44694860.39210407</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>46708889.18421242</v>
+        <v>42512370.07678195</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>46708889.18421242</v>
+        <v>46168356.5368732</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>46830960.32135942</v>
+        <v>42099331.34319243</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>46708889.18421242</v>
+        <v>42834862.88937473</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>46708889.18421242</v>
+        <v>41925778.23706558</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>46708889.18421242</v>
+        <v>41834869.77183466</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>46708889.18421242</v>
+        <v>41825778.92531157</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>46830960.32135942</v>
+        <v>42296542.0332</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>46708889.18421242</v>
+        <v>43145179.39332803</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>46708889.18421242</v>
+        <v>41956809.8874609</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>46830960.32135942</v>
+        <v>42238351.4991427</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>46533028.70423418</v>
+        <v>42290813.95033397</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>46533028.70423418</v>
+        <v>42185007.04374775</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>46533028.70423418</v>
+        <v>41702518.22052246</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>46708889.18421242</v>
+        <v>41830129.81817818</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>46708889.18421242</v>
+        <v>41825304.92994592</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>46830960.32135942</v>
+        <v>41946893.57826969</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>46533028.70423418</v>
+        <v>41648913.71226212</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>46533028.70423418</v>
+        <v>41648908.88737389</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>46708889.18421242</v>
+        <v>41824768.88486332</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>46830960.32135942</v>
+        <v>42259587.12802847</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>46708889.18421242</v>
+        <v>43005554.15071774</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>46830960.32135942</v>
+        <v>42064918.50034688</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>46533028.70423418</v>
+        <v>41660716.20446984</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>46533028.70423418</v>
+        <v>41650089.13659466</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>46533028.70423418</v>
+        <v>41649026.42980714</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>46708889.18421242</v>
+        <v>41824780.63910664</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>46830960.32135942</v>
+        <v>42340056.31798558</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>46708889.18421242</v>
+        <v>43309368.91745385</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>46830960.32135942</v>
+        <v>42095299.97702048</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>46708889.18421242</v>
+        <v>41839614.83211545</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>46830960.32135942</v>
+        <v>41948324.56848664</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>46708889.18421242</v>
+        <v>41824917.29126206</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>46708889.18421242</v>
+        <v>41824783.6772543</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>46830960.32135942</v>
+        <v>41946841.45300052</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>46533028.70423418</v>
+        <v>41648908.49973521</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>46708889.18421242</v>
+        <v>41824768.84609945</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>46708889.18421242</v>
+        <v>41824768.83273804</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>46708889.18421242</v>
+        <v>41824768.83140191</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>87326238.0282841</v>
+        <v>82823109.84625371</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>85477789.148054</v>
+        <v>80974660.96602361</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>46708889.18421242</v>
+        <v>44798390.53640898</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>46708889.18421242</v>
+        <v>42122131.001769</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>46708889.18421242</v>
+        <v>41854505.048305</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>46830960.32135942</v>
+        <v>41949813.59010559</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>46708889.18421242</v>
+        <v>41825066.19342396</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>46708889.18421242</v>
+        <v>41824798.5674705</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>46708889.18421242</v>
+        <v>41824771.80487515</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>46830960.32135942</v>
+        <v>41946840.26576261</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>46708889.18421242</v>
+        <v>41824768.86098966</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>46830960.32135942</v>
+        <v>42212391.53578003</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>46533028.70423418</v>
+        <v>42054508.57407267</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>46533028.70423418</v>
+        <v>42123120.7418641</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>46533028.70423418</v>
+        <v>41811505.94180849</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>86121632.8870099</v>
+        <v>81618504.70497951</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>46533028.70423418</v>
+        <v>42002113.269846</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>46708889.18421242</v>
+        <v>45469771.66901121</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>46830960.32135942</v>
+        <v>42061237.59723587</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>46708889.18421242</v>
+        <v>42621180.44000424</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>46708889.18421242</v>
+        <v>41904409.99212853</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>46708889.18421242</v>
+        <v>41832732.94734095</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>46708889.18421242</v>
+        <v>41825565.24286219</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>46708889.18421242</v>
+        <v>41824848.47241432</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>46708889.18421242</v>
+        <v>41824776.79536954</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>46830960.32135942</v>
+        <v>42041849.86580111</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>46533028.70423418</v>
+        <v>42007621.57109812</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>46533028.70423418</v>
+        <v>41684779.67325749</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>46533028.70423418</v>
+        <v>41652495.48347343</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>46708889.18421242</v>
+        <v>41825127.54447327</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>46708889.18421242</v>
+        <v>41824804.70257543</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>46830960.32135942</v>
+        <v>41946843.55553263</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>46533028.70423418</v>
+        <v>41648908.70998842</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>46533028.70423418</v>
+        <v>41759655.07385854</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>46708889.18421242</v>
+        <v>42242896.09733533</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>46708889.18421242</v>
+        <v>41866581.55786163</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>46830960.32135942</v>
+        <v>41951021.24106126</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>46533028.70423418</v>
+        <v>41649326.47854128</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>86381073.52278507</v>
+        <v>81877945.34075467</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>995.4122350999983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -2608,7 +2608,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1733.5074751</v>
       </c>
     </row>
     <row r="5">
@@ -3667,7 +3667,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3922609.877851271</v>
       </c>
     </row>
     <row r="5">
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>6655.312234999999</v>
+        <v>8393.407475</v>
       </c>
     </row>
     <row r="5">
@@ -5840,7 +5840,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1621.591535999999</v>
+        <v>3359.686776</v>
       </c>
     </row>
     <row r="10">
@@ -5862,7 +5862,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2469.316309</v>
+        <v>4207.411549</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2210.141996999999</v>
+        <v>3948.237236999999</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3646.964883999999</v>
+        <v>5385.060124</v>
       </c>
     </row>
     <row r="14">
@@ -5895,7 +5895,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>660.1177829999997</v>
+        <v>2398.213023</v>
       </c>
     </row>
     <row r="15">
@@ -5906,7 +5906,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1311.684939000001</v>
       </c>
     </row>
     <row r="16">
@@ -5950,7 +5950,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>666.8071889999992</v>
       </c>
     </row>
     <row r="20">
@@ -6005,7 +6005,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1529.160919</v>
       </c>
     </row>
     <row r="25">
@@ -6038,7 +6038,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1274.708058999999</v>
       </c>
     </row>
     <row r="28">
@@ -6148,7 +6148,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1367.566228999998</v>
       </c>
     </row>
     <row r="38">
@@ -6225,7 +6225,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1719.438158999999</v>
       </c>
     </row>
     <row r="45">
@@ -6357,7 +6357,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1482.267718999998</v>
+        <v>3220.362958999998</v>
       </c>
     </row>
     <row r="57">
@@ -6368,7 +6368,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3430.422551999999</v>
+        <v>5168.517792</v>
       </c>
     </row>
     <row r="58">
@@ -6478,7 +6478,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1161.191538999999</v>
       </c>
     </row>
     <row r="68">
@@ -6511,7 +6511,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>710.9991790000004</v>
       </c>
     </row>
     <row r="71">
@@ -6522,7 +6522,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2621.462006</v>
+        <v>4359.557246</v>
       </c>
     </row>
     <row r="72">
@@ -6533,7 +6533,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1544.478035</v>
       </c>
     </row>
     <row r="73">
@@ -6555,7 +6555,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>500.2326289999983</v>
       </c>
     </row>
     <row r="75">
@@ -6632,7 +6632,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>415.4548589999995</v>
       </c>
     </row>
     <row r="82">
@@ -6720,7 +6720,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>484.2681159999993</v>
       </c>
     </row>
     <row r="90">
@@ -6775,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2295.486577999999</v>
+        <v>4033.581818</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6822,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>6887</v>
+        <v>11038.7</v>
       </c>
     </row>
     <row r="3">
@@ -6833,7 +6833,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>6887</v>
+        <v>11453.87</v>
       </c>
     </row>
     <row r="4">
@@ -6844,7 +6844,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>5165</v>
+        <v>9731.870000000001</v>
       </c>
     </row>
     <row r="5">
@@ -6855,7 +6855,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>5165</v>
+        <v>11323.187</v>
       </c>
     </row>
     <row r="6">
@@ -6866,7 +6866,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>5165</v>
+        <v>11482.3187</v>
       </c>
     </row>
     <row r="7">
@@ -6877,7 +6877,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>5165</v>
+        <v>11498.23187</v>
       </c>
     </row>
     <row r="8">
@@ -6888,7 +6888,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>5165</v>
+        <v>11499.823187</v>
       </c>
     </row>
     <row r="9">
@@ -6899,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3543.408464000001</v>
+        <v>9777.823187</v>
       </c>
     </row>
     <row r="10">
@@ -6910,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>3543.408464000001</v>
+        <v>10960.5973019</v>
       </c>
     </row>
     <row r="11">
@@ -6921,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>1821.408464000001</v>
+        <v>9238.597301900001</v>
       </c>
     </row>
     <row r="12">
@@ -6932,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>99.408464000001</v>
+        <v>7516.597301900001</v>
       </c>
     </row>
     <row r="13">
@@ -6943,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5794.597301900001</v>
       </c>
     </row>
     <row r="14">
@@ -6954,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4072.597301900001</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2760.912362900001</v>
       </c>
     </row>
     <row r="16">
@@ -6976,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5752.596135800001</v>
       </c>
     </row>
     <row r="17">
@@ -6987,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6469.327795700002</v>
       </c>
     </row>
     <row r="18">
@@ -6998,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10996.93277957</v>
       </c>
     </row>
     <row r="19">
@@ -7009,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10330.12559057</v>
       </c>
     </row>
     <row r="20">
@@ -7020,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>11383.012559057</v>
       </c>
     </row>
     <row r="21">
@@ -7031,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>11488.3012559057</v>
       </c>
     </row>
     <row r="22">
@@ -7042,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>11498.83012559057</v>
       </c>
     </row>
     <row r="23">
@@ -7053,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>11499.88301255906</v>
       </c>
     </row>
     <row r="24">
@@ -7064,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9970.722093559058</v>
       </c>
     </row>
     <row r="25">
@@ -7075,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>11347.07220935591</v>
       </c>
     </row>
     <row r="26">
@@ -7086,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>11484.70722093559</v>
       </c>
     </row>
     <row r="27">
@@ -7097,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>10209.99916193559</v>
       </c>
     </row>
     <row r="28">
@@ -7108,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>10879.09926683559</v>
       </c>
     </row>
     <row r="29">
@@ -7119,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>11437.90992668356</v>
       </c>
     </row>
     <row r="30">
@@ -7130,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>11493.79099266836</v>
       </c>
     </row>
     <row r="31">
@@ -7141,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>11499.37909926684</v>
       </c>
     </row>
     <row r="32">
@@ -7152,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>11499.93790992668</v>
       </c>
     </row>
     <row r="33">
@@ -7163,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>11499.99379099267</v>
       </c>
     </row>
     <row r="34">
@@ -7174,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>11499.99937909927</v>
       </c>
     </row>
     <row r="35">
@@ -7185,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>11499.99993790993</v>
       </c>
     </row>
     <row r="36">
@@ -7196,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>11499.99999379099</v>
       </c>
     </row>
     <row r="37">
@@ -7207,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>10132.43376479099</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>11363.2433764791</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>11486.32433764791</v>
       </c>
     </row>
     <row r="40">
@@ -7240,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>11498.63243376479</v>
       </c>
     </row>
     <row r="41">
@@ -7251,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>11499.86324337648</v>
       </c>
     </row>
     <row r="42">
@@ -7262,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>11499.98632433765</v>
       </c>
     </row>
     <row r="43">
@@ -7273,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>11499.99863243376</v>
       </c>
     </row>
     <row r="44">
@@ -7284,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>9780.560473433765</v>
       </c>
     </row>
     <row r="45">
@@ -7295,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>11328.05604734338</v>
       </c>
     </row>
     <row r="46">
@@ -7306,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>11482.80560473434</v>
       </c>
     </row>
     <row r="47">
@@ -7317,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>11498.28056047343</v>
       </c>
     </row>
     <row r="48">
@@ -7328,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>11499.82805604734</v>
       </c>
     </row>
     <row r="49">
@@ -7339,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>11499.98280560473</v>
       </c>
     </row>
     <row r="50">
@@ -7350,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>11499.99828056047</v>
       </c>
     </row>
     <row r="51">
@@ -7361,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>11499.99982805605</v>
       </c>
     </row>
     <row r="52">
@@ -7372,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>11499.9999828056</v>
       </c>
     </row>
     <row r="53">
@@ -7383,7 +7383,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>11499.99999828056</v>
       </c>
     </row>
     <row r="54">
@@ -7394,7 +7394,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>11499.99999982806</v>
       </c>
     </row>
     <row r="55">
@@ -7405,7 +7405,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>11499.99999998281</v>
       </c>
     </row>
     <row r="56">
@@ -7416,7 +7416,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>9777.999999982805</v>
       </c>
     </row>
     <row r="57">
@@ -7427,7 +7427,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>8055.999999982805</v>
       </c>
     </row>
     <row r="58">
@@ -7438,7 +7438,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>11155.59999999828</v>
       </c>
     </row>
     <row r="59">
@@ -7449,7 +7449,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>11465.55999999983</v>
       </c>
     </row>
     <row r="60">
@@ -7460,7 +7460,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>11496.55599999998</v>
       </c>
     </row>
     <row r="61">
@@ -7471,7 +7471,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>11499.6556</v>
       </c>
     </row>
     <row r="62">
@@ -7482,7 +7482,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>11499.96556</v>
       </c>
     </row>
     <row r="63">
@@ -7493,7 +7493,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>11499.996556</v>
       </c>
     </row>
     <row r="64">
@@ -7504,7 +7504,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>11499.9996556</v>
       </c>
     </row>
     <row r="65">
@@ -7515,7 +7515,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>11499.99996556</v>
       </c>
     </row>
     <row r="66">
@@ -7526,7 +7526,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>11499.999996556</v>
       </c>
     </row>
     <row r="67">
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>10338.808457556</v>
       </c>
     </row>
     <row r="68">
@@ -7548,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>10761.592044456</v>
       </c>
     </row>
     <row r="69">
@@ -7559,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>11255.894572356</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>10544.895393356</v>
       </c>
     </row>
     <row r="71">
@@ -7581,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>8822.895393355999</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>7278.417358355999</v>
       </c>
     </row>
     <row r="73">
@@ -7603,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>11077.8417358356</v>
       </c>
     </row>
     <row r="74">
@@ -7614,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>10577.6091068356</v>
       </c>
     </row>
     <row r="75">
@@ -7625,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>11407.76091068356</v>
       </c>
     </row>
     <row r="76">
@@ -7636,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>11490.77609106836</v>
       </c>
     </row>
     <row r="77">
@@ -7647,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>11499.07760910684</v>
       </c>
     </row>
     <row r="78">
@@ -7658,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>11499.90776091068</v>
       </c>
     </row>
     <row r="79">
@@ -7669,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>11499.99077609107</v>
       </c>
     </row>
     <row r="80">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>11499.99907760911</v>
       </c>
     </row>
     <row r="81">
@@ -7691,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>11084.54421860911</v>
       </c>
     </row>
     <row r="82">
@@ -7702,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>11458.45442186091</v>
       </c>
     </row>
     <row r="83">
@@ -7713,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>11495.84544218609</v>
       </c>
     </row>
     <row r="84">
@@ -7724,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>11499.58454421861</v>
       </c>
     </row>
     <row r="85">
@@ -7735,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>11499.95845442186</v>
       </c>
     </row>
     <row r="86">
@@ -7746,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>11499.99584544219</v>
       </c>
     </row>
     <row r="87">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>11499.99958454422</v>
       </c>
     </row>
     <row r="88">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>11499.99995845442</v>
       </c>
     </row>
     <row r="89">
@@ -7779,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>11015.73184245442</v>
       </c>
     </row>
     <row r="90">
@@ -7790,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>11451.57318424544</v>
       </c>
     </row>
     <row r="91">
@@ -7801,7 +7801,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>11495.15731842454</v>
       </c>
     </row>
     <row r="92">
@@ -7812,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>11499.51573184245</v>
       </c>
     </row>
     <row r="93">
@@ -7823,7 +7823,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>11499.95157318425</v>
       </c>
     </row>
     <row r="94">
@@ -7834,7 +7834,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>9777.951573184246</v>
       </c>
     </row>
   </sheetData>
@@ -7958,7 +7958,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1621.591535999999</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="10">
@@ -8002,7 +8002,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>99.408464000001</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="14">
@@ -8013,7 +8013,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="15">
@@ -8024,7 +8024,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1311.684939000001</v>
       </c>
     </row>
     <row r="16">
@@ -8068,7 +8068,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>666.8071889999992</v>
       </c>
     </row>
     <row r="20">
@@ -8123,7 +8123,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1529.160919</v>
       </c>
     </row>
     <row r="25">
@@ -8156,7 +8156,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1274.708058999999</v>
       </c>
     </row>
     <row r="28">
@@ -8266,7 +8266,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1367.566228999998</v>
       </c>
     </row>
     <row r="38">
@@ -8343,7 +8343,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1719.438158999999</v>
       </c>
     </row>
     <row r="45">
@@ -8475,7 +8475,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="57">
@@ -8486,7 +8486,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="58">
@@ -8596,7 +8596,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1161.191538999999</v>
       </c>
     </row>
     <row r="68">
@@ -8629,7 +8629,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>710.9991790000004</v>
       </c>
     </row>
     <row r="71">
@@ -8640,7 +8640,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="72">
@@ -8651,7 +8651,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1544.478035</v>
       </c>
     </row>
     <row r="73">
@@ -8673,7 +8673,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>500.2326289999983</v>
       </c>
     </row>
     <row r="75">
@@ -8750,7 +8750,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>415.4548589999995</v>
       </c>
     </row>
     <row r="82">
@@ -8838,7 +8838,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>484.2681159999993</v>
       </c>
     </row>
     <row r="90">
@@ -8893,7 +8893,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
   </sheetData>
@@ -8940,7 +8940,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>4151.7</v>
       </c>
     </row>
     <row r="3">
@@ -8951,7 +8951,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>415.1699999999993</v>
       </c>
     </row>
     <row r="4">
@@ -8973,7 +8973,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1591.316999999999</v>
       </c>
     </row>
     <row r="6">
@@ -8984,7 +8984,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>159.1317000000001</v>
       </c>
     </row>
     <row r="7">
@@ -8995,7 +8995,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.91317000000017</v>
       </c>
     </row>
     <row r="8">
@@ -9006,7 +9006,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.591317000000345</v>
       </c>
     </row>
     <row r="9">
@@ -9028,7 +9028,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1182.774114900001</v>
       </c>
     </row>
     <row r="11">
@@ -9094,7 +9094,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2991.683772900001</v>
       </c>
     </row>
     <row r="17">
@@ -9105,7 +9105,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>716.7316599000005</v>
       </c>
     </row>
     <row r="18">
@@ -9116,7 +9116,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4527.604983869998</v>
       </c>
     </row>
     <row r="19">
@@ -9138,7 +9138,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1052.886968486999</v>
       </c>
     </row>
     <row r="21">
@@ -9149,7 +9149,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.2886968486995</v>
       </c>
     </row>
     <row r="22">
@@ -9160,7 +9160,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>10.52886968486946</v>
       </c>
     </row>
     <row r="23">
@@ -9171,7 +9171,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.05288696848711</v>
       </c>
     </row>
     <row r="24">
@@ -9193,7 +9193,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1376.350115796848</v>
       </c>
     </row>
     <row r="26">
@@ -9204,7 +9204,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>137.6350115796853</v>
       </c>
     </row>
     <row r="27">
@@ -9226,7 +9226,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>669.1001049000002</v>
       </c>
     </row>
     <row r="29">
@@ -9237,7 +9237,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>558.8106598479671</v>
       </c>
     </row>
     <row r="30">
@@ -9248,7 +9248,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>55.88106598479754</v>
       </c>
     </row>
     <row r="31">
@@ -9259,7 +9259,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>5.588106598480408</v>
       </c>
     </row>
     <row r="32">
@@ -9270,7 +9270,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.5588106598472223</v>
       </c>
     </row>
     <row r="33">
@@ -9281,7 +9281,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.05588106598406739</v>
       </c>
     </row>
     <row r="34">
@@ -9292,7 +9292,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.005588106598406739</v>
       </c>
     </row>
     <row r="35">
@@ -9303,7 +9303,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0005588106600043829</v>
       </c>
     </row>
     <row r="36">
@@ -9314,7 +9314,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>5.588106632785639e-05</v>
       </c>
     </row>
     <row r="37">
@@ -9336,7 +9336,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1230.809611688105</v>
       </c>
     </row>
     <row r="39">
@@ -9347,7 +9347,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>123.0809611688113</v>
       </c>
     </row>
     <row r="40">
@@ -9358,7 +9358,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>12.30809611688146</v>
       </c>
     </row>
     <row r="41">
@@ -9369,7 +9369,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.230809611687983</v>
       </c>
     </row>
     <row r="42">
@@ -9380,7 +9380,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.1230809611683071</v>
       </c>
     </row>
     <row r="43">
@@ -9391,7 +9391,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.01230809611715813</v>
       </c>
     </row>
     <row r="44">
@@ -9413,7 +9413,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1547.495573909612</v>
       </c>
     </row>
     <row r="46">
@@ -9424,7 +9424,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>154.7495573909615</v>
       </c>
     </row>
     <row r="47">
@@ -9435,7 +9435,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>15.47495573909582</v>
       </c>
     </row>
     <row r="48">
@@ -9446,7 +9446,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1.547495573910237</v>
       </c>
     </row>
     <row r="49">
@@ -9457,7 +9457,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.1547495573911874</v>
       </c>
     </row>
     <row r="50">
@@ -9468,7 +9468,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.01547495573977358</v>
       </c>
     </row>
     <row r="51">
@@ -9479,7 +9479,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.001547495573322521</v>
       </c>
     </row>
     <row r="52">
@@ -9490,7 +9490,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.0001547495579870883</v>
       </c>
     </row>
     <row r="53">
@@ -9501,7 +9501,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1.547495612612693e-05</v>
       </c>
     </row>
     <row r="54">
@@ -9512,7 +9512,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1.547495776321739e-06</v>
       </c>
     </row>
     <row r="55">
@@ -9523,7 +9523,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.547492502140813e-07</v>
       </c>
     </row>
     <row r="56">
@@ -9556,7 +9556,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>3099.600000015475</v>
       </c>
     </row>
     <row r="59">
@@ -9567,7 +9567,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>309.9600000015467</v>
       </c>
     </row>
     <row r="60">
@@ -9578,7 +9578,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>30.99600000015435</v>
       </c>
     </row>
     <row r="61">
@@ -9589,7 +9589,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>3.099600000015926</v>
       </c>
     </row>
     <row r="62">
@@ -9600,7 +9600,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.3099600000015926</v>
       </c>
     </row>
     <row r="63">
@@ -9611,7 +9611,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.03099599999950442</v>
       </c>
     </row>
     <row r="64">
@@ -9622,7 +9622,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.003099599999950442</v>
       </c>
     </row>
     <row r="65">
@@ -9633,7 +9633,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>0.0003099599995039171</v>
       </c>
     </row>
     <row r="66">
@@ -9644,7 +9644,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3.099599962297361e-05</v>
       </c>
     </row>
     <row r="67">
@@ -9666,7 +9666,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>422.7835868999995</v>
       </c>
     </row>
     <row r="69">
@@ -9677,7 +9677,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>494.3025279</v>
       </c>
     </row>
     <row r="70">
@@ -9721,7 +9721,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3799.424377479601</v>
       </c>
     </row>
     <row r="74">
@@ -9743,7 +9743,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>830.1518038479584</v>
       </c>
     </row>
     <row r="76">
@@ -9754,7 +9754,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>83.01518038479536</v>
       </c>
     </row>
     <row r="77">
@@ -9765,7 +9765,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>8.301518038480026</v>
       </c>
     </row>
     <row r="78">
@@ -9776,7 +9776,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>0.8301518038471841</v>
       </c>
     </row>
     <row r="79">
@@ -9787,7 +9787,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.08301518038406357</v>
       </c>
     </row>
     <row r="80">
@@ -9798,7 +9798,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.008301518038570066</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>373.9102032518031</v>
       </c>
     </row>
     <row r="83">
@@ -9831,7 +9831,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>37.39102032517949</v>
       </c>
     </row>
     <row r="84">
@@ -9842,7 +9842,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3.739102032517621</v>
       </c>
     </row>
     <row r="85">
@@ -9853,7 +9853,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.3739102032517622</v>
       </c>
     </row>
     <row r="86">
@@ -9864,7 +9864,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>0.03739102032468509</v>
       </c>
     </row>
     <row r="87">
@@ -9875,7 +9875,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.003739102031977381</v>
       </c>
     </row>
     <row r="88">
@@ -9886,7 +9886,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>0.0003739102028703201</v>
       </c>
     </row>
     <row r="89">
@@ -9908,7 +9908,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>435.8413417910195</v>
       </c>
     </row>
     <row r="91">
@@ -9919,7 +9919,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>43.58413417910179</v>
       </c>
     </row>
     <row r="92">
@@ -9930,7 +9930,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>4.358413417910015</v>
       </c>
     </row>
     <row r="93">
@@ -9941,7 +9941,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>0.43584134179182</v>
       </c>
     </row>
     <row r="94">
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>4933.312234999999</v>
+        <v>6671.407475</v>
       </c>
     </row>
     <row r="5">
@@ -10076,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1637.686776</v>
       </c>
     </row>
     <row r="10">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>747.3163089999998</v>
+        <v>2485.411549</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>488.1419969999988</v>
+        <v>2226.237236999999</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3547.556419999998</v>
+        <v>3663.060124</v>
       </c>
     </row>
     <row r="14">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>660.1177829999997</v>
+        <v>676.2130230000002</v>
       </c>
     </row>
     <row r="15">
@@ -10593,7 +10593,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1482.267718999998</v>
+        <v>1498.362958999998</v>
       </c>
     </row>
     <row r="57">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3430.422551999999</v>
+        <v>3446.517792</v>
       </c>
     </row>
     <row r="58">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2621.462006</v>
+        <v>2637.557246</v>
       </c>
     </row>
     <row r="72">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2295.486577999999</v>
+        <v>2311.581818</v>
       </c>
     </row>
   </sheetData>
@@ -11135,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1637.686776</v>
       </c>
     </row>
     <row r="10">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>747.3163089999998</v>
+        <v>2485.411549</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>488.1419969999988</v>
+        <v>2226.237236999999</v>
       </c>
     </row>
     <row r="13">
@@ -11179,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3547.556419999998</v>
+        <v>3663.060124</v>
       </c>
     </row>
     <row r="14">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>660.1177829999997</v>
+        <v>676.2130230000002</v>
       </c>
     </row>
     <row r="15">
@@ -11652,7 +11652,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1482.267718999998</v>
+        <v>1498.362958999998</v>
       </c>
     </row>
     <row r="57">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3430.422551999999</v>
+        <v>3446.517792</v>
       </c>
     </row>
     <row r="58">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2621.462006</v>
+        <v>2637.557246</v>
       </c>
     </row>
     <row r="72">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2295.486577999999</v>
+        <v>2311.581818</v>
       </c>
     </row>
   </sheetData>

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>45807729.61110652</v>
+        <v>42136288.29979742</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>42223064.90923876</v>
+        <v>41855920.77810784</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>43175548.81164407</v>
+        <v>41768311.54180558</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>41801572.39731208</v>
+        <v>41660848.67032823</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>41840035.23585714</v>
+        <v>41825962.86315875</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>41948366.60886081</v>
+        <v>41946959.37159097</v>
       </c>
     </row>
     <row r="9">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>42783610.50005091</v>
+        <v>41737656.85518473</v>
       </c>
     </row>
     <row r="11">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>44694860.39210407</v>
+        <v>42049247.41568523</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>42512370.07678195</v>
+        <v>41878548.21458574</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>46168356.5368732</v>
+        <v>42164494.02776385</v>
       </c>
     </row>
     <row r="19">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>42834862.88937473</v>
+        <v>41903771.35765467</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>41925778.23706558</v>
+        <v>41832669.08389357</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>41834869.77183466</v>
+        <v>41825558.85651746</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>41825778.92531157</v>
+        <v>41824847.83377985</v>
       </c>
     </row>
     <row r="24">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>43145179.39332803</v>
+        <v>41928042.1546158</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>41956809.8874609</v>
+        <v>41835096.16358968</v>
       </c>
     </row>
     <row r="27">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>42290813.95033397</v>
+        <v>41699113.73920813</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>42185007.04374775</v>
+        <v>41690838.25945077</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>41702518.22052246</v>
+        <v>41653101.34209275</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>41830129.81817818</v>
+        <v>41825188.1303352</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>41825304.92994592</v>
+        <v>41824810.76116162</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>41946893.57826969</v>
+        <v>41946844.16139126</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>41648913.71226212</v>
+        <v>41648908.77057428</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>41648908.88737389</v>
+        <v>41648908.39320511</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>41824768.88486332</v>
+        <v>41824768.83544643</v>
       </c>
     </row>
     <row r="37">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>43005554.15071774</v>
+        <v>41917121.64000935</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>42064918.50034688</v>
+        <v>41956075.24927603</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>41660716.20446984</v>
+        <v>41649831.87936275</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>41650089.13659466</v>
+        <v>41649000.70408395</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>41649026.42980714</v>
+        <v>41648917.58655607</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>41824780.63910664</v>
+        <v>41824769.75478153</v>
       </c>
     </row>
     <row r="44">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>43309368.91745385</v>
+        <v>41940883.91634111</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>42095299.97702048</v>
+        <v>41958451.47690921</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>41839614.83211545</v>
+        <v>41825929.98210432</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>41948324.56848664</v>
+        <v>41946956.08348553</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>41824917.29126206</v>
+        <v>41824780.44276195</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>41824783.6772543</v>
+        <v>41824769.9924043</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>41946841.45300052</v>
+        <v>41946840.08451553</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>41648908.49973521</v>
+        <v>41648908.3628867</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>41824768.84609945</v>
+        <v>41824768.8324146</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>41824768.83273804</v>
+        <v>41824768.83136956</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>41824768.83140191</v>
+        <v>41824768.83126505</v>
       </c>
     </row>
     <row r="56">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>44798390.53640898</v>
+        <v>42057344.82294449</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>42122131.001769</v>
+        <v>41848026.43042255</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>41854505.048305</v>
+        <v>41827094.59117036</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>41949813.59010559</v>
+        <v>41947072.54439213</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>41825066.19342396</v>
+        <v>41824792.08885261</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>41824798.5674705</v>
+        <v>41824771.15701336</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>41824771.80487515</v>
+        <v>41824769.06382944</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>41946840.26576261</v>
+        <v>41946839.99165804</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>41824768.86098966</v>
+        <v>41824768.8335792</v>
       </c>
     </row>
     <row r="67">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>42054508.57407267</v>
+        <v>41680631.57749583</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>42123120.7418641</v>
+        <v>41685997.94368104</v>
       </c>
     </row>
     <row r="70">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>45469771.66901121</v>
+        <v>42109855.58194485</v>
       </c>
     </row>
     <row r="74">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>42621180.44000424</v>
+        <v>41887058.60381541</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>41904409.99212853</v>
+        <v>41830997.80850964</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>41832732.94734095</v>
+        <v>41825391.72897907</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>41825565.24286219</v>
+        <v>41824831.12102601</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>41824848.47241432</v>
+        <v>41824775.0602307</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>41824776.79536954</v>
+        <v>41824769.45415117</v>
       </c>
     </row>
     <row r="81">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>42007621.57109812</v>
+        <v>41676964.40248317</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>41684779.67325749</v>
+        <v>41651713.95639599</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>41652495.48347343</v>
+        <v>41649188.91178727</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>41825127.54447327</v>
+        <v>41824796.88730466</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>41824804.70257543</v>
+        <v>41824771.63685857</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>41946843.55553263</v>
+        <v>41946840.24896096</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>41648908.70998842</v>
+        <v>41648908.37933125</v>
       </c>
     </row>
     <row r="89">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>42242896.09733533</v>
+        <v>41857471.83560449</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>41866581.55786163</v>
+        <v>41828039.13168855</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>41951021.24106126</v>
+        <v>41947166.99844395</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>41649326.47854128</v>
+        <v>41648941.05427954</v>
       </c>
     </row>
     <row r="94">

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>41855920.77810784</v>
+        <v>41977991.91525484</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>167994658.2539075</v>
+        <v>82185464.83759691</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>41768311.54180558</v>
+        <v>41834111.74048327</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>41660848.67032823</v>
+        <v>42292874.99134813</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>41825962.86315875</v>
+        <v>42037945.96587037</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>41946959.37159097</v>
+        <v>41968157.68186213</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>82121730.7330199</v>
+        <v>41910811.34754464</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>81100248.67173503</v>
+        <v>41795006.25678951</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>42124736.56246825</v>
+        <v>41749618.01423517</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>42049247.41568523</v>
+        <v>41949872.56347131</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>41878548.21458574</v>
+        <v>41854865.25247306</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>42164494.02776385</v>
+        <v>41827778.47337541</v>
       </c>
     </row>
     <row r="19">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>41903771.35765467</v>
+        <v>41694239.32223757</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>41832669.08389357</v>
+        <v>41829301.92834968</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>41825558.85651746</v>
+        <v>41825222.14096307</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>41824847.83377985</v>
+        <v>41946885.29937141</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>42296542.0332</v>
+        <v>41648912.88437229</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>41928042.1546158</v>
+        <v>41648908.80458491</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>41835096.16358968</v>
+        <v>41648908.39660617</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>42238351.4991427</v>
+        <v>41648908.3558083</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>41699113.73920813</v>
+        <v>83624913.99274127</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>41690838.25945077</v>
+        <v>41987331.42498541</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>41653101.34209275</v>
+        <v>41728754.03664698</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>41825188.1303352</v>
+        <v>41656892.91981237</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>41824810.76116162</v>
+        <v>41649706.80812892</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>41946844.16139126</v>
+        <v>41648988.19696057</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>41648908.77057428</v>
+        <v>41648916.33584373</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>41648908.39320511</v>
+        <v>41648909.14973205</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>41824768.83544643</v>
+        <v>41648908.43112088</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>42259587.12802847</v>
+        <v>41824768.83923801</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>41917121.64000935</v>
+        <v>41946839.9691989</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>41956075.24927603</v>
+        <v>41648908.35135504</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>41649831.87936275</v>
+        <v>41648908.35128318</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>41649000.70408395</v>
+        <v>41648908.351276</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>41648917.58655607</v>
+        <v>41648908.35127527</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>41824769.75478153</v>
+        <v>41824768.83125345</v>
       </c>
     </row>
     <row r="44">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>41940883.91634111</v>
+        <v>41765023.34401006</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>41958451.47690921</v>
+        <v>41660519.85054868</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>41825929.98210432</v>
+        <v>41825929.98118079</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>41946956.08348553</v>
+        <v>41824884.94624618</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>41824780.44276195</v>
+        <v>41946851.57989971</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>41824769.9924043</v>
+        <v>41648909.51242512</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>41946840.08451553</v>
+        <v>41648908.46739019</v>
       </c>
     </row>
     <row r="52">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>41824768.83136956</v>
+        <v>41946839.96851656</v>
       </c>
     </row>
     <row r="55">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>41827094.59117036</v>
+        <v>41949165.72831735</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>41947072.54439213</v>
+        <v>41825001.40724514</v>
       </c>
     </row>
     <row r="62">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>41824769.06382944</v>
+        <v>41946840.20097643</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>41946839.99165804</v>
+        <v>41648908.3745328</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>41824768.8335792</v>
+        <v>41648908.35360096</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>42212391.53578003</v>
+        <v>41824768.83148602</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>41680631.57749583</v>
+        <v>81982580.19616544</v>
       </c>
     </row>
     <row r="69">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>42109855.58194485</v>
+        <v>42116547.56843557</v>
       </c>
     </row>
     <row r="74">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>41887058.60381541</v>
+        <v>41947458.54978263</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>41830997.80850964</v>
+        <v>41959108.94025336</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>41825391.72897907</v>
+        <v>41650135.24846049</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>41824831.12102601</v>
+        <v>41824891.52097198</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>41824775.0602307</v>
+        <v>41946852.23737229</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>41824769.45415117</v>
+        <v>41824770.05815063</v>
       </c>
     </row>
     <row r="81">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>41676964.40248317</v>
+        <v>41676964.46288312</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>41651713.95639599</v>
+        <v>41651713.96243599</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>41649188.91178727</v>
+        <v>41649188.91239128</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>41824796.88730466</v>
+        <v>41824796.88736505</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>41824771.63685857</v>
+        <v>41824771.6368646</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>41946840.24896096</v>
+        <v>41946840.24896156</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>41648908.37933125</v>
+        <v>41648908.37933131</v>
       </c>
     </row>
     <row r="89">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>41857471.83560449</v>
+        <v>41857471.8356045</v>
       </c>
     </row>
     <row r="91">
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2608,7 +2608,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1733.5074751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3667,7 +3667,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3922609.877851271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4715,7 +4715,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="4">
@@ -4726,7 +4726,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="5">
@@ -4748,7 +4748,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="7">
@@ -4825,7 +4825,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="14">
@@ -4935,7 +4935,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="24">
@@ -4946,7 +4946,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="25">
@@ -4979,7 +4979,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="28">
@@ -5001,7 +5001,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="30">
@@ -5045,7 +5045,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="34">
@@ -5089,7 +5089,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="38">
@@ -5100,7 +5100,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="39">
@@ -5111,7 +5111,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="40">
@@ -5188,7 +5188,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="47">
@@ -5210,7 +5210,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="49">
@@ -5221,7 +5221,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="50">
@@ -5243,7 +5243,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="52">
@@ -5276,7 +5276,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="55">
@@ -5342,7 +5342,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="61">
@@ -5353,7 +5353,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="62">
@@ -5386,7 +5386,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="65">
@@ -5397,7 +5397,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="66">
@@ -5419,7 +5419,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>39378.999999</v>
+        <v>39378.789999</v>
       </c>
     </row>
     <row r="68">
@@ -5430,7 +5430,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="69">
@@ -5518,7 +5518,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="77">
@@ -5551,7 +5551,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>39378.789999</v>
+        <v>39378.999999</v>
       </c>
     </row>
     <row r="80">
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>8393.407475</v>
+        <v>3647.197475</v>
       </c>
     </row>
     <row r="5">
@@ -5807,7 +5807,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1513.125848999998</v>
       </c>
     </row>
     <row r="7">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>3948.237236999999</v>
+        <v>1145.237236999999</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>5385.060124</v>
+        <v>638.8501240000005</v>
       </c>
     </row>
     <row r="14">
@@ -5906,7 +5906,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>1311.684939000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6005,7 +6005,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>1529.160919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6038,7 +6038,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>1274.708058999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6049,7 +6049,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>2059.555439</v>
       </c>
     </row>
     <row r="29">
@@ -6148,7 +6148,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>1367.566228999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -6478,7 +6478,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1161.191538999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -6489,7 +6489,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>4276.450459</v>
       </c>
     </row>
     <row r="69">
@@ -6855,7 +6855,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>11323.187</v>
+        <v>9856.3853519</v>
       </c>
     </row>
     <row r="6">
@@ -6866,7 +6866,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>11482.3187</v>
+        <v>8343.259502900002</v>
       </c>
     </row>
     <row r="7">
@@ -6877,7 +6877,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>11498.23187</v>
+        <v>11184.32595029</v>
       </c>
     </row>
     <row r="8">
@@ -6888,7 +6888,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>11499.823187</v>
+        <v>11468.432595029</v>
       </c>
     </row>
     <row r="9">
@@ -6899,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>9777.823187</v>
+        <v>9746.432595029</v>
       </c>
     </row>
     <row r="10">
@@ -6910,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>10960.5973019</v>
+        <v>10929.206709929</v>
       </c>
     </row>
     <row r="11">
@@ -6921,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>9238.597301900001</v>
+        <v>9207.206709929002</v>
       </c>
     </row>
     <row r="12">
@@ -6932,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>7516.597301900001</v>
+        <v>8061.969472929002</v>
       </c>
     </row>
     <row r="13">
@@ -6943,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>5794.597301900001</v>
+        <v>7423.119348929002</v>
       </c>
     </row>
     <row r="14">
@@ -6954,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>4072.597301900001</v>
+        <v>5701.119348929002</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>2760.912362900001</v>
+        <v>7043.302903829001</v>
       </c>
     </row>
     <row r="16">
@@ -6976,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>5752.596135800001</v>
+        <v>11054.3302903829</v>
       </c>
     </row>
     <row r="17">
@@ -6987,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>6469.327795700002</v>
+        <v>11455.43302903829</v>
       </c>
     </row>
     <row r="18">
@@ -6998,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>10996.93277957</v>
+        <v>11495.54330290383</v>
       </c>
     </row>
     <row r="19">
@@ -7009,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>10330.12559057</v>
+        <v>10828.73611390383</v>
       </c>
     </row>
     <row r="20">
@@ -7020,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>11383.012559057</v>
+        <v>11432.87361139038</v>
       </c>
     </row>
     <row r="21">
@@ -7031,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>11488.3012559057</v>
+        <v>11493.28736113904</v>
       </c>
     </row>
     <row r="22">
@@ -7042,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>11498.83012559057</v>
+        <v>11499.3287361139</v>
       </c>
     </row>
     <row r="23">
@@ -7053,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>11499.88301255906</v>
+        <v>11499.93287361139</v>
       </c>
     </row>
     <row r="24">
@@ -7064,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>9970.722093559058</v>
+        <v>11499.99328736114</v>
       </c>
     </row>
     <row r="25">
@@ -7075,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>11347.07220935591</v>
+        <v>11499.99932873611</v>
       </c>
     </row>
     <row r="26">
@@ -7086,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>11484.70722093559</v>
+        <v>11499.99993287361</v>
       </c>
     </row>
     <row r="27">
@@ -7097,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>10209.99916193559</v>
+        <v>11499.99999328736</v>
       </c>
     </row>
     <row r="28">
@@ -7108,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>10879.09926683559</v>
+        <v>9777.999993287362</v>
       </c>
     </row>
     <row r="29">
@@ -7119,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>11437.90992668356</v>
+        <v>10317.64003918736</v>
       </c>
     </row>
     <row r="30">
@@ -7130,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>11493.79099266836</v>
+        <v>11381.76400391874</v>
       </c>
     </row>
     <row r="31">
@@ -7141,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>11499.37909926684</v>
+        <v>11488.17640039187</v>
       </c>
     </row>
     <row r="32">
@@ -7152,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>11499.93790992668</v>
+        <v>11498.81764003919</v>
       </c>
     </row>
     <row r="33">
@@ -7163,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>11499.99379099267</v>
+        <v>11499.88176400392</v>
       </c>
     </row>
     <row r="34">
@@ -7174,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>11499.99937909927</v>
+        <v>11499.98817640039</v>
       </c>
     </row>
     <row r="35">
@@ -7185,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>11499.99993790993</v>
+        <v>11499.99881764004</v>
       </c>
     </row>
     <row r="36">
@@ -7196,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>11499.99999379099</v>
+        <v>11499.999881764</v>
       </c>
     </row>
     <row r="37">
@@ -7207,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>10132.43376479099</v>
+        <v>11499.9999881764</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>11363.2433764791</v>
+        <v>11499.99999881764</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>11486.32433764791</v>
+        <v>11499.99999988176</v>
       </c>
     </row>
     <row r="40">
@@ -7240,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>11498.63243376479</v>
+        <v>11499.99999998818</v>
       </c>
     </row>
     <row r="41">
@@ -7251,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>11499.86324337648</v>
+        <v>11499.99999999882</v>
       </c>
     </row>
     <row r="42">
@@ -7262,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>11499.98632433765</v>
+        <v>11499.99999999988</v>
       </c>
     </row>
     <row r="43">
@@ -7273,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>11499.99863243376</v>
+        <v>11499.99999999999</v>
       </c>
     </row>
     <row r="44">
@@ -7284,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>9780.560473433765</v>
+        <v>9780.56184099999</v>
       </c>
     </row>
     <row r="45">
@@ -7295,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>11328.05604734338</v>
+        <v>11328.0561841</v>
       </c>
     </row>
     <row r="46">
@@ -7306,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>11482.80560473434</v>
+        <v>11482.80561841</v>
       </c>
     </row>
     <row r="47">
@@ -7317,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>11498.28056047343</v>
+        <v>11498.280561841</v>
       </c>
     </row>
     <row r="48">
@@ -7328,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>11499.82805604734</v>
+        <v>11499.8280561841</v>
       </c>
     </row>
     <row r="49">
@@ -7339,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>11499.98280560473</v>
+        <v>11499.98280561841</v>
       </c>
     </row>
     <row r="50">
@@ -7350,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>11499.99828056047</v>
+        <v>11499.99828056184</v>
       </c>
     </row>
     <row r="51">
@@ -7361,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>11499.99982805605</v>
+        <v>11499.99982805618</v>
       </c>
     </row>
     <row r="52">
@@ -7372,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>11499.9999828056</v>
+        <v>11499.99998280562</v>
       </c>
     </row>
     <row r="53">
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>10338.808457556</v>
+        <v>11499.9999996556</v>
       </c>
     </row>
     <row r="68">
@@ -7548,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>10761.592044456</v>
+        <v>9777.9999996556</v>
       </c>
     </row>
     <row r="69">
@@ -7559,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>11255.894572356</v>
+        <v>10272.3025275556</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>10544.895393356</v>
+        <v>9561.303348555599</v>
       </c>
     </row>
     <row r="71">
@@ -7581,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>8822.895393355999</v>
+        <v>7839.303348555599</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>7278.417358355999</v>
+        <v>6294.825313555599</v>
       </c>
     </row>
     <row r="73">
@@ -7603,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>11077.8417358356</v>
+        <v>10183.4355144556</v>
       </c>
     </row>
     <row r="74">
@@ -7614,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>10577.6091068356</v>
+        <v>9683.202885455599</v>
       </c>
     </row>
     <row r="75">
@@ -7625,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>11407.76091068356</v>
+        <v>11318.32028854556</v>
       </c>
     </row>
     <row r="76">
@@ -7636,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>11490.77609106836</v>
+        <v>11481.83202885456</v>
       </c>
     </row>
     <row r="77">
@@ -7647,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>11499.07760910684</v>
+        <v>11498.18320288546</v>
       </c>
     </row>
     <row r="78">
@@ -7658,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>11499.90776091068</v>
+        <v>11499.81832028854</v>
       </c>
     </row>
     <row r="79">
@@ -7669,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>11499.99077609107</v>
+        <v>11499.98183202885</v>
       </c>
     </row>
     <row r="80">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>11499.99907760911</v>
+        <v>11499.99818320289</v>
       </c>
     </row>
     <row r="81">
@@ -7691,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>11084.54421860911</v>
+        <v>11084.54332420289</v>
       </c>
     </row>
     <row r="82">
@@ -7702,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>11458.45442186091</v>
+        <v>11458.45433242029</v>
       </c>
     </row>
     <row r="83">
@@ -7713,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>11495.84544218609</v>
+        <v>11495.84543324203</v>
       </c>
     </row>
     <row r="84">
@@ -7724,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>11499.58454421861</v>
+        <v>11499.5845433242</v>
       </c>
     </row>
     <row r="85">
@@ -7735,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>11499.95845442186</v>
+        <v>11499.95845433242</v>
       </c>
     </row>
     <row r="86">
@@ -7746,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>11499.99584544219</v>
+        <v>11499.99584543324</v>
       </c>
     </row>
     <row r="87">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>11499.99958454422</v>
+        <v>11499.99958454332</v>
       </c>
     </row>
     <row r="88">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>11499.99995845442</v>
+        <v>11499.99995845433</v>
       </c>
     </row>
     <row r="89">
@@ -7779,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>11015.73184245442</v>
+        <v>11015.73184245433</v>
       </c>
     </row>
     <row r="90">
@@ -7790,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>11451.57318424544</v>
+        <v>11451.57318424543</v>
       </c>
     </row>
     <row r="91">
@@ -7925,7 +7925,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1513.125848999998</v>
       </c>
     </row>
     <row r="7">
@@ -7991,7 +7991,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>1722</v>
+        <v>1145.237236999999</v>
       </c>
     </row>
     <row r="13">
@@ -8002,7 +8002,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>1722</v>
+        <v>638.8501240000005</v>
       </c>
     </row>
     <row r="14">
@@ -8024,7 +8024,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>1311.684939000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -8123,7 +8123,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>1529.160919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -8156,7 +8156,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>1274.708058999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -8167,7 +8167,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="29">
@@ -8266,7 +8266,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>1367.566228999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -8596,7 +8596,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>1161.191538999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -8607,7 +8607,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="69">
@@ -8973,7 +8973,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>1591.316999999999</v>
+        <v>124.5153519</v>
       </c>
     </row>
     <row r="6">
@@ -8984,7 +8984,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>159.1317000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8995,7 +8995,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>15.91317000000017</v>
+        <v>2841.066447389998</v>
       </c>
     </row>
     <row r="8">
@@ -9006,7 +9006,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>1.591317000000345</v>
+        <v>284.106644739</v>
       </c>
     </row>
     <row r="9">
@@ -9083,7 +9083,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1342.1835549</v>
       </c>
     </row>
     <row r="16">
@@ -9094,7 +9094,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>2991.683772900001</v>
+        <v>4011.027386553899</v>
       </c>
     </row>
     <row r="17">
@@ -9105,7 +9105,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>716.7316599000005</v>
+        <v>401.1027386553893</v>
       </c>
     </row>
     <row r="18">
@@ -9116,7 +9116,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>4527.604983869998</v>
+        <v>40.11027386553942</v>
       </c>
     </row>
     <row r="19">
@@ -9138,7 +9138,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>1052.886968486999</v>
+        <v>604.1374974865536</v>
       </c>
     </row>
     <row r="21">
@@ -9149,7 +9149,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>105.2886968486995</v>
+        <v>60.41374974865503</v>
       </c>
     </row>
     <row r="22">
@@ -9160,7 +9160,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>10.52886968486946</v>
+        <v>6.041374974865175</v>
       </c>
     </row>
     <row r="23">
@@ -9171,7 +9171,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>1.05288696848711</v>
+        <v>0.6041374974858628</v>
       </c>
     </row>
     <row r="24">
@@ -9182,7 +9182,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.06041374974793143</v>
       </c>
     </row>
     <row r="25">
@@ -9193,7 +9193,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>1376.350115796848</v>
+        <v>0.006041374974302016</v>
       </c>
     </row>
     <row r="26">
@@ -9204,7 +9204,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>137.6350115796853</v>
+        <v>0.0006041374974302017</v>
       </c>
     </row>
     <row r="27">
@@ -9215,7 +9215,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6.041374908818398e-05</v>
       </c>
     </row>
     <row r="28">
@@ -9226,7 +9226,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>669.1001049000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -9237,7 +9237,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>558.8106598479671</v>
+        <v>539.6400459000012</v>
       </c>
     </row>
     <row r="30">
@@ -9248,7 +9248,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>55.88106598479754</v>
+        <v>1064.123964731373</v>
       </c>
     </row>
     <row r="31">
@@ -9259,7 +9259,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>5.588106598480408</v>
+        <v>106.4123964731381</v>
       </c>
     </row>
     <row r="32">
@@ -9270,7 +9270,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5588106598472223</v>
+        <v>10.64123964731316</v>
       </c>
     </row>
     <row r="33">
@@ -9281,7 +9281,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05588106598406739</v>
+        <v>1.064123964731152</v>
       </c>
     </row>
     <row r="34">
@@ -9292,7 +9292,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0.005588106598406739</v>
+        <v>0.1064123964722967</v>
       </c>
     </row>
     <row r="35">
@@ -9303,7 +9303,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0005588106600043829</v>
+        <v>0.0106412396478845</v>
       </c>
     </row>
     <row r="36">
@@ -9314,7 +9314,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>5.588106632785639e-05</v>
+        <v>0.001064123965443287</v>
       </c>
     </row>
     <row r="37">
@@ -9325,7 +9325,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0001064123960532015</v>
       </c>
     </row>
     <row r="38">
@@ -9336,7 +9336,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>1230.809611688105</v>
+        <v>1.064124026015634e-05</v>
       </c>
     </row>
     <row r="39">
@@ -9347,7 +9347,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>123.0809611688113</v>
+        <v>1.064123534888495e-06</v>
       </c>
     </row>
     <row r="40">
@@ -9358,7 +9358,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>12.30809611688146</v>
+        <v>1.064125171978958e-07</v>
       </c>
     </row>
     <row r="41">
@@ -9369,7 +9369,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>1.230809611687983</v>
+        <v>1.064108801074326e-08</v>
       </c>
     </row>
     <row r="42">
@@ -9380,7 +9380,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1230809611683071</v>
+        <v>1.064108801074326e-09</v>
       </c>
     </row>
     <row r="43">
@@ -9391,7 +9391,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01230809611715813</v>
+        <v>1.064108801074326e-10</v>
       </c>
     </row>
     <row r="44">
@@ -9413,7 +9413,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>1547.495573909612</v>
+        <v>1547.494343100009</v>
       </c>
     </row>
     <row r="46">
@@ -9424,7 +9424,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>154.7495573909615</v>
+        <v>154.7494343100018</v>
       </c>
     </row>
     <row r="47">
@@ -9435,7 +9435,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>15.47495573909582</v>
+        <v>15.47494343099952</v>
       </c>
     </row>
     <row r="48">
@@ -9446,7 +9446,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1.547495573910237</v>
+        <v>1.547494343099788</v>
       </c>
     </row>
     <row r="49">
@@ -9457,7 +9457,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1547495573911874</v>
+        <v>0.1547494343098151</v>
       </c>
     </row>
     <row r="50">
@@ -9468,7 +9468,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01547495573977358</v>
+        <v>0.01547494343049038</v>
       </c>
     </row>
     <row r="51">
@@ -9479,7 +9479,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001547495573322521</v>
+        <v>0.001547494342230493</v>
       </c>
     </row>
     <row r="52">
@@ -9490,7 +9490,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001547495579870883</v>
+        <v>0.0001547494335682131</v>
       </c>
     </row>
     <row r="53">
@@ -9501,7 +9501,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>1.547495612612693e-05</v>
+        <v>1.547494302940322e-05</v>
       </c>
     </row>
     <row r="54">
@@ -9512,7 +9512,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>1.547495776321739e-06</v>
+        <v>1.547494139231276e-06</v>
       </c>
     </row>
     <row r="55">
@@ -9655,7 +9655,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>3.099599962297362e-06</v>
       </c>
     </row>
     <row r="68">
@@ -9666,7 +9666,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>422.7835868999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -9721,7 +9721,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3799.424377479601</v>
+        <v>3888.610200899999</v>
       </c>
     </row>
     <row r="74">
@@ -9743,7 +9743,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>830.1518038479584</v>
+        <v>1635.117403089961</v>
       </c>
     </row>
     <row r="76">
@@ -9754,7 +9754,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>83.01518038479536</v>
+        <v>163.5117403089966</v>
       </c>
     </row>
     <row r="77">
@@ -9765,7 +9765,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>8.301518038480026</v>
+        <v>16.35117403089917</v>
       </c>
     </row>
     <row r="78">
@@ -9776,7 +9776,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8301518038471841</v>
+        <v>1.635117403090408</v>
       </c>
     </row>
     <row r="79">
@@ -9787,7 +9787,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08301518038406357</v>
+        <v>0.1635117403096956</v>
       </c>
     </row>
     <row r="80">
@@ -9798,7 +9798,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.008301518038570066</v>
+        <v>0.01635117403129698</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>373.9102032518031</v>
+        <v>373.911008217402</v>
       </c>
     </row>
     <row r="83">
@@ -9831,7 +9831,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>37.39102032517949</v>
+        <v>37.39110082173939</v>
       </c>
     </row>
     <row r="84">
@@ -9842,7 +9842,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3.739102032517621</v>
+        <v>3.739110082173283</v>
       </c>
     </row>
     <row r="85">
@@ -9853,7 +9853,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3739102032517622</v>
+        <v>0.3739110082173284</v>
       </c>
     </row>
     <row r="86">
@@ -9864,7 +9864,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03739102032468509</v>
+        <v>0.03739110082206026</v>
       </c>
     </row>
     <row r="87">
@@ -9875,7 +9875,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0.003739102031977381</v>
+        <v>0.003739110081551189</v>
       </c>
     </row>
     <row r="88">
@@ -9886,7 +9886,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0003739102028703201</v>
+        <v>0.000373911008318828</v>
       </c>
     </row>
     <row r="89">
@@ -9908,7 +9908,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>435.8413417910195</v>
+        <v>435.8413417910997</v>
       </c>
     </row>
     <row r="91">
@@ -9919,7 +9919,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>43.58413417910179</v>
+        <v>43.58413417910997</v>
       </c>
     </row>
     <row r="92">
@@ -9930,7 +9930,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>4.358413417910015</v>
+        <v>4.358413417911652</v>
       </c>
     </row>
     <row r="93">
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>6671.407475</v>
+        <v>1925.197475</v>
       </c>
     </row>
     <row r="5">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2226.237236999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3663.060124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -10285,7 +10285,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>337.5554389999998</v>
       </c>
     </row>
     <row r="29">
@@ -10725,7 +10725,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2554.450459</v>
       </c>
     </row>
     <row r="69">
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3937.8999999</v>
+        <v>1925.197475</v>
       </c>
     </row>
     <row r="5">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>2226.237236999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -11179,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>3663.060124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -11344,7 +11344,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>337.5554389999998</v>
       </c>
     </row>
     <row r="29">
@@ -11784,7 +11784,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2554.450459</v>
       </c>
     </row>
     <row r="69">

--- a/CaUWMET/Results_QAQC.xlsx
+++ b/CaUWMET/Results_QAQC.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>42136288.29979742</v>
+        <v>153864205.0956796</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>41977991.91525484</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +490,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>82185464.83759691</v>
+        <v>401435599.8531787</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +501,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>41834111.74048327</v>
+        <v>380516872.0983039</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>42292874.99134813</v>
+        <v>396283586.9437718</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>42037945.96587037</v>
+        <v>153878266.2656659</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>41968157.68186213</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="9">
@@ -545,7 +545,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>82414291.77402699</v>
+        <v>389393456.595669</v>
       </c>
     </row>
     <row r="10">
@@ -556,7 +556,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>41737656.85518473</v>
+        <v>398243262.6537424</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +567,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>81739595.96821465</v>
+        <v>474315568.9032761</v>
       </c>
     </row>
     <row r="12">
@@ -578,7 +578,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>41910811.34754464</v>
+        <v>530706084.0091252</v>
       </c>
     </row>
     <row r="13">
@@ -589,7 +589,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>41795006.25678951</v>
+        <v>406430918.5770527</v>
       </c>
     </row>
     <row r="14">
@@ -600,7 +600,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>83179519.273811</v>
+        <v>524860625.0243776</v>
       </c>
     </row>
     <row r="15">
@@ -611,7 +611,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>41749618.01423517</v>
+        <v>153564109.2788602</v>
       </c>
     </row>
     <row r="16">
@@ -622,7 +622,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>41949872.56347131</v>
+        <v>151961962.645033</v>
       </c>
     </row>
     <row r="17">
@@ -633,7 +633,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>41854865.25247306</v>
+        <v>154800564.0658011</v>
       </c>
     </row>
     <row r="18">
@@ -644,7 +644,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>41827778.47337541</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="19">
@@ -655,7 +655,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>42099331.34319243</v>
+        <v>154947478.361784</v>
       </c>
     </row>
     <row r="20">
@@ -666,7 +666,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>41694239.32223757</v>
+        <v>377935778.7302651</v>
       </c>
     </row>
     <row r="21">
@@ -677,7 +677,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>41829301.92834968</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="22">
@@ -688,7 +688,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>41825222.14096307</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="23">
@@ -699,7 +699,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>41946885.29937141</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="24">
@@ -710,7 +710,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>41648912.88437229</v>
+        <v>151219107.6309859</v>
       </c>
     </row>
     <row r="25">
@@ -721,7 +721,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>41648908.80458491</v>
+        <v>153672483.9109026</v>
       </c>
     </row>
     <row r="26">
@@ -732,7 +732,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>41648908.39660617</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="27">
@@ -743,7 +743,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>41648908.3558083</v>
+        <v>150993157.7358923</v>
       </c>
     </row>
     <row r="28">
@@ -754,7 +754,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>83624913.99274127</v>
+        <v>157533650.8399759</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>41987331.42498541</v>
+        <v>425115748.6116176</v>
       </c>
     </row>
     <row r="30">
@@ -776,7 +776,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>41728754.03664698</v>
+        <v>150945107.1538503</v>
       </c>
     </row>
     <row r="31">
@@ -787,7 +787,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>41656892.91981237</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="32">
@@ -798,7 +798,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>41649706.80812892</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="33">
@@ -809,7 +809,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>41648988.19696057</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="34">
@@ -820,7 +820,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>41648916.33584373</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="35">
@@ -831,7 +831,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>41648909.14973205</v>
+        <v>388984557.7278369</v>
       </c>
     </row>
     <row r="36">
@@ -842,7 +842,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>41648908.43112088</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="37">
@@ -853,7 +853,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>41824768.83923801</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="38">
@@ -864,7 +864,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>41946839.9691989</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="39">
@@ -875,7 +875,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>41648908.35135504</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="40">
@@ -886,7 +886,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>41648908.35128318</v>
+        <v>152276937.1036459</v>
       </c>
     </row>
     <row r="41">
@@ -897,7 +897,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>41648908.351276</v>
+        <v>459978420.1379219</v>
       </c>
     </row>
     <row r="42">
@@ -908,7 +908,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>41648908.35127527</v>
+        <v>151019901.0838234</v>
       </c>
     </row>
     <row r="43">
@@ -919,7 +919,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>41824768.83125345</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>42340056.31798558</v>
+        <v>155539372.4941244</v>
       </c>
     </row>
     <row r="45">
@@ -941,7 +941,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>41765023.34401006</v>
+        <v>156130567.8949277</v>
       </c>
     </row>
     <row r="46">
@@ -952,7 +952,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>41660519.85054868</v>
+        <v>154615886.2475061</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +963,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>41825929.98118079</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="48">
@@ -974,7 +974,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>41824884.94624618</v>
+        <v>157411553.9100097</v>
       </c>
     </row>
     <row r="49">
@@ -985,7 +985,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>41946851.57989971</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="50">
@@ -996,7 +996,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>41648909.51242512</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="51">
@@ -1007,7 +1007,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>41648908.46739019</v>
+        <v>154921966.1048237</v>
       </c>
     </row>
     <row r="52">
@@ -1018,7 +1018,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>41648908.3628867</v>
+        <v>153443420.2803747</v>
       </c>
     </row>
     <row r="53">
@@ -1029,7 +1029,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>41824768.8324146</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="54">
@@ -1040,7 +1040,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>41946839.96851656</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="55">
@@ -1051,7 +1051,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>41824768.83126505</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="56">
@@ -1062,7 +1062,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>82823109.84625371</v>
+        <v>156046079.2299218</v>
       </c>
     </row>
     <row r="57">
@@ -1073,7 +1073,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>80974660.96602361</v>
+        <v>1026143019.020614</v>
       </c>
     </row>
     <row r="58">
@@ -1084,7 +1084,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>42057344.82294449</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="59">
@@ -1095,7 +1095,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>41848026.43042255</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="60">
@@ -1106,7 +1106,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>41949165.72831735</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="61">
@@ -1117,7 +1117,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>41825001.40724514</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="62">
@@ -1128,7 +1128,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>41824792.08885261</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="63">
@@ -1139,7 +1139,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>41824771.15701336</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="64">
@@ -1150,7 +1150,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>41946840.20097643</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="65">
@@ -1161,7 +1161,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>41648908.3745328</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="66">
@@ -1172,7 +1172,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>41648908.35360096</v>
+        <v>158111553.3941924</v>
       </c>
     </row>
     <row r="67">
@@ -1183,7 +1183,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>41824768.83148602</v>
+        <v>150963120.8978706</v>
       </c>
     </row>
     <row r="68">
@@ -1194,7 +1194,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>81982580.19616544</v>
+        <v>537775518.9269471</v>
       </c>
     </row>
     <row r="69">
@@ -1205,7 +1205,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>41685997.94368104</v>
+        <v>151559164.3208573</v>
       </c>
     </row>
     <row r="70">
@@ -1216,7 +1216,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>41811505.94180849</v>
+        <v>436202440.2111709</v>
       </c>
     </row>
     <row r="71">
@@ -1227,7 +1227,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>81618504.70497951</v>
+        <v>418682055.1124484</v>
       </c>
     </row>
     <row r="72">
@@ -1238,7 +1238,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>42002113.269846</v>
+        <v>618629958.3787286</v>
       </c>
     </row>
     <row r="73">
@@ -1249,7 +1249,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>42116547.56843557</v>
+        <v>152867906.4927822</v>
       </c>
     </row>
     <row r="74">
@@ -1260,7 +1260,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>42061237.59723587</v>
+        <v>159819884.2494839</v>
       </c>
     </row>
     <row r="75">
@@ -1271,7 +1271,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>41947458.54978263</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="76">
@@ -1282,7 +1282,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>41959108.94025336</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="77">
@@ -1293,7 +1293,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>41650135.24846049</v>
+        <v>44860758.01805581</v>
       </c>
     </row>
     <row r="78">
@@ -1304,7 +1304,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>41824891.52097198</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="79">
@@ -1315,7 +1315,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>41946852.23737229</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="80">
@@ -1326,7 +1326,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>41824770.05815063</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="81">
@@ -1337,7 +1337,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>42041849.86580111</v>
+        <v>409835224.0259587</v>
       </c>
     </row>
     <row r="82">
@@ -1348,7 +1348,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>41676964.46288312</v>
+        <v>150843035.2330426</v>
       </c>
     </row>
     <row r="83">
@@ -1359,7 +1359,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>41651713.96243599</v>
+        <v>155715817.6016043</v>
       </c>
     </row>
     <row r="84">
@@ -1370,7 +1370,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>41649188.91239128</v>
+        <v>153893461.6556251</v>
       </c>
     </row>
     <row r="85">
@@ -1381,7 +1381,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>41824796.88736505</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="86">
@@ -1392,7 +1392,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>41824771.6368646</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="87">
@@ -1403,7 +1403,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>41946840.24896156</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="88">
@@ -1414,7 +1414,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>41648908.37933131</v>
+        <v>530227878.0885985</v>
       </c>
     </row>
     <row r="89">
@@ -1425,7 +1425,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>41759655.07385854</v>
+        <v>421324975.4182523</v>
       </c>
     </row>
     <row r="90">
@@ -1436,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>41857471.8356045</v>
+        <v>160035444.9379199</v>
       </c>
     </row>
     <row r="91">
@@ -1447,7 +1447,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>41828039.13168855</v>
+        <v>50025928.70384581</v>
       </c>
     </row>
     <row r="92">
@@ -1458,7 +1458,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>41947166.99844395</v>
+        <v>47615765.3124058</v>
       </c>
     </row>
     <row r="93">
@@ -1469,7 +1469,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>41648941.05427954</v>
+        <v>151060186.9320218</v>
       </c>
     </row>
     <row r="94">
@@ -1480,7 +1480,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>81877945.34075467</v>
+        <v>1140792696.392158</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>779.2993463999992</v>
       </c>
     </row>
     <row r="3">
@@ -1549,7 +1549,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1560,7 +1560,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1571,7 +1571,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1604,7 +1604,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1615,7 +1615,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1626,7 +1626,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -1637,7 +1637,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -1648,7 +1648,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -1659,7 +1659,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -1681,7 +1681,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>919.156756400007</v>
       </c>
     </row>
     <row r="17">
@@ -1725,7 +1725,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>554.8156964000045</v>
       </c>
     </row>
     <row r="25">
@@ -1802,7 +1802,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>250.465406400006</v>
       </c>
     </row>
     <row r="28">
@@ -1824,7 +1824,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -1890,7 +1890,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -1956,7 +1956,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -2132,7 +2132,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -2242,7 +2242,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>210.006346400005</v>
       </c>
     </row>
     <row r="68">
@@ -2253,7 +2253,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="69">
@@ -2275,7 +2275,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="71">
@@ -2286,7 +2286,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="72">
@@ -2297,7 +2297,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="73">
@@ -2396,7 +2396,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82">
@@ -2418,7 +2418,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>616.2283363999977</v>
       </c>
     </row>
     <row r="84">
@@ -2429,7 +2429,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>818.7073863999976</v>
       </c>
     </row>
     <row r="85">
@@ -2473,7 +2473,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="89">
@@ -2484,7 +2484,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="90">
@@ -2539,7 +2539,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +2574,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4886.402006400005</v>
       </c>
     </row>
     <row r="5">
@@ -2619,7 +2619,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>926.0852963999987</v>
       </c>
     </row>
     <row r="6">
@@ -2630,7 +2630,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4005.766516399999</v>
       </c>
     </row>
     <row r="7">
@@ -2663,7 +2663,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3327.998656400005</v>
       </c>
     </row>
     <row r="10">
@@ -2674,7 +2674,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4540.564256400005</v>
       </c>
     </row>
     <row r="11">
@@ -2685,7 +2685,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9384.411509400004</v>
       </c>
     </row>
     <row r="12">
@@ -2696,7 +2696,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>11102.97140440001</v>
       </c>
     </row>
     <row r="13">
@@ -2707,7 +2707,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5388.249726400005</v>
       </c>
     </row>
     <row r="14">
@@ -2718,7 +2718,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>10966.5621264</v>
       </c>
     </row>
     <row r="15">
@@ -2784,7 +2784,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1360.083746400007</v>
       </c>
     </row>
     <row r="21">
@@ -2883,7 +2883,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6895.489696399998</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3336.135476400006</v>
       </c>
     </row>
     <row r="36">
@@ -3015,7 +3015,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>8795.261737400006</v>
       </c>
     </row>
     <row r="42">
@@ -3191,7 +3191,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>16367.1278744</v>
       </c>
     </row>
     <row r="58">
@@ -3312,7 +3312,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>11286.15994940001</v>
       </c>
     </row>
     <row r="69">
@@ -3334,7 +3334,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>7594.120726400006</v>
       </c>
     </row>
     <row r="71">
@@ -3345,7 +3345,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>6366.985084399999</v>
       </c>
     </row>
     <row r="72">
@@ -3356,7 +3356,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>13313.9902534</v>
       </c>
     </row>
     <row r="73">
@@ -3455,7 +3455,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>5604.066406399998</v>
       </c>
     </row>
     <row r="82">
@@ -3532,7 +3532,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>11091.0429114</v>
       </c>
     </row>
     <row r="89">
@@ -3543,7 +3543,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>6627.423666400005</v>
       </c>
     </row>
     <row r="90">
@@ -3598,7 +3598,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>16899.2126064</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32498856.11369042</v>
       </c>
     </row>
     <row r="5">
@@ -3678,7 +3678,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4144322.763917274</v>
       </c>
     </row>
     <row r="6">
@@ -3689,7 +3689,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>23735194.62290688</v>
       </c>
     </row>
     <row r="7">
@@ -3722,7 +3722,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>18808537.87088848</v>
       </c>
     </row>
     <row r="10">
@@ -3733,7 +3733,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>29093563.93438658</v>
       </c>
     </row>
     <row r="11">
@@ -3744,7 +3744,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>108796406.2136999</v>
       </c>
     </row>
     <row r="12">
@@ -3755,7 +3755,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>166028578.2209837</v>
       </c>
     </row>
     <row r="13">
@@ -3766,7 +3766,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37875478.00214643</v>
       </c>
     </row>
     <row r="14">
@@ -3777,7 +3777,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>160543578.0624715</v>
       </c>
     </row>
     <row r="15">
@@ -3843,7 +3843,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6369555.565298278</v>
       </c>
     </row>
     <row r="21">
@@ -3942,7 +3942,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>55227066.13815355</v>
       </c>
     </row>
     <row r="30">
@@ -4008,7 +4008,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>18869923.74340646</v>
       </c>
     </row>
     <row r="36">
@@ -4074,7 +4074,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>94011622.31218059</v>
       </c>
     </row>
     <row r="42">
@@ -4250,7 +4250,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>665979126.0625622</v>
       </c>
     </row>
     <row r="58">
@@ -4371,7 +4371,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>173701301.9241039</v>
       </c>
     </row>
     <row r="69">
@@ -4393,7 +4393,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>69372829.23723854</v>
       </c>
     </row>
     <row r="71">
@@ -4404,7 +4404,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>46443493.48918978</v>
       </c>
     </row>
     <row r="72">
@@ -4415,7 +4415,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>253667855.2900485</v>
       </c>
     </row>
     <row r="73">
@@ -4514,7 +4514,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>39015132.06059919</v>
       </c>
     </row>
     <row r="82">
@@ -4591,7 +4591,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>165541309.0489001</v>
       </c>
     </row>
     <row r="89">
@@ -4602,7 +4602,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>53760869.43023476</v>
       </c>
     </row>
     <row r="90">
@@ -4657,7 +4657,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>781033080.6362363</v>
       </c>
     </row>
   </sheetData>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="3">
@@ -4715,7 +4715,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>39378.999999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="4">
@@ -4726,7 +4726,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="5">
@@ -4737,7 +4737,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="6">
@@ -4748,7 +4748,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="7">
@@ -4759,7 +4759,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="8">
@@ -4770,7 +4770,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>39378.999999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="9">
@@ -4781,7 +4781,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="10">
@@ -4792,7 +4792,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="11">
@@ -4803,7 +4803,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="12">
@@ -4814,7 +4814,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="13">
@@ -4825,7 +4825,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="14">
@@ -4836,7 +4836,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="15">
@@ -4847,7 +4847,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="16">
@@ -4858,7 +4858,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="17">
@@ -4869,7 +4869,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="18">
@@ -4880,7 +4880,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="19">
@@ -4891,7 +4891,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="20">
@@ -4902,7 +4902,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="21">
@@ -4913,7 +4913,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="22">
@@ -4924,7 +4924,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="23">
@@ -4935,7 +4935,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="24">
@@ -4946,7 +4946,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="25">
@@ -4957,7 +4957,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="26">
@@ -4968,7 +4968,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="27">
@@ -4979,7 +4979,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="28">
@@ -4990,7 +4990,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="29">
@@ -5001,7 +5001,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="30">
@@ -5012,7 +5012,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="31">
@@ -5023,7 +5023,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="32">
@@ -5034,7 +5034,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="33">
@@ -5045,7 +5045,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="34">
@@ -5056,7 +5056,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="35">
@@ -5067,7 +5067,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="36">
@@ -5078,7 +5078,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="37">
@@ -5089,7 +5089,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="38">
@@ -5100,7 +5100,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="39">
@@ -5111,7 +5111,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="40">
@@ -5122,7 +5122,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="41">
@@ -5133,7 +5133,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="42">
@@ -5144,7 +5144,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="43">
@@ -5155,7 +5155,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="44">
@@ -5166,7 +5166,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="45">
@@ -5177,7 +5177,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="46">
@@ -5188,7 +5188,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="47">
@@ -5199,7 +5199,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="48">
@@ -5210,7 +5210,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="49">
@@ -5221,7 +5221,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>39378.999999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="50">
@@ -5232,7 +5232,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="51">
@@ -5243,7 +5243,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="52">
@@ -5254,7 +5254,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="53">
@@ -5265,7 +5265,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="54">
@@ -5276,7 +5276,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>39378.999999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="55">
@@ -5287,7 +5287,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="56">
@@ -5298,7 +5298,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="57">
@@ -5309,7 +5309,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="58">
@@ -5320,7 +5320,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="59">
@@ -5331,7 +5331,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="60">
@@ -5342,7 +5342,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="61">
@@ -5353,7 +5353,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="62">
@@ -5364,7 +5364,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="63">
@@ -5375,7 +5375,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="64">
@@ -5386,7 +5386,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="65">
@@ -5397,7 +5397,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="66">
@@ -5408,7 +5408,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="67">
@@ -5419,7 +5419,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="68">
@@ -5430,7 +5430,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>39378.999999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="69">
@@ -5441,7 +5441,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="70">
@@ -5452,7 +5452,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="71">
@@ -5463,7 +5463,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="72">
@@ -5474,7 +5474,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="73">
@@ -5485,7 +5485,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="74">
@@ -5496,7 +5496,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>39378.999999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="75">
@@ -5507,7 +5507,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="76">
@@ -5518,7 +5518,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="77">
@@ -5529,7 +5529,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="78">
@@ -5540,7 +5540,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="79">
@@ -5551,7 +5551,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>39378.999999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="80">
@@ -5562,7 +5562,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="81">
@@ -5573,7 +5573,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="82">
@@ -5584,7 +5584,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="83">
@@ -5595,7 +5595,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="84">
@@ -5606,7 +5606,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>39378.789999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="85">
@@ -5617,7 +5617,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="86">
@@ -5628,7 +5628,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="87">
@@ -5639,7 +5639,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="88">
@@ -5650,7 +5650,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="89">
@@ -5661,7 +5661,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="90">
@@ -5672,7 +5672,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="91">
@@ -5683,7 +5683,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>39378.789999</v>
+        <v>67499.999996</v>
       </c>
     </row>
     <row r="92">
@@ -5694,7 +5694,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>39378.999999</v>
+        <v>63899.999996</v>
       </c>
     </row>
     <row r="93">
@@ -5705,7 +5705,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
     <row r="94">
@@ -5716,7 +5716,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>39378.789999</v>
+        <v>60259.99999600001</v>
       </c>
     </row>
   </sheetData>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7169.299346</v>
       </c>
     </row>
     <row r="3">
@@ -5785,7 +5785,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>3647.197475</v>
+        <v>11912.40200600001</v>
       </c>
     </row>
     <row r="5">
@@ -5796,7 +5796,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8676.085295999999</v>
       </c>
     </row>
     <row r="6">
@@ -5807,7 +5807,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>1513.125848999998</v>
+        <v>11395.766516</v>
       </c>
     </row>
     <row r="7">
@@ -5818,7 +5818,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1984.067716000005</v>
       </c>
     </row>
     <row r="8">
@@ -5840,7 +5840,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>3359.686776</v>
+        <v>10353.99865600001</v>
       </c>
     </row>
     <row r="10">
@@ -5851,7 +5851,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11566.56425600001</v>
       </c>
     </row>
     <row r="11">
@@ -5862,7 +5862,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>4207.411549</v>
+        <v>16410.41150900001</v>
       </c>
     </row>
     <row r="12">
@@ -5873,7 +5873,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>1145.237236999999</v>
+        <v>18128.97140400001</v>
       </c>
     </row>
     <row r="13">
@@ -5884,7 +5884,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8501240000005</v>
+        <v>12414.24972600001</v>
       </c>
     </row>
     <row r="14">
@@ -5895,7 +5895,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>2398.213023</v>
+        <v>17992.562126</v>
       </c>
     </row>
     <row r="15">
@@ -5906,7 +5906,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2397.541776000005</v>
       </c>
     </row>
     <row r="16">
@@ -5917,7 +5917,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6945.156756000008</v>
       </c>
     </row>
     <row r="17">
@@ -5928,7 +5928,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>770.1962060000042</v>
       </c>
     </row>
     <row r="18">
@@ -5950,7 +5950,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>666.8071889999992</v>
+        <v>4202.807435999999</v>
       </c>
     </row>
     <row r="20">
@@ -5961,7 +5961,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8386.083746000008</v>
       </c>
     </row>
     <row r="21">
@@ -6005,7 +6005,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6580.815696000005</v>
       </c>
     </row>
     <row r="25">
@@ -6016,7 +6016,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2254.905766000007</v>
       </c>
     </row>
     <row r="26">
@@ -6038,7 +6038,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6276.465406000007</v>
       </c>
     </row>
     <row r="28">
@@ -6049,7 +6049,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>2059.555439</v>
+        <v>3971.155125999998</v>
       </c>
     </row>
     <row r="29">
@@ -6060,7 +6060,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>14285.489696</v>
       </c>
     </row>
     <row r="30">
@@ -6071,7 +6071,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5844.510926000006</v>
       </c>
     </row>
     <row r="31">
@@ -6126,7 +6126,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>10362.13547600001</v>
       </c>
     </row>
     <row r="36">
@@ -6181,7 +6181,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4091.638446000004</v>
       </c>
     </row>
     <row r="41">
@@ -6192,7 +6192,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15821.26173700001</v>
       </c>
     </row>
     <row r="42">
@@ -6203,7 +6203,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5746.071766000005</v>
       </c>
     </row>
     <row r="43">
@@ -6225,7 +6225,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>1719.438158999999</v>
+        <v>3423.792866</v>
       </c>
     </row>
     <row r="45">
@@ -6236,7 +6236,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5817.806405999998</v>
       </c>
     </row>
     <row r="46">
@@ -6247,7 +6247,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4639.228535999999</v>
       </c>
     </row>
     <row r="47">
@@ -6269,7 +6269,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>959.7430959999983</v>
       </c>
     </row>
     <row r="49">
@@ -6302,7 +6302,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>610.4143260000055</v>
       </c>
     </row>
     <row r="52">
@@ -6313,7 +6313,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2556.385196000007</v>
       </c>
     </row>
     <row r="53">
@@ -6357,7 +6357,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>3220.362958999998</v>
+        <v>2756.896696</v>
       </c>
     </row>
     <row r="57">
@@ -6368,7 +6368,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>5168.517792</v>
+        <v>23393.12787400001</v>
       </c>
     </row>
     <row r="58">
@@ -6467,7 +6467,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>38.44692599999689</v>
       </c>
     </row>
     <row r="67">
@@ -6478,7 +6478,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6236.006346000006</v>
       </c>
     </row>
     <row r="68">
@@ -6489,7 +6489,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>4276.450459</v>
+        <v>18312.15994900001</v>
       </c>
     </row>
     <row r="69">
@@ -6500,7 +6500,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5036.326736000006</v>
       </c>
     </row>
     <row r="70">
@@ -6511,7 +6511,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>710.9991790000004</v>
+        <v>14620.12072600001</v>
       </c>
     </row>
     <row r="71">
@@ -6522,7 +6522,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>4359.557246</v>
+        <v>14116.985084</v>
       </c>
     </row>
     <row r="72">
@@ -6533,7 +6533,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>1544.478035</v>
+        <v>20703.990253</v>
       </c>
     </row>
     <row r="73">
@@ -6544,7 +6544,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3313.840966000007</v>
       </c>
     </row>
     <row r="74">
@@ -6555,7 +6555,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>500.2326289999983</v>
+        <v>962.1556459999993</v>
       </c>
     </row>
     <row r="75">
@@ -6632,7 +6632,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>415.4548589999995</v>
+        <v>12994.066406</v>
       </c>
     </row>
     <row r="82">
@@ -6643,7 +6643,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5978.851696000005</v>
       </c>
     </row>
     <row r="83">
@@ -6654,7 +6654,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>7366.228335999998</v>
       </c>
     </row>
     <row r="84">
@@ -6665,7 +6665,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>7208.707385999998</v>
       </c>
     </row>
     <row r="85">
@@ -6709,7 +6709,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>18117.042911</v>
       </c>
     </row>
     <row r="89">
@@ -6720,7 +6720,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>484.2681159999993</v>
+        <v>13653.42366600001</v>
       </c>
     </row>
     <row r="90">
@@ -6731,7 +6731,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>678.447956</v>
       </c>
     </row>
     <row r="91">
@@ -6764,7 +6764,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5693.050016000005</v>
       </c>
     </row>
     <row r="94">
@@ -6775,7 +6775,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>4033.581818</v>
+        <v>23925.212606</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6810,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -6822,7 +6822,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>11038.7</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="3">
@@ -6833,7 +6833,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>11453.87</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="4">
@@ -6844,7 +6844,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>9731.870000000001</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="5">
@@ -6855,7 +6855,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>9856.3853519</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="6">
@@ -6866,7 +6866,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>8343.259502900002</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="7">
@@ -6877,7 +6877,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>11184.32595029</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="8">
@@ -6888,7 +6888,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>11468.432595029</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="9">
@@ -6899,7 +6899,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>9746.432595029</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="10">
@@ -6910,7 +6910,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>10929.206709929</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="11">
@@ -6921,7 +6921,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>9207.206709929002</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="12">
@@ -6932,7 +6932,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>8061.969472929002</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="13">
@@ -6943,7 +6943,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>7423.119348929002</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="14">
@@ -6954,7 +6954,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>5701.119348929002</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="15">
@@ -6965,7 +6965,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>7043.302903829001</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="16">
@@ -6976,7 +6976,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>11054.3302903829</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="17">
@@ -6987,7 +6987,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>11455.43302903829</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="18">
@@ -6998,7 +6998,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>11495.54330290383</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="19">
@@ -7009,7 +7009,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>10828.73611390383</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="20">
@@ -7020,7 +7020,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>11432.87361139038</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="21">
@@ -7031,7 +7031,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>11493.28736113904</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="22">
@@ -7042,7 +7042,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>11499.3287361139</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="23">
@@ -7053,7 +7053,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>11499.93287361139</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="24">
@@ -7064,7 +7064,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>11499.99328736114</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="25">
@@ -7075,7 +7075,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>11499.99932873611</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="26">
@@ -7086,7 +7086,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>11499.99993287361</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="27">
@@ -7097,7 +7097,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>11499.99999328736</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="28">
@@ -7108,7 +7108,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>9777.999993287362</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="29">
@@ -7119,7 +7119,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>10317.64003918736</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="30">
@@ -7130,7 +7130,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>11381.76400391874</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="31">
@@ -7141,7 +7141,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>11488.17640039187</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="32">
@@ -7152,7 +7152,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>11498.81764003919</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="33">
@@ -7163,7 +7163,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>11499.88176400392</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="34">
@@ -7174,7 +7174,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>11499.98817640039</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="35">
@@ -7185,7 +7185,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>11499.99881764004</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="36">
@@ -7196,7 +7196,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>11499.999881764</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="37">
@@ -7207,7 +7207,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>11499.9999881764</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="38">
@@ -7218,7 +7218,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>11499.99999881764</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="39">
@@ -7229,7 +7229,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>11499.99999988176</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="40">
@@ -7240,7 +7240,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>11499.99999998818</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="41">
@@ -7251,7 +7251,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>11499.99999999882</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="42">
@@ -7262,7 +7262,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>11499.99999999988</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="43">
@@ -7273,7 +7273,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>11499.99999999999</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="44">
@@ -7284,7 +7284,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>9780.56184099999</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="45">
@@ -7295,7 +7295,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>11328.0561841</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="46">
@@ -7306,7 +7306,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>11482.80561841</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="47">
@@ -7317,7 +7317,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>11498.280561841</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="48">
@@ -7328,7 +7328,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>11499.8280561841</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="49">
@@ -7339,7 +7339,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>11499.98280561841</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="50">
@@ -7350,7 +7350,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>11499.99828056184</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="51">
@@ -7361,7 +7361,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>11499.99982805618</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="52">
@@ -7372,7 +7372,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>11499.99998280562</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="53">
@@ -7383,7 +7383,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>11499.99999828056</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="54">
@@ -7394,7 +7394,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>11499.99999982806</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="55">
@@ -7405,7 +7405,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>11499.99999998281</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="56">
@@ -7416,7 +7416,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>9777.999999982805</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="57">
@@ -7427,7 +7427,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>8055.999999982805</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="58">
@@ -7438,7 +7438,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>11155.59999999828</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="59">
@@ -7449,7 +7449,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>11465.55999999983</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="60">
@@ -7460,7 +7460,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>11496.55599999998</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="61">
@@ -7471,7 +7471,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>11499.6556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="62">
@@ -7482,7 +7482,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>11499.96556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="63">
@@ -7493,7 +7493,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>11499.996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="64">
@@ -7504,7 +7504,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>11499.9996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="65">
@@ -7515,7 +7515,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>11499.99996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="66">
@@ -7526,7 +7526,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>11499.999996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="67">
@@ -7537,7 +7537,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>11499.9999996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="68">
@@ -7548,7 +7548,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>9777.9999996556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="69">
@@ -7559,7 +7559,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>10272.3025275556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="70">
@@ -7570,7 +7570,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>9561.303348555599</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="71">
@@ -7581,7 +7581,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>7839.303348555599</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="72">
@@ -7592,7 +7592,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>6294.825313555599</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="73">
@@ -7603,7 +7603,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>10183.4355144556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="74">
@@ -7614,7 +7614,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>9683.202885455599</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="75">
@@ -7625,7 +7625,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>11318.32028854556</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="76">
@@ -7636,7 +7636,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>11481.83202885456</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="77">
@@ -7647,7 +7647,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>11498.18320288546</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="78">
@@ -7658,7 +7658,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>11499.81832028854</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="79">
@@ -7669,7 +7669,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>11499.98183202885</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="80">
@@ -7680,7 +7680,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>11499.99818320289</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="81">
@@ -7691,7 +7691,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>11084.54332420289</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="82">
@@ -7702,7 +7702,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>11458.45433242029</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="83">
@@ -7713,7 +7713,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>11495.84543324203</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="84">
@@ -7724,7 +7724,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>11499.5845433242</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="85">
@@ -7735,7 +7735,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>11499.95845433242</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="86">
@@ -7746,7 +7746,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>11499.99584543324</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="87">
@@ -7757,7 +7757,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>11499.99958454332</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="88">
@@ -7768,7 +7768,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>11499.99995845433</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="89">
@@ -7779,7 +7779,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>11015.73184245433</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="90">
@@ -7790,7 +7790,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>11451.57318424543</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="91">
@@ -7801,7 +7801,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>11495.15731842454</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="92">
@@ -7812,7 +7812,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>11499.51573184245</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="93">
@@ -7823,7 +7823,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>11499.95157318425</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="94">
@@ -7834,7 +7834,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>9777.951573184246</v>
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -7903,7 +7903,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7925,7 +7925,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>1513.125848999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -7958,7 +7958,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -7980,7 +7980,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7991,7 +7991,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>1145.237236999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8002,7 +8002,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>638.8501240000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -8013,7 +8013,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -8068,7 +8068,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>666.8071889999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -8167,7 +8167,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -8343,7 +8343,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>1719.438158999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -8475,7 +8475,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -8486,7 +8486,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -8607,7 +8607,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -8629,7 +8629,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>710.9991790000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -8640,7 +8640,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -8651,7 +8651,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>1544.478035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -8673,7 +8673,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>500.2326289999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -8750,7 +8750,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>415.4548589999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -8838,7 +8838,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>484.2681159999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -8893,7 +8893,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>1722</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8928,7 +8928,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>4151.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8951,7 +8951,7 @@
         <v>1923</v>
       </c>
       <c r="C3" t="n">
-        <v>415.1699999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8973,7 +8973,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>124.5153519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8995,7 +8995,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>2841.066447389998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -9006,7 +9006,7 @@
         <v>1928</v>
       </c>
       <c r="C8" t="n">
-        <v>284.106644739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9028,7 +9028,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>1182.774114900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9083,7 +9083,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>1342.1835549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -9094,7 +9094,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>4011.027386553899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -9105,7 +9105,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>401.1027386553893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -9116,7 +9116,7 @@
         <v>1938</v>
       </c>
       <c r="C18" t="n">
-        <v>40.11027386553942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -9138,7 +9138,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>604.1374974865536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9149,7 +9149,7 @@
         <v>1941</v>
       </c>
       <c r="C21" t="n">
-        <v>60.41374974865503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -9160,7 +9160,7 @@
         <v>1942</v>
       </c>
       <c r="C22" t="n">
-        <v>6.041374974865175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -9171,7 +9171,7 @@
         <v>1943</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6041374974858628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -9182,7 +9182,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06041374974793143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -9193,7 +9193,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.006041374974302016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -9204,7 +9204,7 @@
         <v>1946</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0006041374974302017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -9215,7 +9215,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>6.041374908818398e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -9237,7 +9237,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>539.6400459000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -9248,7 +9248,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>1064.123964731373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -9259,7 +9259,7 @@
         <v>1951</v>
       </c>
       <c r="C31" t="n">
-        <v>106.4123964731381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -9270,7 +9270,7 @@
         <v>1952</v>
       </c>
       <c r="C32" t="n">
-        <v>10.64123964731316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -9281,7 +9281,7 @@
         <v>1953</v>
       </c>
       <c r="C33" t="n">
-        <v>1.064123964731152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -9292,7 +9292,7 @@
         <v>1954</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1064123964722967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -9303,7 +9303,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0106412396478845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9314,7 +9314,7 @@
         <v>1956</v>
       </c>
       <c r="C36" t="n">
-        <v>0.001064123965443287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -9325,7 +9325,7 @@
         <v>1957</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0001064123960532015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -9336,7 +9336,7 @@
         <v>1958</v>
       </c>
       <c r="C38" t="n">
-        <v>1.064124026015634e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -9347,7 +9347,7 @@
         <v>1959</v>
       </c>
       <c r="C39" t="n">
-        <v>1.064123534888495e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9358,7 +9358,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>1.064125171978958e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -9369,7 +9369,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>1.064108801074326e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9380,7 +9380,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>1.064108801074326e-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9391,7 +9391,7 @@
         <v>1963</v>
       </c>
       <c r="C43" t="n">
-        <v>1.064108801074326e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9413,7 +9413,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>1547.494343100009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -9424,7 +9424,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>154.7494343100018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -9435,7 +9435,7 @@
         <v>1967</v>
       </c>
       <c r="C47" t="n">
-        <v>15.47494343099952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9446,7 +9446,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>1.547494343099788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -9457,7 +9457,7 @@
         <v>1969</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1547494343098151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -9468,7 +9468,7 @@
         <v>1970</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01547494343049038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -9479,7 +9479,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001547494342230493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -9490,7 +9490,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0001547494335682131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -9501,7 +9501,7 @@
         <v>1973</v>
       </c>
       <c r="C53" t="n">
-        <v>1.547494302940322e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -9512,7 +9512,7 @@
         <v>1974</v>
       </c>
       <c r="C54" t="n">
-        <v>1.547494139231276e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -9523,7 +9523,7 @@
         <v>1975</v>
       </c>
       <c r="C55" t="n">
-        <v>1.547492502140813e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -9556,7 +9556,7 @@
         <v>1978</v>
       </c>
       <c r="C58" t="n">
-        <v>3099.600000015475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -9567,7 +9567,7 @@
         <v>1979</v>
       </c>
       <c r="C59" t="n">
-        <v>309.9600000015467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -9578,7 +9578,7 @@
         <v>1980</v>
       </c>
       <c r="C60" t="n">
-        <v>30.99600000015435</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -9589,7 +9589,7 @@
         <v>1981</v>
       </c>
       <c r="C61" t="n">
-        <v>3.099600000015926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -9600,7 +9600,7 @@
         <v>1982</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3099600000015926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -9611,7 +9611,7 @@
         <v>1983</v>
       </c>
       <c r="C63" t="n">
-        <v>0.03099599999950442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -9622,7 +9622,7 @@
         <v>1984</v>
       </c>
       <c r="C64" t="n">
-        <v>0.003099599999950442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -9633,7 +9633,7 @@
         <v>1985</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0003099599995039171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -9644,7 +9644,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>3.099599962297361e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -9655,7 +9655,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>3.099599962297362e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -9677,7 +9677,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>494.3025279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -9721,7 +9721,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>3888.610200899999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -9743,7 +9743,7 @@
         <v>1995</v>
       </c>
       <c r="C75" t="n">
-        <v>1635.117403089961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -9754,7 +9754,7 @@
         <v>1996</v>
       </c>
       <c r="C76" t="n">
-        <v>163.5117403089966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -9765,7 +9765,7 @@
         <v>1997</v>
       </c>
       <c r="C77" t="n">
-        <v>16.35117403089917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -9776,7 +9776,7 @@
         <v>1998</v>
       </c>
       <c r="C78" t="n">
-        <v>1.635117403090408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -9787,7 +9787,7 @@
         <v>1999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1635117403096956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -9798,7 +9798,7 @@
         <v>2000</v>
       </c>
       <c r="C80" t="n">
-        <v>0.01635117403129698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -9820,7 +9820,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>373.911008217402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -9831,7 +9831,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>37.39110082173939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -9842,7 +9842,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>3.739110082173283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -9853,7 +9853,7 @@
         <v>2005</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3739110082173284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -9864,7 +9864,7 @@
         <v>2006</v>
       </c>
       <c r="C86" t="n">
-        <v>0.03739110082206026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -9875,7 +9875,7 @@
         <v>2007</v>
       </c>
       <c r="C87" t="n">
-        <v>0.003739110081551189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -9886,7 +9886,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0.000373911008318828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -9908,7 +9908,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>435.8413417910997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -9919,7 +9919,7 @@
         <v>2011</v>
       </c>
       <c r="C91" t="n">
-        <v>43.58413417910997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -9930,7 +9930,7 @@
         <v>2012</v>
       </c>
       <c r="C92" t="n">
-        <v>4.358413417911652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -9941,7 +9941,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0.43584134179182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7169.299346</v>
       </c>
     </row>
     <row r="3">
@@ -10021,7 +10021,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1925.197475</v>
+        <v>11912.40200600001</v>
       </c>
     </row>
     <row r="5">
@@ -10032,7 +10032,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8676.085295999999</v>
       </c>
     </row>
     <row r="6">
@@ -10043,7 +10043,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>11395.766516</v>
       </c>
     </row>
     <row r="7">
@@ -10054,7 +10054,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1984.067716000005</v>
       </c>
     </row>
     <row r="8">
@@ -10076,7 +10076,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1637.686776</v>
+        <v>10353.99865600001</v>
       </c>
     </row>
     <row r="10">
@@ -10087,7 +10087,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>11566.56425600001</v>
       </c>
     </row>
     <row r="11">
@@ -10098,7 +10098,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2485.411549</v>
+        <v>16410.41150900001</v>
       </c>
     </row>
     <row r="12">
@@ -10109,7 +10109,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18128.97140400001</v>
       </c>
     </row>
     <row r="13">
@@ -10120,7 +10120,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>12414.24972600001</v>
       </c>
     </row>
     <row r="14">
@@ -10131,7 +10131,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>676.2130230000002</v>
+        <v>17992.562126</v>
       </c>
     </row>
     <row r="15">
@@ -10142,7 +10142,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2397.541776000005</v>
       </c>
     </row>
     <row r="16">
@@ -10153,7 +10153,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6945.156756000008</v>
       </c>
     </row>
     <row r="17">
@@ -10164,7 +10164,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>770.1962060000042</v>
       </c>
     </row>
     <row r="18">
@@ -10186,7 +10186,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4202.807435999999</v>
       </c>
     </row>
     <row r="20">
@@ -10197,7 +10197,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>8386.083746000008</v>
       </c>
     </row>
     <row r="21">
@@ -10241,7 +10241,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6580.815696000005</v>
       </c>
     </row>
     <row r="25">
@@ -10252,7 +10252,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2254.905766000007</v>
       </c>
     </row>
     <row r="26">
@@ -10274,7 +10274,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6276.465406000007</v>
       </c>
     </row>
     <row r="28">
@@ -10285,7 +10285,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>337.5554389999998</v>
+        <v>3971.155125999998</v>
       </c>
     </row>
     <row r="29">
@@ -10296,7 +10296,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>14285.489696</v>
       </c>
     </row>
     <row r="30">
@@ -10307,7 +10307,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5844.510926000006</v>
       </c>
     </row>
     <row r="31">
@@ -10362,7 +10362,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>10362.13547600001</v>
       </c>
     </row>
     <row r="36">
@@ -10417,7 +10417,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4091.638446000004</v>
       </c>
     </row>
     <row r="41">
@@ -10428,7 +10428,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>15821.26173700001</v>
       </c>
     </row>
     <row r="42">
@@ -10439,7 +10439,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5746.071766000005</v>
       </c>
     </row>
     <row r="43">
@@ -10461,7 +10461,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3423.792866</v>
       </c>
     </row>
     <row r="45">
@@ -10472,7 +10472,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5817.806405999998</v>
       </c>
     </row>
     <row r="46">
@@ -10483,7 +10483,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4639.228535999999</v>
       </c>
     </row>
     <row r="47">
@@ -10505,7 +10505,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>959.7430959999983</v>
       </c>
     </row>
     <row r="49">
@@ -10538,7 +10538,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>610.4143260000055</v>
       </c>
     </row>
     <row r="52">
@@ -10549,7 +10549,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2556.385196000007</v>
       </c>
     </row>
     <row r="53">
@@ -10593,7 +10593,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1498.362958999998</v>
+        <v>2756.896696</v>
       </c>
     </row>
     <row r="57">
@@ -10604,7 +10604,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3446.517792</v>
+        <v>23393.12787400001</v>
       </c>
     </row>
     <row r="58">
@@ -10703,7 +10703,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>38.44692599999689</v>
       </c>
     </row>
     <row r="67">
@@ -10714,7 +10714,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6236.006346000006</v>
       </c>
     </row>
     <row r="68">
@@ -10725,7 +10725,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2554.450459</v>
+        <v>18312.15994900001</v>
       </c>
     </row>
     <row r="69">
@@ -10736,7 +10736,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5036.326736000006</v>
       </c>
     </row>
     <row r="70">
@@ -10747,7 +10747,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>14620.12072600001</v>
       </c>
     </row>
     <row r="71">
@@ -10758,7 +10758,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2637.557246</v>
+        <v>14116.985084</v>
       </c>
     </row>
     <row r="72">
@@ -10769,7 +10769,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>20703.990253</v>
       </c>
     </row>
     <row r="73">
@@ -10780,7 +10780,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3313.840966000007</v>
       </c>
     </row>
     <row r="74">
@@ -10791,7 +10791,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>962.1556459999993</v>
       </c>
     </row>
     <row r="75">
@@ -10868,7 +10868,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>12994.066406</v>
       </c>
     </row>
     <row r="82">
@@ -10879,7 +10879,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5978.851696000005</v>
       </c>
     </row>
     <row r="83">
@@ -10890,7 +10890,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>7366.228335999998</v>
       </c>
     </row>
     <row r="84">
@@ -10901,7 +10901,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>7208.707385999998</v>
       </c>
     </row>
     <row r="85">
@@ -10945,7 +10945,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>18117.042911</v>
       </c>
     </row>
     <row r="89">
@@ -10956,7 +10956,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>13653.42366600001</v>
       </c>
     </row>
     <row r="90">
@@ -10967,7 +10967,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>678.447956</v>
       </c>
     </row>
     <row r="91">
@@ -11000,7 +11000,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5693.050016000005</v>
       </c>
     </row>
     <row r="94">
@@ -11011,7 +11011,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2311.581818</v>
+        <v>23925.212606</v>
       </c>
     </row>
   </sheetData>
@@ -11046,7 +11046,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>City of Tracy</t>
+          <t>Alameda County Water District</t>
         </is>
       </c>
     </row>
@@ -11058,7 +11058,7 @@
         <v>1922</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="3">
@@ -11080,7 +11080,7 @@
         <v>1924</v>
       </c>
       <c r="C4" t="n">
-        <v>1925.197475</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="5">
@@ -11091,7 +11091,7 @@
         <v>1925</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>6749.999999600001</v>
       </c>
     </row>
     <row r="6">
@@ -11102,7 +11102,7 @@
         <v>1926</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="7">
@@ -11113,7 +11113,7 @@
         <v>1927</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1984.067716000005</v>
       </c>
     </row>
     <row r="8">
@@ -11135,7 +11135,7 @@
         <v>1929</v>
       </c>
       <c r="C9" t="n">
-        <v>1637.686776</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="10">
@@ -11146,7 +11146,7 @@
         <v>1930</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="11">
@@ -11157,7 +11157,7 @@
         <v>1931</v>
       </c>
       <c r="C11" t="n">
-        <v>2485.411549</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="12">
@@ -11168,7 +11168,7 @@
         <v>1932</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="13">
@@ -11179,7 +11179,7 @@
         <v>1933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="14">
@@ -11190,7 +11190,7 @@
         <v>1934</v>
       </c>
       <c r="C14" t="n">
-        <v>676.2130230000002</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="15">
@@ -11201,7 +11201,7 @@
         <v>1935</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2397.541776000005</v>
       </c>
     </row>
     <row r="16">
@@ -11212,7 +11212,7 @@
         <v>1936</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="17">
@@ -11223,7 +11223,7 @@
         <v>1937</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>770.1962060000042</v>
       </c>
     </row>
     <row r="18">
@@ -11245,7 +11245,7 @@
         <v>1939</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>4202.807435999999</v>
       </c>
     </row>
     <row r="20">
@@ -11256,7 +11256,7 @@
         <v>1940</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="21">
@@ -11300,7 +11300,7 @@
         <v>1944</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="25">
@@ -11311,7 +11311,7 @@
         <v>1945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2254.905766000007</v>
       </c>
     </row>
     <row r="26">
@@ -11333,7 +11333,7 @@
         <v>1947</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="28">
@@ -11344,7 +11344,7 @@
         <v>1948</v>
       </c>
       <c r="C28" t="n">
-        <v>337.5554389999998</v>
+        <v>3971.155125999998</v>
       </c>
     </row>
     <row r="29">
@@ -11355,7 +11355,7 @@
         <v>1949</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="30">
@@ -11366,7 +11366,7 @@
         <v>1950</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5844.510926000006</v>
       </c>
     </row>
     <row r="31">
@@ -11421,7 +11421,7 @@
         <v>1955</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="36">
@@ -11476,7 +11476,7 @@
         <v>1960</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4091.638446000004</v>
       </c>
     </row>
     <row r="41">
@@ -11487,7 +11487,7 @@
         <v>1961</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="42">
@@ -11498,7 +11498,7 @@
         <v>1962</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5746.071766000005</v>
       </c>
     </row>
     <row r="43">
@@ -11520,7 +11520,7 @@
         <v>1964</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>3423.792866</v>
       </c>
     </row>
     <row r="45">
@@ -11531,7 +11531,7 @@
         <v>1965</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>5817.806405999998</v>
       </c>
     </row>
     <row r="46">
@@ -11542,7 +11542,7 @@
         <v>1966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>4639.228535999999</v>
       </c>
     </row>
     <row r="47">
@@ -11564,7 +11564,7 @@
         <v>1968</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>959.7430959999983</v>
       </c>
     </row>
     <row r="49">
@@ -11597,7 +11597,7 @@
         <v>1971</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>610.4143260000055</v>
       </c>
     </row>
     <row r="52">
@@ -11608,7 +11608,7 @@
         <v>1972</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>2556.385196000007</v>
       </c>
     </row>
     <row r="53">
@@ -11652,7 +11652,7 @@
         <v>1976</v>
       </c>
       <c r="C56" t="n">
-        <v>1498.362958999998</v>
+        <v>2756.896696</v>
       </c>
     </row>
     <row r="57">
@@ -11663,7 +11663,7 @@
         <v>1977</v>
       </c>
       <c r="C57" t="n">
-        <v>3446.517792</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="58">
@@ -11762,7 +11762,7 @@
         <v>1986</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>38.44692599999689</v>
       </c>
     </row>
     <row r="67">
@@ -11773,7 +11773,7 @@
         <v>1987</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="68">
@@ -11784,7 +11784,7 @@
         <v>1988</v>
       </c>
       <c r="C68" t="n">
-        <v>2554.450459</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="69">
@@ -11795,7 +11795,7 @@
         <v>1989</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>5036.326736000006</v>
       </c>
     </row>
     <row r="70">
@@ -11806,7 +11806,7 @@
         <v>1990</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="71">
@@ -11817,7 +11817,7 @@
         <v>1991</v>
       </c>
       <c r="C71" t="n">
-        <v>2637.557246</v>
+        <v>6749.999999600001</v>
       </c>
     </row>
     <row r="72">
@@ -11828,7 +11828,7 @@
         <v>1992</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="73">
@@ -11839,7 +11839,7 @@
         <v>1993</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>3313.840966000007</v>
       </c>
     </row>
     <row r="74">
@@ -11850,7 +11850,7 @@
         <v>1994</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>962.1556459999993</v>
       </c>
     </row>
     <row r="75">
@@ -11927,7 +11927,7 @@
         <v>2001</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="82">
@@ -11938,7 +11938,7 @@
         <v>2002</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>5978.851696000005</v>
       </c>
     </row>
     <row r="83">
@@ -11949,7 +11949,7 @@
         <v>2003</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>6749.999999600001</v>
       </c>
     </row>
     <row r="84">
@@ -11960,7 +11960,7 @@
         <v>2004</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>6389.999999600001</v>
       </c>
     </row>
     <row r="85">
@@ -12004,7 +12004,7 @@
         <v>2008</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="89">
@@ -12015,7 +12015,7 @@
         <v>2009</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
     <row r="90">
@@ -12026,7 +12026,7 @@
         <v>2010</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>678.447956</v>
       </c>
     </row>
     <row r="91">
@@ -12059,7 +12059,7 @@
         <v>2013</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5693.050016000005</v>
       </c>
     </row>
     <row r="94">
@@ -12070,7 +12070,7 @@
         <v>2014</v>
       </c>
       <c r="C94" t="n">
-        <v>2311.581818</v>
+        <v>6025.999999600001</v>
       </c>
     </row>
   </sheetData>
